--- a/generated/spreadsheet/verbose/householder-planning-application-hh-verbose.xlsx
+++ b/generated/spreadsheet/verbose/householder-planning-application-hh-verbose.xlsx
@@ -714,7 +714,7 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">

--- a/generated/spreadsheet/verbose/householder-planning-application-hh-verbose.xlsx
+++ b/generated/spreadsheet/verbose/householder-planning-application-hh-verbose.xlsx
@@ -709,7 +709,7 @@
       <c r="K5" s="2" t="inlineStr"/>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>The reference of the planning authority the application has been submitted to, e.g. local-authority:CMD</t>
+          <t>A reference of the planning authority the application has been submitted to, e.g. local-authority:CMD for London borough of Camden</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">

--- a/generated/spreadsheet/verbose/householder-planning-application-hh-verbose.xlsx
+++ b/generated/spreadsheet/verbose/householder-planning-application-hh-verbose.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N111"/>
+  <dimension ref="A1:N110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1083,17 +1083,17 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>url</t>
+          <t>base64-content</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>URL</t>
+          <t>Base64</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>A URL pointing to the stored file</t>
+          <t>Base64-encoded content of the file for inline file uploads</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
@@ -1147,17 +1147,17 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>base64-content</t>
+          <t>filename</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>Base64</t>
+          <t>Filename</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>Base64-encoded content of the file for inline file uploads</t>
+          <t>Name of the file being uploaded</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -1167,7 +1167,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1211,17 +1211,17 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>filename</t>
+          <t>mime-type</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>Filename</t>
+          <t>MIME type</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>Name of the file being uploaded</t>
+          <t>The file's MIME type such as application/pdf or image/jpeg</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1275,17 +1275,17 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>mime-type</t>
+          <t>checksum</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>MIME type</t>
+          <t>Checksum</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>The file's MIME type such as application/pdf or image/jpeg</t>
+          <t>Hash of the file contents used for file validation and checking files have not been tampered with</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
@@ -1339,22 +1339,22 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>checksum</t>
+          <t>file-size</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>Checksum</t>
+          <t>File size</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>Hash of the file contents used for file validation and checking files have not been tampered with</t>
+          <t>Size of the file in bytes that can be used to enforce limits</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -1383,37 +1383,29 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>documents</t>
+          <t>fee</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>Documents[]</t>
+          <t>Fee</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>file</t>
+          <t>amount</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>file-size</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>File size</t>
-        </is>
-      </c>
+          <t>Amount</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr"/>
+      <c r="K17" s="2" t="inlineStr"/>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>Size of the file in bytes that can be used to enforce limits</t>
+          <t>The total amount due for the application fee</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
@@ -1423,7 +1415,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1457,19 +1449,19 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>amount</t>
+          <t>amount-paid</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>Amount</t>
+          <t>Amount paid</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr"/>
       <c r="K18" s="2" t="inlineStr"/>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>The total amount due for the application fee</t>
+          <t>The amount paid towards the application fee</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
@@ -1513,99 +1505,83 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>amount-paid</t>
+          <t>transactions</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>Amount paid</t>
+          <t>Transactions[]</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr"/>
       <c r="K19" s="2" t="inlineStr"/>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>The amount paid towards the application fee</t>
+          <t>References to payments or financial transactions related to this application</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n"/>
-      <c r="B20" s="2" t="n"/>
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>Access and rights of way</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>access-rights-of-way</t>
+        </is>
+      </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>The details of the application payload to be submitted</t>
+          <t>Details of any changes the proposed development would make to existing access arrangements or public rights of way</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>application</t>
+          <t>new-altered-vehicle</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>Application</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>fee</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>Fee</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>transactions</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>Transactions[]</t>
-        </is>
-      </c>
+          <t>New or altered vehicle access</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr"/>
+      <c r="G20" s="2" t="inlineStr"/>
+      <c r="H20" s="2" t="inlineStr"/>
+      <c r="I20" s="2" t="inlineStr"/>
       <c r="J20" s="2" t="inlineStr"/>
       <c r="K20" s="2" t="inlineStr"/>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>References to payments or financial transactions related to this application</t>
+          <t>Is a new or altered vehicle access proposed to/from the public highway</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="inlineStr">
-        <is>
-          <t>Access and rights of way</t>
-        </is>
-      </c>
-      <c r="B21" s="2" t="inlineStr">
-        <is>
-          <t>access-rights-of-way</t>
-        </is>
-      </c>
+      <c r="A21" s="2" t="n"/>
+      <c r="B21" s="2" t="n"/>
       <c r="C21" s="2" t="inlineStr">
         <is>
           <t>Details of any changes the proposed development would make to existing access arrangements or public rights of way</t>
@@ -1613,12 +1589,12 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>new-altered-vehicle</t>
+          <t>new-altered-pedestrian</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>New or altered vehicle access</t>
+          <t>New or altered pedestrian access</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr"/>
@@ -1629,7 +1605,7 @@
       <c r="K21" s="2" t="inlineStr"/>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>Is a new or altered vehicle access proposed to/from the public highway</t>
+          <t>Is a new or altered pedestrian access proposed to/from the public highway</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
@@ -1653,12 +1629,12 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>new-altered-pedestrian</t>
+          <t>change-right-of-way</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>New or altered pedestrian access</t>
+          <t>Change to right of way</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr"/>
@@ -1669,7 +1645,7 @@
       <c r="K22" s="2" t="inlineStr"/>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>Is a new or altered pedestrian access proposed to/from the public highway</t>
+          <t>Will the proposal change public rights of way (diversion/extinguishment/creation)</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
@@ -1693,28 +1669,36 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>change-right-of-way</t>
+          <t>supporting-documents</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>Change to right of way</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr"/>
-      <c r="G23" s="2" t="inlineStr"/>
+          <t>Supporting documents[]</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>reference</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="H23" s="2" t="inlineStr"/>
       <c r="I23" s="2" t="inlineStr"/>
       <c r="J23" s="2" t="inlineStr"/>
       <c r="K23" s="2" t="inlineStr"/>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>Will the proposal change public rights of way (diversion/extinguishment/creation)</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -1743,12 +1727,12 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>name</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr"/>
@@ -1757,7 +1741,7 @@
       <c r="K24" s="2" t="inlineStr"/>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>A name for the document. For example, The Site Plan</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
@@ -1772,40 +1756,40 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="n"/>
-      <c r="B25" s="2" t="n"/>
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>Agent contact details</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>agent-contact</t>
+        </is>
+      </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>Details of any changes the proposed development would make to existing access arrangements or public rights of way</t>
+          <t>Name and contact information if an agent is being used.</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>supporting-documents</t>
+          <t>agent-reference</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>Supporting documents[]</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
+          <t>Agent reference</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr"/>
+      <c r="G25" s="2" t="inlineStr"/>
       <c r="H25" s="2" t="inlineStr"/>
       <c r="I25" s="2" t="inlineStr"/>
       <c r="J25" s="2" t="inlineStr"/>
       <c r="K25" s="2" t="inlineStr"/>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>A name for the document. For example, The Site Plan</t>
+          <t>A reference to an agent object</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
@@ -1820,16 +1804,8 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="inlineStr">
-        <is>
-          <t>Agent contact details</t>
-        </is>
-      </c>
-      <c r="B26" s="2" t="inlineStr">
-        <is>
-          <t>agent-contact</t>
-        </is>
-      </c>
+      <c r="A26" s="2" t="n"/>
+      <c r="B26" s="2" t="n"/>
       <c r="C26" s="2" t="inlineStr">
         <is>
           <t>Name and contact information if an agent is being used.</t>
@@ -1837,23 +1813,31 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>agent-reference</t>
+          <t>contact-details</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>Agent reference</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr"/>
-      <c r="G26" s="2" t="inlineStr"/>
+          <t>Contact details</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
       <c r="H26" s="2" t="inlineStr"/>
       <c r="I26" s="2" t="inlineStr"/>
       <c r="J26" s="2" t="inlineStr"/>
       <c r="K26" s="2" t="inlineStr"/>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>A reference to an agent object</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
@@ -1887,21 +1871,29 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>email</t>
+          <t>phone-numbers</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr"/>
-      <c r="I27" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
       <c r="J27" s="2" t="inlineStr"/>
       <c r="K27" s="2" t="inlineStr"/>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
@@ -1911,7 +1903,7 @@
       </c>
       <c r="N27" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1945,24 +1937,24 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>contact-priority</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Contact priority</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr"/>
       <c r="K28" s="2" t="inlineStr"/>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
@@ -1972,8 +1964,16 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="n"/>
-      <c r="B29" s="2" t="n"/>
+      <c r="A29" s="2" t="inlineStr">
+        <is>
+          <t>Agent details</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="inlineStr">
+        <is>
+          <t>agent-details</t>
+        </is>
+      </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
           <t>Name and contact information if an agent is being used.</t>
@@ -1981,63 +1981,47 @@
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>contact-details</t>
+          <t>agent</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
+          <t>agent</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>phone-numbers</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="H29" s="2" t="inlineStr">
-        <is>
-          <t>contact-priority</t>
-        </is>
-      </c>
-      <c r="I29" s="2" t="inlineStr">
-        <is>
-          <t>Contact priority</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr"/>
+      <c r="I29" s="2" t="inlineStr"/>
       <c r="J29" s="2" t="inlineStr"/>
       <c r="K29" s="2" t="inlineStr"/>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="inlineStr">
-        <is>
-          <t>Agent details</t>
-        </is>
-      </c>
-      <c r="B30" s="2" t="inlineStr">
-        <is>
-          <t>agent-details</t>
-        </is>
-      </c>
+      <c r="A30" s="2" t="n"/>
+      <c r="B30" s="2" t="n"/>
       <c r="C30" s="2" t="inlineStr">
         <is>
           <t>Name and contact information if an agent is being used.</t>
@@ -2055,21 +2039,29 @@
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>person</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="H30" s="2" t="inlineStr"/>
-      <c r="I30" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="J30" s="2" t="inlineStr"/>
       <c r="K30" s="2" t="inlineStr"/>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
@@ -2079,7 +2071,7 @@
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2113,19 +2105,19 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>first-name</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr"/>
       <c r="K31" s="2" t="inlineStr"/>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
@@ -2135,7 +2127,7 @@
       </c>
       <c r="N31" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2169,19 +2161,19 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>first-name</t>
+          <t>last-name</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr"/>
       <c r="K32" s="2" t="inlineStr"/>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
@@ -2225,19 +2217,19 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>last-name</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr"/>
       <c r="K33" s="2" t="inlineStr"/>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
@@ -2281,19 +2273,19 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr"/>
       <c r="K34" s="2" t="inlineStr"/>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
@@ -2303,7 +2295,7 @@
       </c>
       <c r="N34" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2327,29 +2319,21 @@
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>company</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H35" s="2" t="inlineStr">
-        <is>
-          <t>postcode</t>
-        </is>
-      </c>
-      <c r="I35" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Company</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr"/>
+      <c r="I35" s="2" t="inlineStr"/>
       <c r="J35" s="2" t="inlineStr"/>
       <c r="K35" s="2" t="inlineStr"/>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>The name of a company (that the agent works for)</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
@@ -2383,12 +2367,12 @@
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>company</t>
+          <t>user-role</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>Company</t>
+          <t>User role</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr"/>
@@ -2397,12 +2381,12 @@
       <c r="K36" s="2" t="inlineStr"/>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>The name of a company (that the agent works for)</t>
+          <t>The role of the named individual. Agent or proxy</t>
         </is>
       </c>
       <c r="M36" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N36" s="2" t="inlineStr">
@@ -2412,64 +2396,56 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="n"/>
-      <c r="B37" s="2" t="n"/>
+      <c r="A37" s="2" t="inlineStr">
+        <is>
+          <t>Applicant contact details</t>
+        </is>
+      </c>
+      <c r="B37" s="2" t="inlineStr">
+        <is>
+          <t>applicant-contact</t>
+        </is>
+      </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>Name and contact information if an agent is being used.</t>
+          <t>Telephone number and email address of the applicant.</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>agent</t>
+          <t>applicant-reference</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>agent</t>
-        </is>
-      </c>
-      <c r="F37" s="2" t="inlineStr">
-        <is>
-          <t>user-role</t>
-        </is>
-      </c>
-      <c r="G37" s="2" t="inlineStr">
-        <is>
-          <t>User role</t>
-        </is>
-      </c>
+          <t>Applicant reference</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr"/>
+      <c r="G37" s="2" t="inlineStr"/>
       <c r="H37" s="2" t="inlineStr"/>
       <c r="I37" s="2" t="inlineStr"/>
       <c r="J37" s="2" t="inlineStr"/>
       <c r="K37" s="2" t="inlineStr"/>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>The role of the named individual. Agent or proxy</t>
+          <t>Reference to match contact details to a named individual from the applicant details component</t>
         </is>
       </c>
       <c r="M37" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N37" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="inlineStr">
-        <is>
-          <t>Applicant contact details</t>
-        </is>
-      </c>
-      <c r="B38" s="2" t="inlineStr">
-        <is>
-          <t>applicant-contact</t>
-        </is>
-      </c>
+      <c r="A38" s="2" t="n"/>
+      <c r="B38" s="2" t="n"/>
       <c r="C38" s="2" t="inlineStr">
         <is>
           <t>Telephone number and email address of the applicant.</t>
@@ -2477,23 +2453,31 @@
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>applicant-reference</t>
+          <t>contact-details</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>Applicant reference</t>
-        </is>
-      </c>
-      <c r="F38" s="2" t="inlineStr"/>
-      <c r="G38" s="2" t="inlineStr"/>
+          <t>Contact details</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
       <c r="H38" s="2" t="inlineStr"/>
       <c r="I38" s="2" t="inlineStr"/>
       <c r="J38" s="2" t="inlineStr"/>
       <c r="K38" s="2" t="inlineStr"/>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>Reference to match contact details to a named individual from the applicant details component</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="M38" s="2" t="inlineStr">
@@ -2527,21 +2511,29 @@
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>email</t>
+          <t>phone-numbers</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="H39" s="2" t="inlineStr"/>
-      <c r="I39" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
       <c r="J39" s="2" t="inlineStr"/>
       <c r="K39" s="2" t="inlineStr"/>
       <c r="L39" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="M39" s="2" t="inlineStr">
@@ -2551,7 +2543,7 @@
       </c>
       <c r="N39" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2585,24 +2577,24 @@
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>contact-priority</t>
         </is>
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Contact priority</t>
         </is>
       </c>
       <c r="J40" s="2" t="inlineStr"/>
       <c r="K40" s="2" t="inlineStr"/>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="M40" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N40" s="2" t="inlineStr">
@@ -2612,72 +2604,64 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="n"/>
-      <c r="B41" s="2" t="n"/>
+      <c r="A41" s="2" t="inlineStr">
+        <is>
+          <t>Applicant details</t>
+        </is>
+      </c>
+      <c r="B41" s="2" t="inlineStr">
+        <is>
+          <t>applicant-details</t>
+        </is>
+      </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>Telephone number and email address of the applicant.</t>
+          <t>Name and contact information for the parties making the application.</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>contact-details</t>
+          <t>applicants</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
+          <t>Applicants[]</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>phone-numbers</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="H41" s="2" t="inlineStr">
-        <is>
-          <t>contact-priority</t>
-        </is>
-      </c>
-      <c r="I41" s="2" t="inlineStr">
-        <is>
-          <t>Contact priority</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr"/>
+      <c r="I41" s="2" t="inlineStr"/>
       <c r="J41" s="2" t="inlineStr"/>
       <c r="K41" s="2" t="inlineStr"/>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M41" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N41" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="inlineStr">
-        <is>
-          <t>Applicant details</t>
-        </is>
-      </c>
-      <c r="B42" s="2" t="inlineStr">
-        <is>
-          <t>applicant-details</t>
-        </is>
-      </c>
+      <c r="A42" s="2" t="n"/>
+      <c r="B42" s="2" t="n"/>
       <c r="C42" s="2" t="inlineStr">
         <is>
           <t>Name and contact information for the parties making the application.</t>
@@ -2695,21 +2679,29 @@
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>person</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="H42" s="2" t="inlineStr"/>
-      <c r="I42" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="J42" s="2" t="inlineStr"/>
       <c r="K42" s="2" t="inlineStr"/>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="M42" s="2" t="inlineStr">
@@ -2719,7 +2711,7 @@
       </c>
       <c r="N42" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2753,19 +2745,19 @@
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>first-name</t>
         </is>
       </c>
       <c r="I43" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="J43" s="2" t="inlineStr"/>
       <c r="K43" s="2" t="inlineStr"/>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="M43" s="2" t="inlineStr">
@@ -2775,7 +2767,7 @@
       </c>
       <c r="N43" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2809,19 +2801,19 @@
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>first-name</t>
+          <t>last-name</t>
         </is>
       </c>
       <c r="I44" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="J44" s="2" t="inlineStr"/>
       <c r="K44" s="2" t="inlineStr"/>
       <c r="L44" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="M44" s="2" t="inlineStr">
@@ -2865,19 +2857,19 @@
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>last-name</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="I45" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="J45" s="2" t="inlineStr"/>
       <c r="K45" s="2" t="inlineStr"/>
       <c r="L45" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M45" s="2" t="inlineStr">
@@ -2921,19 +2913,19 @@
       </c>
       <c r="H46" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="I46" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="J46" s="2" t="inlineStr"/>
       <c r="K46" s="2" t="inlineStr"/>
       <c r="L46" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M46" s="2" t="inlineStr">
@@ -2943,90 +2935,82 @@
       </c>
       <c r="N46" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="n"/>
-      <c r="B47" s="2" t="n"/>
+      <c r="A47" s="2" t="inlineStr">
+        <is>
+          <t>Biodiversity net gain</t>
+        </is>
+      </c>
+      <c r="B47" s="2" t="inlineStr">
+        <is>
+          <t>bng</t>
+        </is>
+      </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>Name and contact information for the parties making the application.</t>
+          <t>How any natural habitats on the development site will be improved by the proposed works.</t>
         </is>
       </c>
       <c r="D47" s="2" t="inlineStr">
         <is>
-          <t>applicants</t>
+          <t>bng-exempt</t>
         </is>
       </c>
       <c r="E47" s="2" t="inlineStr">
         <is>
-          <t>Applicants[]</t>
-        </is>
-      </c>
-      <c r="F47" s="2" t="inlineStr">
-        <is>
-          <t>person</t>
-        </is>
-      </c>
-      <c r="G47" s="2" t="inlineStr">
-        <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H47" s="2" t="inlineStr">
-        <is>
-          <t>postcode</t>
-        </is>
-      </c>
-      <c r="I47" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Biodiversity gain exemption</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="inlineStr"/>
+      <c r="G47" s="2" t="inlineStr"/>
+      <c r="H47" s="2" t="inlineStr"/>
+      <c r="I47" s="2" t="inlineStr"/>
       <c r="J47" s="2" t="inlineStr"/>
       <c r="K47" s="2" t="inlineStr"/>
       <c r="L47" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Statement whether the biodiversity gain condition will apply if permission is granted. Householder applicants need to confirm the biodiversity gain condition does not apply.</t>
         </is>
       </c>
       <c r="M47" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N47" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>Biodiversity net gain</t>
+          <t>Checklist</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>bng</t>
+          <t>checklist</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>How any natural habitats on the development site will be improved by the proposed works.</t>
+          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr">
         <is>
-          <t>bng-exempt</t>
+          <t>national-req-types</t>
         </is>
       </c>
       <c r="E48" s="2" t="inlineStr">
         <is>
-          <t>Biodiversity gain exemption</t>
+          <t>National requirement types[]</t>
         </is>
       </c>
       <c r="F48" s="2" t="inlineStr"/>
@@ -3037,12 +3021,12 @@
       <c r="K48" s="2" t="inlineStr"/>
       <c r="L48" s="2" t="inlineStr">
         <is>
-          <t>Statement whether the biodiversity gain condition will apply if permission is granted. Householder applicants need to confirm the biodiversity gain condition does not apply.</t>
+          <t>List of the document types required for the given application type</t>
         </is>
       </c>
       <c r="M48" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N48" s="2" t="inlineStr">
@@ -3054,27 +3038,27 @@
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>Checklist</t>
+          <t>Conflict of interest</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>checklist</t>
+          <t>conflict-of-interest</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
+          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
         </is>
       </c>
       <c r="D49" s="2" t="inlineStr">
         <is>
-          <t>national-req-types</t>
+          <t>conflict-to-declare</t>
         </is>
       </c>
       <c r="E49" s="2" t="inlineStr">
         <is>
-          <t>National requirement types[]</t>
+          <t>Conflict to declare</t>
         </is>
       </c>
       <c r="F49" s="2" t="inlineStr"/>
@@ -3085,12 +3069,12 @@
       <c r="K49" s="2" t="inlineStr"/>
       <c r="L49" s="2" t="inlineStr">
         <is>
-          <t>List of the document types required for the given application type</t>
+          <t>Indicates whether any named applicant or agent has a relationship to the planning authority that must be declared</t>
         </is>
       </c>
       <c r="M49" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N49" s="2" t="inlineStr">
@@ -3100,16 +3084,8 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="inlineStr">
-        <is>
-          <t>Conflict of interest</t>
-        </is>
-      </c>
-      <c r="B50" s="2" t="inlineStr">
-        <is>
-          <t>conflict-of-interest</t>
-        </is>
-      </c>
+      <c r="A50" s="2" t="n"/>
+      <c r="B50" s="2" t="n"/>
       <c r="C50" s="2" t="inlineStr">
         <is>
           <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
@@ -3117,12 +3093,12 @@
       </c>
       <c r="D50" s="2" t="inlineStr">
         <is>
-          <t>conflict-to-declare</t>
+          <t>conflict-person-name</t>
         </is>
       </c>
       <c r="E50" s="2" t="inlineStr">
         <is>
-          <t>Conflict to declare</t>
+          <t>Conflict person name</t>
         </is>
       </c>
       <c r="F50" s="2" t="inlineStr"/>
@@ -3133,17 +3109,17 @@
       <c r="K50" s="2" t="inlineStr"/>
       <c r="L50" s="2" t="inlineStr">
         <is>
-          <t>Indicates whether any named applicant or agent has a relationship to the planning authority that must be declared</t>
+          <t>Name of the individual with the conflict of interest that matches one of the names provided in applicants/agent section</t>
         </is>
       </c>
       <c r="M50" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N50" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3157,12 +3133,12 @@
       </c>
       <c r="D51" s="2" t="inlineStr">
         <is>
-          <t>conflict-person-name</t>
+          <t>conflict-details</t>
         </is>
       </c>
       <c r="E51" s="2" t="inlineStr">
         <is>
-          <t>Conflict person name</t>
+          <t>Conflict details</t>
         </is>
       </c>
       <c r="F51" s="2" t="inlineStr"/>
@@ -3173,7 +3149,7 @@
       <c r="K51" s="2" t="inlineStr"/>
       <c r="L51" s="2" t="inlineStr">
         <is>
-          <t>Name of the individual with the conflict of interest that matches one of the names provided in applicants/agent section</t>
+          <t>Details of the conflict of interest including name, role and how the individual is related to the planning authority</t>
         </is>
       </c>
       <c r="M51" s="2" t="inlineStr">
@@ -3188,21 +3164,29 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="n"/>
-      <c r="B52" s="2" t="n"/>
+      <c r="A52" s="2" t="inlineStr">
+        <is>
+          <t>Declaration</t>
+        </is>
+      </c>
+      <c r="B52" s="2" t="inlineStr">
+        <is>
+          <t>declaration</t>
+        </is>
+      </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
+          <t>Signed and dated verification of the application's accuracy.</t>
         </is>
       </c>
       <c r="D52" s="2" t="inlineStr">
         <is>
-          <t>conflict-details</t>
+          <t>name</t>
         </is>
       </c>
       <c r="E52" s="2" t="inlineStr">
         <is>
-          <t>Conflict details</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="F52" s="2" t="inlineStr"/>
@@ -3213,7 +3197,7 @@
       <c r="K52" s="2" t="inlineStr"/>
       <c r="L52" s="2" t="inlineStr">
         <is>
-          <t>Details of the conflict of interest including name, role and how the individual is related to the planning authority</t>
+          <t>A name of a person</t>
         </is>
       </c>
       <c r="M52" s="2" t="inlineStr">
@@ -3223,21 +3207,13 @@
       </c>
       <c r="N52" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="2" t="inlineStr">
-        <is>
-          <t>Declaration</t>
-        </is>
-      </c>
-      <c r="B53" s="2" t="inlineStr">
-        <is>
-          <t>declaration</t>
-        </is>
-      </c>
+      <c r="A53" s="2" t="n"/>
+      <c r="B53" s="2" t="n"/>
       <c r="C53" s="2" t="inlineStr">
         <is>
           <t>Signed and dated verification of the application's accuracy.</t>
@@ -3245,12 +3221,12 @@
       </c>
       <c r="D53" s="2" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>declaration-confirmed</t>
         </is>
       </c>
       <c r="E53" s="2" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Declaration confirmed</t>
         </is>
       </c>
       <c r="F53" s="2" t="inlineStr"/>
@@ -3261,12 +3237,12 @@
       <c r="K53" s="2" t="inlineStr"/>
       <c r="L53" s="2" t="inlineStr">
         <is>
-          <t>A name of a person</t>
+          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
         </is>
       </c>
       <c r="M53" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N53" s="2" t="inlineStr">
@@ -3285,12 +3261,12 @@
       </c>
       <c r="D54" s="2" t="inlineStr">
         <is>
-          <t>declaration-confirmed</t>
+          <t>declaration-date</t>
         </is>
       </c>
       <c r="E54" s="2" t="inlineStr">
         <is>
-          <t>Declaration confirmed</t>
+          <t>Declaration date</t>
         </is>
       </c>
       <c r="F54" s="2" t="inlineStr"/>
@@ -3301,12 +3277,12 @@
       <c r="K54" s="2" t="inlineStr"/>
       <c r="L54" s="2" t="inlineStr">
         <is>
-          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
+          <t>The date the declaration was made</t>
         </is>
       </c>
       <c r="M54" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N54" s="2" t="inlineStr">
@@ -3316,37 +3292,53 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="2" t="n"/>
-      <c r="B55" s="2" t="n"/>
+      <c r="A55" s="2" t="inlineStr">
+        <is>
+          <t>Materials</t>
+        </is>
+      </c>
+      <c r="B55" s="2" t="inlineStr">
+        <is>
+          <t>materials</t>
+        </is>
+      </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>Signed and dated verification of the application's accuracy.</t>
+          <t>What materials are being used for the proposed development</t>
         </is>
       </c>
       <c r="D55" s="2" t="inlineStr">
         <is>
-          <t>declaration-date</t>
+          <t>building-elements</t>
         </is>
       </c>
       <c r="E55" s="2" t="inlineStr">
         <is>
-          <t>Declaration date</t>
-        </is>
-      </c>
-      <c r="F55" s="2" t="inlineStr"/>
-      <c r="G55" s="2" t="inlineStr"/>
+          <t>Building elements[]</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>building-element-type</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="inlineStr">
+        <is>
+          <t>Building element type</t>
+        </is>
+      </c>
       <c r="H55" s="2" t="inlineStr"/>
       <c r="I55" s="2" t="inlineStr"/>
       <c r="J55" s="2" t="inlineStr"/>
       <c r="K55" s="2" t="inlineStr"/>
       <c r="L55" s="2" t="inlineStr">
         <is>
-          <t>The date the declaration was made</t>
+          <t>The part of building the materials relate to, such as walls, roofs, windows, or doors</t>
         </is>
       </c>
       <c r="M55" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N55" s="2" t="inlineStr">
@@ -3356,16 +3348,8 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="inlineStr">
-        <is>
-          <t>Materials</t>
-        </is>
-      </c>
-      <c r="B56" s="2" t="inlineStr">
-        <is>
-          <t>materials</t>
-        </is>
-      </c>
+      <c r="A56" s="2" t="n"/>
+      <c r="B56" s="2" t="n"/>
       <c r="C56" s="2" t="inlineStr">
         <is>
           <t>What materials are being used for the proposed development</t>
@@ -3383,12 +3367,12 @@
       </c>
       <c r="F56" s="2" t="inlineStr">
         <is>
-          <t>building-element-type</t>
+          <t>existing-materials</t>
         </is>
       </c>
       <c r="G56" s="2" t="inlineStr">
         <is>
-          <t>Building element type</t>
+          <t>Existing materials</t>
         </is>
       </c>
       <c r="H56" s="2" t="inlineStr"/>
@@ -3397,17 +3381,17 @@
       <c r="K56" s="2" t="inlineStr"/>
       <c r="L56" s="2" t="inlineStr">
         <is>
-          <t>The part of building the materials relate to, such as walls, roofs, windows, or doors</t>
+          <t>Description of the materials currently used for this building element</t>
         </is>
       </c>
       <c r="M56" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N56" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3431,12 +3415,12 @@
       </c>
       <c r="F57" s="2" t="inlineStr">
         <is>
-          <t>existing-materials</t>
+          <t>proposed-materials</t>
         </is>
       </c>
       <c r="G57" s="2" t="inlineStr">
         <is>
-          <t>Existing materials</t>
+          <t>Proposed materials</t>
         </is>
       </c>
       <c r="H57" s="2" t="inlineStr"/>
@@ -3445,7 +3429,7 @@
       <c r="K57" s="2" t="inlineStr"/>
       <c r="L57" s="2" t="inlineStr">
         <is>
-          <t>Description of the materials currently used for this building element</t>
+          <t>Description of the materials proposed for this building element as part of the development</t>
         </is>
       </c>
       <c r="M57" s="2" t="inlineStr">
@@ -3479,12 +3463,12 @@
       </c>
       <c r="F58" s="2" t="inlineStr">
         <is>
-          <t>proposed-materials</t>
+          <t>materials-not-applicable</t>
         </is>
       </c>
       <c r="G58" s="2" t="inlineStr">
         <is>
-          <t>Proposed materials</t>
+          <t>Materials not applicable</t>
         </is>
       </c>
       <c r="H58" s="2" t="inlineStr"/>
@@ -3493,12 +3477,12 @@
       <c r="K58" s="2" t="inlineStr"/>
       <c r="L58" s="2" t="inlineStr">
         <is>
-          <t>Description of the materials proposed for this building element as part of the development</t>
+          <t>Indicates this building element is not relevant to the application</t>
         </is>
       </c>
       <c r="M58" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N58" s="2" t="inlineStr">
@@ -3527,12 +3511,12 @@
       </c>
       <c r="F59" s="2" t="inlineStr">
         <is>
-          <t>materials-not-applicable</t>
+          <t>materials-not-known</t>
         </is>
       </c>
       <c r="G59" s="2" t="inlineStr">
         <is>
-          <t>Materials not applicable</t>
+          <t>Materials not known</t>
         </is>
       </c>
       <c r="H59" s="2" t="inlineStr"/>
@@ -3541,7 +3525,7 @@
       <c r="K59" s="2" t="inlineStr"/>
       <c r="L59" s="2" t="inlineStr">
         <is>
-          <t>Indicates this building element is not relevant to the application</t>
+          <t>Indicates the materials for this building element are not yet known</t>
         </is>
       </c>
       <c r="M59" s="2" t="inlineStr">
@@ -3565,31 +3549,23 @@
       </c>
       <c r="D60" s="2" t="inlineStr">
         <is>
-          <t>building-elements</t>
+          <t>providing-additional-material-information</t>
         </is>
       </c>
       <c r="E60" s="2" t="inlineStr">
         <is>
-          <t>Building elements[]</t>
-        </is>
-      </c>
-      <c r="F60" s="2" t="inlineStr">
-        <is>
-          <t>materials-not-known</t>
-        </is>
-      </c>
-      <c r="G60" s="2" t="inlineStr">
-        <is>
-          <t>Materials not known</t>
-        </is>
-      </c>
+          <t>Providing additional material information</t>
+        </is>
+      </c>
+      <c r="F60" s="2" t="inlineStr"/>
+      <c r="G60" s="2" t="inlineStr"/>
       <c r="H60" s="2" t="inlineStr"/>
       <c r="I60" s="2" t="inlineStr"/>
       <c r="J60" s="2" t="inlineStr"/>
       <c r="K60" s="2" t="inlineStr"/>
       <c r="L60" s="2" t="inlineStr">
         <is>
-          <t>Indicates the materials for this building element are not yet known</t>
+          <t>Is the applicant providing additional materials information on submitted plan(s)/drawing(s)/design and access statement?</t>
         </is>
       </c>
       <c r="M60" s="2" t="inlineStr">
@@ -3599,7 +3575,7 @@
       </c>
       <c r="N60" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3613,28 +3589,36 @@
       </c>
       <c r="D61" s="2" t="inlineStr">
         <is>
-          <t>providing-additional-material-information</t>
+          <t>supporting-documents</t>
         </is>
       </c>
       <c r="E61" s="2" t="inlineStr">
         <is>
-          <t>Providing additional material information</t>
-        </is>
-      </c>
-      <c r="F61" s="2" t="inlineStr"/>
-      <c r="G61" s="2" t="inlineStr"/>
+          <t>Supporting documents[]</t>
+        </is>
+      </c>
+      <c r="F61" s="2" t="inlineStr">
+        <is>
+          <t>reference</t>
+        </is>
+      </c>
+      <c r="G61" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="H61" s="2" t="inlineStr"/>
       <c r="I61" s="2" t="inlineStr"/>
       <c r="J61" s="2" t="inlineStr"/>
       <c r="K61" s="2" t="inlineStr"/>
       <c r="L61" s="2" t="inlineStr">
         <is>
-          <t>Is the applicant providing additional materials information on submitted plan(s)/drawing(s)/design and access statement?</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M61" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N61" s="2" t="inlineStr">
@@ -3663,12 +3647,12 @@
       </c>
       <c r="F62" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>name</t>
         </is>
       </c>
       <c r="G62" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="H62" s="2" t="inlineStr"/>
@@ -3677,7 +3661,7 @@
       <c r="K62" s="2" t="inlineStr"/>
       <c r="L62" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>A name for the document. For example, The Site Plan</t>
         </is>
       </c>
       <c r="M62" s="2" t="inlineStr">
@@ -3692,45 +3676,45 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2" t="n"/>
-      <c r="B63" s="2" t="n"/>
+      <c r="A63" s="2" t="inlineStr">
+        <is>
+          <t>Ownership certificates and agricultural land declaration</t>
+        </is>
+      </c>
+      <c r="B63" s="2" t="inlineStr">
+        <is>
+          <t>ownership-certs</t>
+        </is>
+      </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>What materials are being used for the proposed development</t>
+          <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
         </is>
       </c>
       <c r="D63" s="2" t="inlineStr">
         <is>
-          <t>supporting-documents</t>
+          <t>sole-owner</t>
         </is>
       </c>
       <c r="E63" s="2" t="inlineStr">
         <is>
-          <t>Supporting documents[]</t>
-        </is>
-      </c>
-      <c r="F63" s="2" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="G63" s="2" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
+          <t>Sole owner</t>
+        </is>
+      </c>
+      <c r="F63" s="2" t="inlineStr"/>
+      <c r="G63" s="2" t="inlineStr"/>
       <c r="H63" s="2" t="inlineStr"/>
       <c r="I63" s="2" t="inlineStr"/>
       <c r="J63" s="2" t="inlineStr"/>
       <c r="K63" s="2" t="inlineStr"/>
       <c r="L63" s="2" t="inlineStr">
         <is>
-          <t>A name for the document. For example, The Site Plan</t>
+          <t>Is the applicant the sole owner of the land?</t>
         </is>
       </c>
       <c r="M63" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N63" s="2" t="inlineStr">
@@ -3740,16 +3724,8 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="2" t="inlineStr">
-        <is>
-          <t>Ownership certificates and agricultural land declaration</t>
-        </is>
-      </c>
-      <c r="B64" s="2" t="inlineStr">
-        <is>
-          <t>ownership-certs</t>
-        </is>
-      </c>
+      <c r="A64" s="2" t="n"/>
+      <c r="B64" s="2" t="n"/>
       <c r="C64" s="2" t="inlineStr">
         <is>
           <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
@@ -3757,12 +3733,12 @@
       </c>
       <c r="D64" s="2" t="inlineStr">
         <is>
-          <t>sole-owner</t>
+          <t>agricultural-tenants</t>
         </is>
       </c>
       <c r="E64" s="2" t="inlineStr">
         <is>
-          <t>Sole owner</t>
+          <t>Agricultural tenants</t>
         </is>
       </c>
       <c r="F64" s="2" t="inlineStr"/>
@@ -3773,7 +3749,7 @@
       <c r="K64" s="2" t="inlineStr"/>
       <c r="L64" s="2" t="inlineStr">
         <is>
-          <t>Is the applicant the sole owner of the land?</t>
+          <t>Are there any agricultural tenants on the land?</t>
         </is>
       </c>
       <c r="M64" s="2" t="inlineStr">
@@ -3797,33 +3773,49 @@
       </c>
       <c r="D65" s="2" t="inlineStr">
         <is>
-          <t>agricultural-tenants</t>
+          <t>owners-and-tenants</t>
         </is>
       </c>
       <c r="E65" s="2" t="inlineStr">
         <is>
-          <t>Agricultural tenants</t>
-        </is>
-      </c>
-      <c r="F65" s="2" t="inlineStr"/>
-      <c r="G65" s="2" t="inlineStr"/>
-      <c r="H65" s="2" t="inlineStr"/>
-      <c r="I65" s="2" t="inlineStr"/>
+          <t>Owners and tenants[]</t>
+        </is>
+      </c>
+      <c r="F65" s="2" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="G65" s="2" t="inlineStr">
+        <is>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="H65" s="2" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="I65" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="J65" s="2" t="inlineStr"/>
       <c r="K65" s="2" t="inlineStr"/>
       <c r="L65" s="2" t="inlineStr">
         <is>
-          <t>Are there any agricultural tenants on the land?</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="M65" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N65" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3857,19 +3849,19 @@
       </c>
       <c r="H66" s="2" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>first-name</t>
         </is>
       </c>
       <c r="I66" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="J66" s="2" t="inlineStr"/>
       <c r="K66" s="2" t="inlineStr"/>
       <c r="L66" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="M66" s="2" t="inlineStr">
@@ -3879,7 +3871,7 @@
       </c>
       <c r="N66" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3913,19 +3905,19 @@
       </c>
       <c r="H67" s="2" t="inlineStr">
         <is>
-          <t>first-name</t>
+          <t>last-name</t>
         </is>
       </c>
       <c r="I67" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="J67" s="2" t="inlineStr"/>
       <c r="K67" s="2" t="inlineStr"/>
       <c r="L67" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="M67" s="2" t="inlineStr">
@@ -3969,19 +3961,19 @@
       </c>
       <c r="H68" s="2" t="inlineStr">
         <is>
-          <t>last-name</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="I68" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="J68" s="2" t="inlineStr"/>
       <c r="K68" s="2" t="inlineStr"/>
       <c r="L68" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M68" s="2" t="inlineStr">
@@ -4025,19 +4017,19 @@
       </c>
       <c r="H69" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="I69" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="J69" s="2" t="inlineStr"/>
       <c r="K69" s="2" t="inlineStr"/>
       <c r="L69" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M69" s="2" t="inlineStr">
@@ -4047,7 +4039,7 @@
       </c>
       <c r="N69" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4071,34 +4063,26 @@
       </c>
       <c r="F70" s="2" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>notice-date</t>
         </is>
       </c>
       <c r="G70" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H70" s="2" t="inlineStr">
-        <is>
-          <t>postcode</t>
-        </is>
-      </c>
-      <c r="I70" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Notice date</t>
+        </is>
+      </c>
+      <c r="H70" s="2" t="inlineStr"/>
+      <c r="I70" s="2" t="inlineStr"/>
       <c r="J70" s="2" t="inlineStr"/>
       <c r="K70" s="2" t="inlineStr"/>
       <c r="L70" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Date when notice was served</t>
         </is>
       </c>
       <c r="M70" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N70" s="2" t="inlineStr">
@@ -4117,36 +4101,28 @@
       </c>
       <c r="D71" s="2" t="inlineStr">
         <is>
-          <t>owners-and-tenants</t>
+          <t>steps-taken</t>
         </is>
       </c>
       <c r="E71" s="2" t="inlineStr">
         <is>
-          <t>Owners and tenants[]</t>
-        </is>
-      </c>
-      <c r="F71" s="2" t="inlineStr">
-        <is>
-          <t>notice-date</t>
-        </is>
-      </c>
-      <c r="G71" s="2" t="inlineStr">
-        <is>
-          <t>Notice date</t>
-        </is>
-      </c>
+          <t>Steps taken</t>
+        </is>
+      </c>
+      <c r="F71" s="2" t="inlineStr"/>
+      <c r="G71" s="2" t="inlineStr"/>
       <c r="H71" s="2" t="inlineStr"/>
       <c r="I71" s="2" t="inlineStr"/>
       <c r="J71" s="2" t="inlineStr"/>
       <c r="K71" s="2" t="inlineStr"/>
       <c r="L71" s="2" t="inlineStr">
         <is>
-          <t>Date when notice was served</t>
+          <t>Description of steps taken to identify unknown owners or tenants</t>
         </is>
       </c>
       <c r="M71" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N71" s="2" t="inlineStr">
@@ -4165,23 +4141,31 @@
       </c>
       <c r="D72" s="2" t="inlineStr">
         <is>
-          <t>steps-taken</t>
+          <t>newspaper-notices</t>
         </is>
       </c>
       <c r="E72" s="2" t="inlineStr">
         <is>
-          <t>Steps taken</t>
-        </is>
-      </c>
-      <c r="F72" s="2" t="inlineStr"/>
-      <c r="G72" s="2" t="inlineStr"/>
+          <t>Newspaper notices[]</t>
+        </is>
+      </c>
+      <c r="F72" s="2" t="inlineStr">
+        <is>
+          <t>newspaper-name</t>
+        </is>
+      </c>
+      <c r="G72" s="2" t="inlineStr">
+        <is>
+          <t>Newspaper name</t>
+        </is>
+      </c>
       <c r="H72" s="2" t="inlineStr"/>
       <c r="I72" s="2" t="inlineStr"/>
       <c r="J72" s="2" t="inlineStr"/>
       <c r="K72" s="2" t="inlineStr"/>
       <c r="L72" s="2" t="inlineStr">
         <is>
-          <t>Description of steps taken to identify unknown owners or tenants</t>
+          <t>Name of the newspaper where notice was published</t>
         </is>
       </c>
       <c r="M72" s="2" t="inlineStr">
@@ -4191,7 +4175,7 @@
       </c>
       <c r="N72" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4215,12 +4199,12 @@
       </c>
       <c r="F73" s="2" t="inlineStr">
         <is>
-          <t>newspaper-name</t>
+          <t>publication-date</t>
         </is>
       </c>
       <c r="G73" s="2" t="inlineStr">
         <is>
-          <t>Newspaper name</t>
+          <t>Publication date</t>
         </is>
       </c>
       <c r="H73" s="2" t="inlineStr"/>
@@ -4229,12 +4213,12 @@
       <c r="K73" s="2" t="inlineStr"/>
       <c r="L73" s="2" t="inlineStr">
         <is>
-          <t>Name of the newspaper where notice was published</t>
+          <t>Date when the notice was published</t>
         </is>
       </c>
       <c r="M73" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N73" s="2" t="inlineStr">
@@ -4253,41 +4237,33 @@
       </c>
       <c r="D74" s="2" t="inlineStr">
         <is>
-          <t>newspaper-notices</t>
+          <t>ownership-cert-option</t>
         </is>
       </c>
       <c r="E74" s="2" t="inlineStr">
         <is>
-          <t>Newspaper notices[]</t>
-        </is>
-      </c>
-      <c r="F74" s="2" t="inlineStr">
-        <is>
-          <t>publication-date</t>
-        </is>
-      </c>
-      <c r="G74" s="2" t="inlineStr">
-        <is>
-          <t>Publication date</t>
-        </is>
-      </c>
+          <t>Ownership certificate type</t>
+        </is>
+      </c>
+      <c r="F74" s="2" t="inlineStr"/>
+      <c r="G74" s="2" t="inlineStr"/>
       <c r="H74" s="2" t="inlineStr"/>
       <c r="I74" s="2" t="inlineStr"/>
       <c r="J74" s="2" t="inlineStr"/>
       <c r="K74" s="2" t="inlineStr"/>
       <c r="L74" s="2" t="inlineStr">
         <is>
-          <t>Date when the notice was published</t>
+          <t>The type of ownership certificate based on ownership and tenancy status</t>
         </is>
       </c>
       <c r="M74" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N74" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4301,12 +4277,12 @@
       </c>
       <c r="D75" s="2" t="inlineStr">
         <is>
-          <t>ownership-cert-option</t>
+          <t>applicant-signature</t>
         </is>
       </c>
       <c r="E75" s="2" t="inlineStr">
         <is>
-          <t>Ownership certificate type</t>
+          <t>Applicant signature</t>
         </is>
       </c>
       <c r="F75" s="2" t="inlineStr"/>
@@ -4317,12 +4293,12 @@
       <c r="K75" s="2" t="inlineStr"/>
       <c r="L75" s="2" t="inlineStr">
         <is>
-          <t>The type of ownership certificate based on ownership and tenancy status</t>
+          <t>Digital signature of the applicant</t>
         </is>
       </c>
       <c r="M75" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N75" s="2" t="inlineStr">
@@ -4341,12 +4317,12 @@
       </c>
       <c r="D76" s="2" t="inlineStr">
         <is>
-          <t>applicant-signature</t>
+          <t>agent-signature</t>
         </is>
       </c>
       <c r="E76" s="2" t="inlineStr">
         <is>
-          <t>Applicant signature</t>
+          <t>Agent signature</t>
         </is>
       </c>
       <c r="F76" s="2" t="inlineStr"/>
@@ -4357,7 +4333,7 @@
       <c r="K76" s="2" t="inlineStr"/>
       <c r="L76" s="2" t="inlineStr">
         <is>
-          <t>Digital signature of the applicant</t>
+          <t>Digital signature of the agent (if applicable)</t>
         </is>
       </c>
       <c r="M76" s="2" t="inlineStr">
@@ -4381,12 +4357,12 @@
       </c>
       <c r="D77" s="2" t="inlineStr">
         <is>
-          <t>agent-signature</t>
+          <t>signature-date</t>
         </is>
       </c>
       <c r="E77" s="2" t="inlineStr">
         <is>
-          <t>Agent signature</t>
+          <t>Signature date</t>
         </is>
       </c>
       <c r="F77" s="2" t="inlineStr"/>
@@ -4397,12 +4373,12 @@
       <c r="K77" s="2" t="inlineStr"/>
       <c r="L77" s="2" t="inlineStr">
         <is>
-          <t>Digital signature of the agent (if applicable)</t>
+          <t>Date when the ownership certificate was signed</t>
         </is>
       </c>
       <c r="M77" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N77" s="2" t="inlineStr">
@@ -4412,21 +4388,29 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="2" t="n"/>
-      <c r="B78" s="2" t="n"/>
+      <c r="A78" s="2" t="inlineStr">
+        <is>
+          <t>Parking arrangements</t>
+        </is>
+      </c>
+      <c r="B78" s="2" t="inlineStr">
+        <is>
+          <t>parking</t>
+        </is>
+      </c>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
+          <t>Details of any changes the proposed development would make to parking facilities.</t>
         </is>
       </c>
       <c r="D78" s="2" t="inlineStr">
         <is>
-          <t>signature-date</t>
+          <t>is-existing-parking-affected</t>
         </is>
       </c>
       <c r="E78" s="2" t="inlineStr">
         <is>
-          <t>Signature date</t>
+          <t>Existing parking affected</t>
         </is>
       </c>
       <c r="F78" s="2" t="inlineStr"/>
@@ -4437,31 +4421,23 @@
       <c r="K78" s="2" t="inlineStr"/>
       <c r="L78" s="2" t="inlineStr">
         <is>
-          <t>Date when the ownership certificate was signed</t>
+          <t>Will the proposed works affect existing car parking arrangements</t>
         </is>
       </c>
       <c r="M78" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N78" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="2" t="inlineStr">
-        <is>
-          <t>Parking arrangements</t>
-        </is>
-      </c>
-      <c r="B79" s="2" t="inlineStr">
-        <is>
-          <t>parking</t>
-        </is>
-      </c>
+      <c r="A79" s="2" t="n"/>
+      <c r="B79" s="2" t="n"/>
       <c r="C79" s="2" t="inlineStr">
         <is>
           <t>Details of any changes the proposed development would make to parking facilities.</t>
@@ -4469,12 +4445,12 @@
       </c>
       <c r="D79" s="2" t="inlineStr">
         <is>
-          <t>is-existing-parking-affected</t>
+          <t>description</t>
         </is>
       </c>
       <c r="E79" s="2" t="inlineStr">
         <is>
-          <t>Existing parking affected</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F79" s="2" t="inlineStr"/>
@@ -4485,36 +4461,44 @@
       <c r="K79" s="2" t="inlineStr"/>
       <c r="L79" s="2" t="inlineStr">
         <is>
-          <t>Will the proposed works affect existing car parking arrangements</t>
+          <t>A description of how the proposed works will affect existing car parking arrangements</t>
         </is>
       </c>
       <c r="M79" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N79" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="2" t="n"/>
-      <c r="B80" s="2" t="n"/>
+      <c r="A80" s="2" t="inlineStr">
+        <is>
+          <t>Pre-application advice</t>
+        </is>
+      </c>
+      <c r="B80" s="2" t="inlineStr">
+        <is>
+          <t>pre-app-advice</t>
+        </is>
+      </c>
       <c r="C80" s="2" t="inlineStr">
         <is>
-          <t>Details of any changes the proposed development would make to parking facilities.</t>
+          <t>Details of pre-application advice previously received from the planning authority</t>
         </is>
       </c>
       <c r="D80" s="2" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>advice-sought</t>
         </is>
       </c>
       <c r="E80" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Pre-application advice sought</t>
         </is>
       </c>
       <c r="F80" s="2" t="inlineStr"/>
@@ -4525,31 +4509,23 @@
       <c r="K80" s="2" t="inlineStr"/>
       <c r="L80" s="2" t="inlineStr">
         <is>
-          <t>A description of how the proposed works will affect existing car parking arrangements</t>
+          <t>Whether pre-application advice has been sought from the planning authority</t>
         </is>
       </c>
       <c r="M80" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N80" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="2" t="inlineStr">
-        <is>
-          <t>Pre-application advice</t>
-        </is>
-      </c>
-      <c r="B81" s="2" t="inlineStr">
-        <is>
-          <t>pre-app-advice</t>
-        </is>
-      </c>
+      <c r="A81" s="2" t="n"/>
+      <c r="B81" s="2" t="n"/>
       <c r="C81" s="2" t="inlineStr">
         <is>
           <t>Details of pre-application advice previously received from the planning authority</t>
@@ -4557,12 +4533,12 @@
       </c>
       <c r="D81" s="2" t="inlineStr">
         <is>
-          <t>advice-sought</t>
+          <t>officer-name</t>
         </is>
       </c>
       <c r="E81" s="2" t="inlineStr">
         <is>
-          <t>Pre-application advice sought</t>
+          <t>Officer name</t>
         </is>
       </c>
       <c r="F81" s="2" t="inlineStr"/>
@@ -4573,17 +4549,17 @@
       <c r="K81" s="2" t="inlineStr"/>
       <c r="L81" s="2" t="inlineStr">
         <is>
-          <t>Whether pre-application advice has been sought from the planning authority</t>
+          <t>Name of the planning officer who provided the pre-application advice</t>
         </is>
       </c>
       <c r="M81" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N81" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4597,12 +4573,12 @@
       </c>
       <c r="D82" s="2" t="inlineStr">
         <is>
-          <t>officer-name</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="E82" s="2" t="inlineStr">
         <is>
-          <t>Officer name</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="F82" s="2" t="inlineStr"/>
@@ -4613,7 +4589,7 @@
       <c r="K82" s="2" t="inlineStr"/>
       <c r="L82" s="2" t="inlineStr">
         <is>
-          <t>Name of the planning officer who provided the pre-application advice</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M82" s="2" t="inlineStr">
@@ -4637,12 +4613,12 @@
       </c>
       <c r="D83" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>advice-date</t>
         </is>
       </c>
       <c r="E83" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Advice date</t>
         </is>
       </c>
       <c r="F83" s="2" t="inlineStr"/>
@@ -4653,7 +4629,7 @@
       <c r="K83" s="2" t="inlineStr"/>
       <c r="L83" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="M83" s="2" t="inlineStr">
@@ -4677,12 +4653,12 @@
       </c>
       <c r="D84" s="2" t="inlineStr">
         <is>
-          <t>advice-date</t>
+          <t>advice-summary</t>
         </is>
       </c>
       <c r="E84" s="2" t="inlineStr">
         <is>
-          <t>Advice date</t>
+          <t>Advice summary</t>
         </is>
       </c>
       <c r="F84" s="2" t="inlineStr"/>
@@ -4693,7 +4669,7 @@
       <c r="K84" s="2" t="inlineStr"/>
       <c r="L84" s="2" t="inlineStr">
         <is>
-          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
+          <t>Summary of the pre-application advice received from the planning authority</t>
         </is>
       </c>
       <c r="M84" s="2" t="inlineStr">
@@ -4708,21 +4684,29 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="2" t="n"/>
-      <c r="B85" s="2" t="n"/>
+      <c r="A85" s="2" t="inlineStr">
+        <is>
+          <t>Description of the proposal</t>
+        </is>
+      </c>
+      <c r="B85" s="2" t="inlineStr">
+        <is>
+          <t>proposal-details</t>
+        </is>
+      </c>
       <c r="C85" s="2" t="inlineStr">
         <is>
-          <t>Details of pre-application advice previously received from the planning authority</t>
+          <t>What development, works or change of use is proposed</t>
         </is>
       </c>
       <c r="D85" s="2" t="inlineStr">
         <is>
-          <t>advice-summary</t>
+          <t>proposal-description</t>
         </is>
       </c>
       <c r="E85" s="2" t="inlineStr">
         <is>
-          <t>Advice summary</t>
+          <t>Proposal description</t>
         </is>
       </c>
       <c r="F85" s="2" t="inlineStr"/>
@@ -4733,7 +4717,7 @@
       <c r="K85" s="2" t="inlineStr"/>
       <c r="L85" s="2" t="inlineStr">
         <is>
-          <t>Summary of the pre-application advice received from the planning authority</t>
+          <t>A description of what is being proposed, including the development, works, or change of use</t>
         </is>
       </c>
       <c r="M85" s="2" t="inlineStr">
@@ -4743,21 +4727,13 @@
       </c>
       <c r="N85" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="2" t="inlineStr">
-        <is>
-          <t>Description of the proposal</t>
-        </is>
-      </c>
-      <c r="B86" s="2" t="inlineStr">
-        <is>
-          <t>proposal-details</t>
-        </is>
-      </c>
+      <c r="A86" s="2" t="n"/>
+      <c r="B86" s="2" t="n"/>
       <c r="C86" s="2" t="inlineStr">
         <is>
           <t>What development, works or change of use is proposed</t>
@@ -4765,12 +4741,12 @@
       </c>
       <c r="D86" s="2" t="inlineStr">
         <is>
-          <t>proposal-description</t>
+          <t>proposal-started</t>
         </is>
       </c>
       <c r="E86" s="2" t="inlineStr">
         <is>
-          <t>Proposal description</t>
+          <t>Proposal started</t>
         </is>
       </c>
       <c r="F86" s="2" t="inlineStr"/>
@@ -4781,12 +4757,12 @@
       <c r="K86" s="2" t="inlineStr"/>
       <c r="L86" s="2" t="inlineStr">
         <is>
-          <t>A description of what is being proposed, including the development, works, or change of use</t>
+          <t>Has any work on the proposal already been started</t>
         </is>
       </c>
       <c r="M86" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N86" s="2" t="inlineStr">
@@ -4805,12 +4781,12 @@
       </c>
       <c r="D87" s="2" t="inlineStr">
         <is>
-          <t>proposal-started</t>
+          <t>proposal-started-date</t>
         </is>
       </c>
       <c r="E87" s="2" t="inlineStr">
         <is>
-          <t>Proposal started</t>
+          <t>Proposal start date</t>
         </is>
       </c>
       <c r="F87" s="2" t="inlineStr"/>
@@ -4821,17 +4797,17 @@
       <c r="K87" s="2" t="inlineStr"/>
       <c r="L87" s="2" t="inlineStr">
         <is>
-          <t>Has any work on the proposal already been started</t>
+          <t>The date when work on the proposal started, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="M87" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N87" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4845,12 +4821,12 @@
       </c>
       <c r="D88" s="2" t="inlineStr">
         <is>
-          <t>proposal-started-date</t>
+          <t>proposal-completed</t>
         </is>
       </c>
       <c r="E88" s="2" t="inlineStr">
         <is>
-          <t>Proposal start date</t>
+          <t>Proposal completed</t>
         </is>
       </c>
       <c r="F88" s="2" t="inlineStr"/>
@@ -4861,17 +4837,17 @@
       <c r="K88" s="2" t="inlineStr"/>
       <c r="L88" s="2" t="inlineStr">
         <is>
-          <t>The date when work on the proposal started, in YYYY-MM-DD format</t>
+          <t>Has any work on the proposal already been completed</t>
         </is>
       </c>
       <c r="M88" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N88" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4885,12 +4861,12 @@
       </c>
       <c r="D89" s="2" t="inlineStr">
         <is>
-          <t>proposal-completed</t>
+          <t>proposal-completed-date</t>
         </is>
       </c>
       <c r="E89" s="2" t="inlineStr">
         <is>
-          <t>Proposal completed</t>
+          <t>Proposal completion date</t>
         </is>
       </c>
       <c r="F89" s="2" t="inlineStr"/>
@@ -4901,52 +4877,68 @@
       <c r="K89" s="2" t="inlineStr"/>
       <c r="L89" s="2" t="inlineStr">
         <is>
-          <t>Has any work on the proposal already been completed</t>
+          <t>The date when work on the proposal was completed, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="M89" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N89" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="2" t="n"/>
-      <c r="B90" s="2" t="n"/>
+      <c r="A90" s="2" t="inlineStr">
+        <is>
+          <t>Site details</t>
+        </is>
+      </c>
+      <c r="B90" s="2" t="inlineStr">
+        <is>
+          <t>site-details</t>
+        </is>
+      </c>
       <c r="C90" s="2" t="inlineStr">
         <is>
-          <t>What development, works or change of use is proposed</t>
+          <t>Where the proposed development will be built.</t>
         </is>
       </c>
       <c r="D90" s="2" t="inlineStr">
         <is>
-          <t>proposal-completed-date</t>
+          <t>site-locations</t>
         </is>
       </c>
       <c r="E90" s="2" t="inlineStr">
         <is>
-          <t>Proposal completion date</t>
-        </is>
-      </c>
-      <c r="F90" s="2" t="inlineStr"/>
-      <c r="G90" s="2" t="inlineStr"/>
+          <t>Site locations[]</t>
+        </is>
+      </c>
+      <c r="F90" s="2" t="inlineStr">
+        <is>
+          <t>site-boundary</t>
+        </is>
+      </c>
+      <c r="G90" s="2" t="inlineStr">
+        <is>
+          <t>Site boundary</t>
+        </is>
+      </c>
       <c r="H90" s="2" t="inlineStr"/>
       <c r="I90" s="2" t="inlineStr"/>
       <c r="J90" s="2" t="inlineStr"/>
       <c r="K90" s="2" t="inlineStr"/>
       <c r="L90" s="2" t="inlineStr">
         <is>
-          <t>The date when work on the proposal was completed, in YYYY-MM-DD format</t>
+          <t>Geometry of the site of the development, typically in GeoJSON format</t>
         </is>
       </c>
       <c r="M90" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>wkt</t>
         </is>
       </c>
       <c r="N90" s="2" t="inlineStr">
@@ -4956,16 +4948,8 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="2" t="inlineStr">
-        <is>
-          <t>Site details</t>
-        </is>
-      </c>
-      <c r="B91" s="2" t="inlineStr">
-        <is>
-          <t>site-details</t>
-        </is>
-      </c>
+      <c r="A91" s="2" t="n"/>
+      <c r="B91" s="2" t="n"/>
       <c r="C91" s="2" t="inlineStr">
         <is>
           <t>Where the proposed development will be built.</t>
@@ -4983,12 +4967,12 @@
       </c>
       <c r="F91" s="2" t="inlineStr">
         <is>
-          <t>site-boundary</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="G91" s="2" t="inlineStr">
         <is>
-          <t>Site boundary</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="H91" s="2" t="inlineStr"/>
@@ -4997,12 +4981,12 @@
       <c r="K91" s="2" t="inlineStr"/>
       <c r="L91" s="2" t="inlineStr">
         <is>
-          <t>Geometry of the site of the development, typically in GeoJSON format</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M91" s="2" t="inlineStr">
         <is>
-          <t>wkt</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N91" s="2" t="inlineStr">
@@ -5031,12 +5015,12 @@
       </c>
       <c r="F92" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="G92" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="H92" s="2" t="inlineStr"/>
@@ -5045,7 +5029,7 @@
       <c r="K92" s="2" t="inlineStr"/>
       <c r="L92" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M92" s="2" t="inlineStr">
@@ -5079,12 +5063,12 @@
       </c>
       <c r="F93" s="2" t="inlineStr">
         <is>
-          <t>postcode</t>
+          <t>easting</t>
         </is>
       </c>
       <c r="G93" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Easting</t>
         </is>
       </c>
       <c r="H93" s="2" t="inlineStr"/>
@@ -5093,12 +5077,12 @@
       <c r="K93" s="2" t="inlineStr"/>
       <c r="L93" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="M93" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N93" s="2" t="inlineStr">
@@ -5127,12 +5111,12 @@
       </c>
       <c r="F94" s="2" t="inlineStr">
         <is>
-          <t>easting</t>
+          <t>northing</t>
         </is>
       </c>
       <c r="G94" s="2" t="inlineStr">
         <is>
-          <t>Easting</t>
+          <t>Northing</t>
         </is>
       </c>
       <c r="H94" s="2" t="inlineStr"/>
@@ -5141,7 +5125,7 @@
       <c r="K94" s="2" t="inlineStr"/>
       <c r="L94" s="2" t="inlineStr">
         <is>
-          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
+          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="M94" s="2" t="inlineStr">
@@ -5175,12 +5159,12 @@
       </c>
       <c r="F95" s="2" t="inlineStr">
         <is>
-          <t>northing</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G95" s="2" t="inlineStr">
         <is>
-          <t>Northing</t>
+          <t>Latitude</t>
         </is>
       </c>
       <c r="H95" s="2" t="inlineStr"/>
@@ -5189,7 +5173,7 @@
       <c r="K95" s="2" t="inlineStr"/>
       <c r="L95" s="2" t="inlineStr">
         <is>
-          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
+          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="M95" s="2" t="inlineStr">
@@ -5223,12 +5207,12 @@
       </c>
       <c r="F96" s="2" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="G96" s="2" t="inlineStr">
         <is>
-          <t>Latitude</t>
+          <t>Longitude</t>
         </is>
       </c>
       <c r="H96" s="2" t="inlineStr"/>
@@ -5237,7 +5221,7 @@
       <c r="K96" s="2" t="inlineStr"/>
       <c r="L96" s="2" t="inlineStr">
         <is>
-          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="M96" s="2" t="inlineStr">
@@ -5271,12 +5255,12 @@
       </c>
       <c r="F97" s="2" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>description</t>
         </is>
       </c>
       <c r="G97" s="2" t="inlineStr">
         <is>
-          <t>Longitude</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="H97" s="2" t="inlineStr"/>
@@ -5285,12 +5269,12 @@
       <c r="K97" s="2" t="inlineStr"/>
       <c r="L97" s="2" t="inlineStr">
         <is>
-          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
         </is>
       </c>
       <c r="M97" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N97" s="2" t="inlineStr">
@@ -5319,12 +5303,12 @@
       </c>
       <c r="F98" s="2" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>uprns</t>
         </is>
       </c>
       <c r="G98" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>UPRNs[]</t>
         </is>
       </c>
       <c r="H98" s="2" t="inlineStr"/>
@@ -5333,7 +5317,7 @@
       <c r="K98" s="2" t="inlineStr"/>
       <c r="L98" s="2" t="inlineStr">
         <is>
-          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
+          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
         </is>
       </c>
       <c r="M98" s="2" t="inlineStr">
@@ -5348,64 +5332,56 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="2" t="n"/>
-      <c r="B99" s="2" t="n"/>
+      <c r="A99" s="2" t="inlineStr">
+        <is>
+          <t>Site Visit Details</t>
+        </is>
+      </c>
+      <c r="B99" s="2" t="inlineStr">
+        <is>
+          <t>site-visit</t>
+        </is>
+      </c>
       <c r="C99" s="2" t="inlineStr">
         <is>
-          <t>Where the proposed development will be built.</t>
+          <t>Information to help the planning authority arrange a site visit</t>
         </is>
       </c>
       <c r="D99" s="2" t="inlineStr">
         <is>
-          <t>site-locations</t>
+          <t>can-be-seen-from</t>
         </is>
       </c>
       <c r="E99" s="2" t="inlineStr">
         <is>
-          <t>Site locations[]</t>
-        </is>
-      </c>
-      <c r="F99" s="2" t="inlineStr">
-        <is>
-          <t>uprns</t>
-        </is>
-      </c>
-      <c r="G99" s="2" t="inlineStr">
-        <is>
-          <t>UPRNs[]</t>
-        </is>
-      </c>
+          <t>Site seen from public area</t>
+        </is>
+      </c>
+      <c r="F99" s="2" t="inlineStr"/>
+      <c r="G99" s="2" t="inlineStr"/>
       <c r="H99" s="2" t="inlineStr"/>
       <c r="I99" s="2" t="inlineStr"/>
       <c r="J99" s="2" t="inlineStr"/>
       <c r="K99" s="2" t="inlineStr"/>
       <c r="L99" s="2" t="inlineStr">
         <is>
-          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
+          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
         </is>
       </c>
       <c r="M99" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N99" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="2" t="inlineStr">
-        <is>
-          <t>Site Visit Details</t>
-        </is>
-      </c>
-      <c r="B100" s="2" t="inlineStr">
-        <is>
-          <t>site-visit</t>
-        </is>
-      </c>
+      <c r="A100" s="2" t="n"/>
+      <c r="B100" s="2" t="n"/>
       <c r="C100" s="2" t="inlineStr">
         <is>
           <t>Information to help the planning authority arrange a site visit</t>
@@ -5413,12 +5389,12 @@
       </c>
       <c r="D100" s="2" t="inlineStr">
         <is>
-          <t>can-be-seen-from</t>
+          <t>contact-type</t>
         </is>
       </c>
       <c r="E100" s="2" t="inlineStr">
         <is>
-          <t>Site seen from public area</t>
+          <t>Site visit contact type</t>
         </is>
       </c>
       <c r="F100" s="2" t="inlineStr"/>
@@ -5429,12 +5405,12 @@
       <c r="K100" s="2" t="inlineStr"/>
       <c r="L100" s="2" t="inlineStr">
         <is>
-          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
+          <t>Indicates who the authority should contact to arrange a site visit</t>
         </is>
       </c>
       <c r="M100" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N100" s="2" t="inlineStr">
@@ -5453,12 +5429,12 @@
       </c>
       <c r="D101" s="2" t="inlineStr">
         <is>
-          <t>contact-type</t>
+          <t>contact-reference</t>
         </is>
       </c>
       <c r="E101" s="2" t="inlineStr">
         <is>
-          <t>Site visit contact type</t>
+          <t>Contact reference</t>
         </is>
       </c>
       <c r="F101" s="2" t="inlineStr"/>
@@ -5469,17 +5445,17 @@
       <c r="K101" s="2" t="inlineStr"/>
       <c r="L101" s="2" t="inlineStr">
         <is>
-          <t>Indicates who the authority should contact to arrange a site visit</t>
+          <t>The reference of the applicant or agent who should be contacted for site visits</t>
         </is>
       </c>
       <c r="M101" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N101" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5493,23 +5469,31 @@
       </c>
       <c r="D102" s="2" t="inlineStr">
         <is>
-          <t>contact-reference</t>
+          <t>other-contact</t>
         </is>
       </c>
       <c r="E102" s="2" t="inlineStr">
         <is>
-          <t>Contact reference</t>
-        </is>
-      </c>
-      <c r="F102" s="2" t="inlineStr"/>
-      <c r="G102" s="2" t="inlineStr"/>
+          <t>Other site visit contact</t>
+        </is>
+      </c>
+      <c r="F102" s="2" t="inlineStr">
+        <is>
+          <t>fullname</t>
+        </is>
+      </c>
+      <c r="G102" s="2" t="inlineStr">
+        <is>
+          <t>Full name</t>
+        </is>
+      </c>
       <c r="H102" s="2" t="inlineStr"/>
       <c r="I102" s="2" t="inlineStr"/>
       <c r="J102" s="2" t="inlineStr"/>
       <c r="K102" s="2" t="inlineStr"/>
       <c r="L102" s="2" t="inlineStr">
         <is>
-          <t>The reference of the applicant or agent who should be contacted for site visits</t>
+          <t>The complete name of a person</t>
         </is>
       </c>
       <c r="M102" s="2" t="inlineStr">
@@ -5519,7 +5503,7 @@
       </c>
       <c r="N102" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5543,12 +5527,12 @@
       </c>
       <c r="F103" s="2" t="inlineStr">
         <is>
-          <t>fullname</t>
+          <t>number</t>
         </is>
       </c>
       <c r="G103" s="2" t="inlineStr">
         <is>
-          <t>Full name</t>
+          <t>Phone number</t>
         </is>
       </c>
       <c r="H103" s="2" t="inlineStr"/>
@@ -5557,7 +5541,7 @@
       <c r="K103" s="2" t="inlineStr"/>
       <c r="L103" s="2" t="inlineStr">
         <is>
-          <t>The complete name of a person</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="M103" s="2" t="inlineStr">
@@ -5591,12 +5575,12 @@
       </c>
       <c r="F104" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>email</t>
         </is>
       </c>
       <c r="G104" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="H104" s="2" t="inlineStr"/>
@@ -5605,7 +5589,7 @@
       <c r="K104" s="2" t="inlineStr"/>
       <c r="L104" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="M104" s="2" t="inlineStr">
@@ -5620,45 +5604,45 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="2" t="n"/>
-      <c r="B105" s="2" t="n"/>
+      <c r="A105" s="2" t="inlineStr">
+        <is>
+          <t>Trees and hedges information</t>
+        </is>
+      </c>
+      <c r="B105" s="2" t="inlineStr">
+        <is>
+          <t>trees-hedges</t>
+        </is>
+      </c>
       <c r="C105" s="2" t="inlineStr">
         <is>
-          <t>Information to help the planning authority arrange a site visit</t>
+          <t>Details of trees and/or hedges that will be affected by the proposed development</t>
         </is>
       </c>
       <c r="D105" s="2" t="inlineStr">
         <is>
-          <t>other-contact</t>
+          <t>has-falling-trees-risk</t>
         </is>
       </c>
       <c r="E105" s="2" t="inlineStr">
         <is>
-          <t>Other site visit contact</t>
-        </is>
-      </c>
-      <c r="F105" s="2" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="G105" s="2" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
+          <t>Falling trees risk</t>
+        </is>
+      </c>
+      <c r="F105" s="2" t="inlineStr"/>
+      <c r="G105" s="2" t="inlineStr"/>
       <c r="H105" s="2" t="inlineStr"/>
       <c r="I105" s="2" t="inlineStr"/>
       <c r="J105" s="2" t="inlineStr"/>
       <c r="K105" s="2" t="inlineStr"/>
       <c r="L105" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>Whether there are falling trees on-premises or adjacent premises that are a risk to the development</t>
         </is>
       </c>
       <c r="M105" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N105" s="2" t="inlineStr">
@@ -5668,16 +5652,8 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="2" t="inlineStr">
-        <is>
-          <t>Trees and hedges information</t>
-        </is>
-      </c>
-      <c r="B106" s="2" t="inlineStr">
-        <is>
-          <t>trees-hedges</t>
-        </is>
-      </c>
+      <c r="A106" s="2" t="n"/>
+      <c r="B106" s="2" t="n"/>
       <c r="C106" s="2" t="inlineStr">
         <is>
           <t>Details of trees and/or hedges that will be affected by the proposed development</t>
@@ -5685,28 +5661,36 @@
       </c>
       <c r="D106" s="2" t="inlineStr">
         <is>
-          <t>has-falling-trees-risk</t>
+          <t>falling-trees-document</t>
         </is>
       </c>
       <c r="E106" s="2" t="inlineStr">
         <is>
-          <t>Falling trees risk</t>
-        </is>
-      </c>
-      <c r="F106" s="2" t="inlineStr"/>
-      <c r="G106" s="2" t="inlineStr"/>
+          <t>Falling trees document</t>
+        </is>
+      </c>
+      <c r="F106" s="2" t="inlineStr">
+        <is>
+          <t>reference</t>
+        </is>
+      </c>
+      <c r="G106" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="H106" s="2" t="inlineStr"/>
       <c r="I106" s="2" t="inlineStr"/>
       <c r="J106" s="2" t="inlineStr"/>
       <c r="K106" s="2" t="inlineStr"/>
       <c r="L106" s="2" t="inlineStr">
         <is>
-          <t>Whether there are falling trees on-premises or adjacent premises that are a risk to the development</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M106" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N106" s="2" t="inlineStr">
@@ -5735,12 +5719,12 @@
       </c>
       <c r="F107" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>name</t>
         </is>
       </c>
       <c r="G107" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="H107" s="2" t="inlineStr"/>
@@ -5749,7 +5733,7 @@
       <c r="K107" s="2" t="inlineStr"/>
       <c r="L107" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>A name for the document. For example, The Site Plan</t>
         </is>
       </c>
       <c r="M107" s="2" t="inlineStr">
@@ -5773,36 +5757,28 @@
       </c>
       <c r="D108" s="2" t="inlineStr">
         <is>
-          <t>falling-trees-document</t>
+          <t>tree-removal</t>
         </is>
       </c>
       <c r="E108" s="2" t="inlineStr">
         <is>
-          <t>Falling trees document</t>
-        </is>
-      </c>
-      <c r="F108" s="2" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="G108" s="2" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
+          <t>Tree removal</t>
+        </is>
+      </c>
+      <c r="F108" s="2" t="inlineStr"/>
+      <c r="G108" s="2" t="inlineStr"/>
       <c r="H108" s="2" t="inlineStr"/>
       <c r="I108" s="2" t="inlineStr"/>
       <c r="J108" s="2" t="inlineStr"/>
       <c r="K108" s="2" t="inlineStr"/>
       <c r="L108" s="2" t="inlineStr">
         <is>
-          <t>A name for the document. For example, The Site Plan</t>
+          <t>Whether trees or hedges need to be pruned or removed</t>
         </is>
       </c>
       <c r="M108" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N108" s="2" t="inlineStr">
@@ -5821,28 +5797,36 @@
       </c>
       <c r="D109" s="2" t="inlineStr">
         <is>
-          <t>tree-removal</t>
+          <t>tree-removal-plan</t>
         </is>
       </c>
       <c r="E109" s="2" t="inlineStr">
         <is>
-          <t>Tree removal</t>
-        </is>
-      </c>
-      <c r="F109" s="2" t="inlineStr"/>
-      <c r="G109" s="2" t="inlineStr"/>
+          <t>Tree removal plan</t>
+        </is>
+      </c>
+      <c r="F109" s="2" t="inlineStr">
+        <is>
+          <t>reference</t>
+        </is>
+      </c>
+      <c r="G109" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="H109" s="2" t="inlineStr"/>
       <c r="I109" s="2" t="inlineStr"/>
       <c r="J109" s="2" t="inlineStr"/>
       <c r="K109" s="2" t="inlineStr"/>
       <c r="L109" s="2" t="inlineStr">
         <is>
-          <t>Whether trees or hedges need to be pruned or removed</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M109" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N109" s="2" t="inlineStr">
@@ -5871,12 +5855,12 @@
       </c>
       <c r="F110" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>name</t>
         </is>
       </c>
       <c r="G110" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="H110" s="2" t="inlineStr"/>
@@ -5885,7 +5869,7 @@
       <c r="K110" s="2" t="inlineStr"/>
       <c r="L110" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>A name for the document. For example, The Site Plan</t>
         </is>
       </c>
       <c r="M110" s="2" t="inlineStr">
@@ -5894,54 +5878,6 @@
         </is>
       </c>
       <c r="N110" s="2" t="inlineStr">
-        <is>
-          <t>MUST</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="2" t="n"/>
-      <c r="B111" s="2" t="n"/>
-      <c r="C111" s="2" t="inlineStr">
-        <is>
-          <t>Details of trees and/or hedges that will be affected by the proposed development</t>
-        </is>
-      </c>
-      <c r="D111" s="2" t="inlineStr">
-        <is>
-          <t>tree-removal-plan</t>
-        </is>
-      </c>
-      <c r="E111" s="2" t="inlineStr">
-        <is>
-          <t>Tree removal plan</t>
-        </is>
-      </c>
-      <c r="F111" s="2" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="G111" s="2" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="H111" s="2" t="inlineStr"/>
-      <c r="I111" s="2" t="inlineStr"/>
-      <c r="J111" s="2" t="inlineStr"/>
-      <c r="K111" s="2" t="inlineStr"/>
-      <c r="L111" s="2" t="inlineStr">
-        <is>
-          <t>A name for the document. For example, The Site Plan</t>
-        </is>
-      </c>
-      <c r="M111" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="N111" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -5949,42 +5885,42 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="B49"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="B100:B105"/>
-    <mergeCell ref="B106:B111"/>
-    <mergeCell ref="A30:A37"/>
-    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="B55:B62"/>
+    <mergeCell ref="B63:B77"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A85:A89"/>
+    <mergeCell ref="A41:A46"/>
+    <mergeCell ref="B105:B110"/>
     <mergeCell ref="A48"/>
-    <mergeCell ref="B56:B63"/>
-    <mergeCell ref="A91:A99"/>
-    <mergeCell ref="A81:A85"/>
-    <mergeCell ref="A49"/>
-    <mergeCell ref="B42:B47"/>
-    <mergeCell ref="B2:B20"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="B47"/>
+    <mergeCell ref="A105:A110"/>
+    <mergeCell ref="A99:A104"/>
+    <mergeCell ref="B80:B84"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="A55:A62"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="B85:B89"/>
     <mergeCell ref="B48"/>
-    <mergeCell ref="A56:A63"/>
-    <mergeCell ref="B81:B85"/>
-    <mergeCell ref="B91:B99"/>
-    <mergeCell ref="A100:A105"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="A42:A47"/>
-    <mergeCell ref="A2:A20"/>
-    <mergeCell ref="B64:B78"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="B86:B90"/>
-    <mergeCell ref="A106:A111"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B30:B37"/>
-    <mergeCell ref="A64:A78"/>
-    <mergeCell ref="A86:A90"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="B29:B36"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="B99:B104"/>
+    <mergeCell ref="A63:A77"/>
+    <mergeCell ref="B90:B98"/>
+    <mergeCell ref="A29:A36"/>
+    <mergeCell ref="B2:B19"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="A80:A84"/>
+    <mergeCell ref="A47"/>
+    <mergeCell ref="B41:B46"/>
+    <mergeCell ref="A90:A98"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/generated/spreadsheet/verbose/householder-planning-application-hh-verbose.xlsx
+++ b/generated/spreadsheet/verbose/householder-planning-application-hh-verbose.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N110"/>
+  <dimension ref="A1:N109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1275,22 +1275,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>checksum</t>
+          <t>file-size</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>Checksum</t>
+          <t>File size</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>Hash of the file contents used for file validation and checking files have not been tampered with</t>
+          <t>Size of the file in bytes that can be used to enforce limits</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1319,37 +1319,29 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>documents</t>
+          <t>fee</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>Documents[]</t>
+          <t>Fee</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>file</t>
+          <t>amount</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>file-size</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>File size</t>
-        </is>
-      </c>
+          <t>Amount</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr"/>
+      <c r="K16" s="2" t="inlineStr"/>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>Size of the file in bytes that can be used to enforce limits</t>
+          <t>The total amount due for the application fee</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
@@ -1359,7 +1351,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1393,19 +1385,19 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>amount</t>
+          <t>amount-paid</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>Amount</t>
+          <t>Amount paid</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr"/>
       <c r="K17" s="2" t="inlineStr"/>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>The total amount due for the application fee</t>
+          <t>The amount paid towards the application fee</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
@@ -1449,99 +1441,83 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>amount-paid</t>
+          <t>transactions</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>Amount paid</t>
+          <t>Transactions[]</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr"/>
       <c r="K18" s="2" t="inlineStr"/>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>The amount paid towards the application fee</t>
+          <t>References to payments or financial transactions related to this application</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="n"/>
-      <c r="B19" s="2" t="n"/>
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>Access and rights of way</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>access-rights-of-way</t>
+        </is>
+      </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>The details of the application payload to be submitted</t>
+          <t>Details of any changes the proposed development would make to existing access arrangements or public rights of way</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>application</t>
+          <t>new-altered-vehicle</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>Application</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>fee</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>Fee</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>transactions</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="inlineStr">
-        <is>
-          <t>Transactions[]</t>
-        </is>
-      </c>
+          <t>New or altered vehicle access</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr"/>
+      <c r="G19" s="2" t="inlineStr"/>
+      <c r="H19" s="2" t="inlineStr"/>
+      <c r="I19" s="2" t="inlineStr"/>
       <c r="J19" s="2" t="inlineStr"/>
       <c r="K19" s="2" t="inlineStr"/>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>References to payments or financial transactions related to this application</t>
+          <t>Is a new or altered vehicle access proposed to/from the public highway</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="inlineStr">
-        <is>
-          <t>Access and rights of way</t>
-        </is>
-      </c>
-      <c r="B20" s="2" t="inlineStr">
-        <is>
-          <t>access-rights-of-way</t>
-        </is>
-      </c>
+      <c r="A20" s="2" t="n"/>
+      <c r="B20" s="2" t="n"/>
       <c r="C20" s="2" t="inlineStr">
         <is>
           <t>Details of any changes the proposed development would make to existing access arrangements or public rights of way</t>
@@ -1549,12 +1525,12 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>new-altered-vehicle</t>
+          <t>new-altered-pedestrian</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>New or altered vehicle access</t>
+          <t>New or altered pedestrian access</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr"/>
@@ -1565,7 +1541,7 @@
       <c r="K20" s="2" t="inlineStr"/>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>Is a new or altered vehicle access proposed to/from the public highway</t>
+          <t>Is a new or altered pedestrian access proposed to/from the public highway</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
@@ -1589,12 +1565,12 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>new-altered-pedestrian</t>
+          <t>change-right-of-way</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>New or altered pedestrian access</t>
+          <t>Change to right of way</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr"/>
@@ -1605,7 +1581,7 @@
       <c r="K21" s="2" t="inlineStr"/>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>Is a new or altered pedestrian access proposed to/from the public highway</t>
+          <t>Will the proposal change public rights of way (diversion/extinguishment/creation)</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
@@ -1629,28 +1605,36 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>change-right-of-way</t>
+          <t>supporting-documents</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>Change to right of way</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr"/>
-      <c r="G22" s="2" t="inlineStr"/>
+          <t>Supporting documents[]</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>reference</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="H22" s="2" t="inlineStr"/>
       <c r="I22" s="2" t="inlineStr"/>
       <c r="J22" s="2" t="inlineStr"/>
       <c r="K22" s="2" t="inlineStr"/>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>Will the proposal change public rights of way (diversion/extinguishment/creation)</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -1679,12 +1663,12 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>name</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr"/>
@@ -1693,7 +1677,7 @@
       <c r="K23" s="2" t="inlineStr"/>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>A name for the document. For example, The Site Plan</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
@@ -1708,40 +1692,40 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n"/>
-      <c r="B24" s="2" t="n"/>
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>Agent contact details</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>agent-contact</t>
+        </is>
+      </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>Details of any changes the proposed development would make to existing access arrangements or public rights of way</t>
+          <t>Name and contact information if an agent is being used.</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>supporting-documents</t>
+          <t>agent-reference</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>Supporting documents[]</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
+          <t>Agent reference</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr"/>
+      <c r="G24" s="2" t="inlineStr"/>
       <c r="H24" s="2" t="inlineStr"/>
       <c r="I24" s="2" t="inlineStr"/>
       <c r="J24" s="2" t="inlineStr"/>
       <c r="K24" s="2" t="inlineStr"/>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>A name for the document. For example, The Site Plan</t>
+          <t>A reference to an agent object</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
@@ -1756,16 +1740,8 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="inlineStr">
-        <is>
-          <t>Agent contact details</t>
-        </is>
-      </c>
-      <c r="B25" s="2" t="inlineStr">
-        <is>
-          <t>agent-contact</t>
-        </is>
-      </c>
+      <c r="A25" s="2" t="n"/>
+      <c r="B25" s="2" t="n"/>
       <c r="C25" s="2" t="inlineStr">
         <is>
           <t>Name and contact information if an agent is being used.</t>
@@ -1773,23 +1749,31 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>agent-reference</t>
+          <t>contact-details</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>Agent reference</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr"/>
-      <c r="G25" s="2" t="inlineStr"/>
+          <t>Contact details</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
       <c r="H25" s="2" t="inlineStr"/>
       <c r="I25" s="2" t="inlineStr"/>
       <c r="J25" s="2" t="inlineStr"/>
       <c r="K25" s="2" t="inlineStr"/>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>A reference to an agent object</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
@@ -1823,21 +1807,29 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>email</t>
+          <t>phone-numbers</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr"/>
-      <c r="I26" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
       <c r="J26" s="2" t="inlineStr"/>
       <c r="K26" s="2" t="inlineStr"/>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
@@ -1847,7 +1839,7 @@
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1881,24 +1873,24 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>contact-priority</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Contact priority</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr"/>
       <c r="K27" s="2" t="inlineStr"/>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -1908,8 +1900,16 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="n"/>
-      <c r="B28" s="2" t="n"/>
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>Agent details</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>agent-details</t>
+        </is>
+      </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
           <t>Name and contact information if an agent is being used.</t>
@@ -1917,63 +1917,47 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>contact-details</t>
+          <t>agent</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
+          <t>agent</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>phone-numbers</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="H28" s="2" t="inlineStr">
-        <is>
-          <t>contact-priority</t>
-        </is>
-      </c>
-      <c r="I28" s="2" t="inlineStr">
-        <is>
-          <t>Contact priority</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr"/>
+      <c r="I28" s="2" t="inlineStr"/>
       <c r="J28" s="2" t="inlineStr"/>
       <c r="K28" s="2" t="inlineStr"/>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="inlineStr">
-        <is>
-          <t>Agent details</t>
-        </is>
-      </c>
-      <c r="B29" s="2" t="inlineStr">
-        <is>
-          <t>agent-details</t>
-        </is>
-      </c>
+      <c r="A29" s="2" t="n"/>
+      <c r="B29" s="2" t="n"/>
       <c r="C29" s="2" t="inlineStr">
         <is>
           <t>Name and contact information if an agent is being used.</t>
@@ -1991,21 +1975,29 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>person</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="H29" s="2" t="inlineStr"/>
-      <c r="I29" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="J29" s="2" t="inlineStr"/>
       <c r="K29" s="2" t="inlineStr"/>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
@@ -2015,7 +2007,7 @@
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2049,19 +2041,19 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>first-name</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr"/>
       <c r="K30" s="2" t="inlineStr"/>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
@@ -2071,7 +2063,7 @@
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2105,19 +2097,19 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>first-name</t>
+          <t>last-name</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr"/>
       <c r="K31" s="2" t="inlineStr"/>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
@@ -2161,19 +2153,19 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>last-name</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr"/>
       <c r="K32" s="2" t="inlineStr"/>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
@@ -2217,19 +2209,19 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr"/>
       <c r="K33" s="2" t="inlineStr"/>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
@@ -2239,7 +2231,7 @@
       </c>
       <c r="N33" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2263,29 +2255,21 @@
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>company</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H34" s="2" t="inlineStr">
-        <is>
-          <t>postcode</t>
-        </is>
-      </c>
-      <c r="I34" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Company</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr"/>
+      <c r="I34" s="2" t="inlineStr"/>
       <c r="J34" s="2" t="inlineStr"/>
       <c r="K34" s="2" t="inlineStr"/>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>The name of a company (that the agent works for)</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
@@ -2319,12 +2303,12 @@
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>company</t>
+          <t>user-role</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>Company</t>
+          <t>User role</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr"/>
@@ -2333,12 +2317,12 @@
       <c r="K35" s="2" t="inlineStr"/>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>The name of a company (that the agent works for)</t>
+          <t>The role of the named individual. Agent or proxy</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
@@ -2348,64 +2332,56 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="n"/>
-      <c r="B36" s="2" t="n"/>
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>Applicant contact details</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="inlineStr">
+        <is>
+          <t>applicant-contact</t>
+        </is>
+      </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>Name and contact information if an agent is being used.</t>
+          <t>Telephone number and email address of the applicant.</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>agent</t>
+          <t>applicant-reference</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>agent</t>
-        </is>
-      </c>
-      <c r="F36" s="2" t="inlineStr">
-        <is>
-          <t>user-role</t>
-        </is>
-      </c>
-      <c r="G36" s="2" t="inlineStr">
-        <is>
-          <t>User role</t>
-        </is>
-      </c>
+          <t>Applicant reference</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr"/>
+      <c r="G36" s="2" t="inlineStr"/>
       <c r="H36" s="2" t="inlineStr"/>
       <c r="I36" s="2" t="inlineStr"/>
       <c r="J36" s="2" t="inlineStr"/>
       <c r="K36" s="2" t="inlineStr"/>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>The role of the named individual. Agent or proxy</t>
+          <t>Reference to match contact details to a named individual from the applicant details component</t>
         </is>
       </c>
       <c r="M36" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N36" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="inlineStr">
-        <is>
-          <t>Applicant contact details</t>
-        </is>
-      </c>
-      <c r="B37" s="2" t="inlineStr">
-        <is>
-          <t>applicant-contact</t>
-        </is>
-      </c>
+      <c r="A37" s="2" t="n"/>
+      <c r="B37" s="2" t="n"/>
       <c r="C37" s="2" t="inlineStr">
         <is>
           <t>Telephone number and email address of the applicant.</t>
@@ -2413,23 +2389,31 @@
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>applicant-reference</t>
+          <t>contact-details</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>Applicant reference</t>
-        </is>
-      </c>
-      <c r="F37" s="2" t="inlineStr"/>
-      <c r="G37" s="2" t="inlineStr"/>
+          <t>Contact details</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
       <c r="H37" s="2" t="inlineStr"/>
       <c r="I37" s="2" t="inlineStr"/>
       <c r="J37" s="2" t="inlineStr"/>
       <c r="K37" s="2" t="inlineStr"/>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>Reference to match contact details to a named individual from the applicant details component</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="M37" s="2" t="inlineStr">
@@ -2463,21 +2447,29 @@
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>email</t>
+          <t>phone-numbers</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="H38" s="2" t="inlineStr"/>
-      <c r="I38" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
       <c r="J38" s="2" t="inlineStr"/>
       <c r="K38" s="2" t="inlineStr"/>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="M38" s="2" t="inlineStr">
@@ -2487,7 +2479,7 @@
       </c>
       <c r="N38" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2521,24 +2513,24 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>contact-priority</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Contact priority</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr"/>
       <c r="K39" s="2" t="inlineStr"/>
       <c r="L39" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="M39" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N39" s="2" t="inlineStr">
@@ -2548,72 +2540,64 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="n"/>
-      <c r="B40" s="2" t="n"/>
+      <c r="A40" s="2" t="inlineStr">
+        <is>
+          <t>Applicant details</t>
+        </is>
+      </c>
+      <c r="B40" s="2" t="inlineStr">
+        <is>
+          <t>applicant-details</t>
+        </is>
+      </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>Telephone number and email address of the applicant.</t>
+          <t>Name and contact information for the parties making the application.</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>contact-details</t>
+          <t>applicants</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
+          <t>Applicants[]</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>phone-numbers</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="H40" s="2" t="inlineStr">
-        <is>
-          <t>contact-priority</t>
-        </is>
-      </c>
-      <c r="I40" s="2" t="inlineStr">
-        <is>
-          <t>Contact priority</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr"/>
+      <c r="I40" s="2" t="inlineStr"/>
       <c r="J40" s="2" t="inlineStr"/>
       <c r="K40" s="2" t="inlineStr"/>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M40" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N40" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="inlineStr">
-        <is>
-          <t>Applicant details</t>
-        </is>
-      </c>
-      <c r="B41" s="2" t="inlineStr">
-        <is>
-          <t>applicant-details</t>
-        </is>
-      </c>
+      <c r="A41" s="2" t="n"/>
+      <c r="B41" s="2" t="n"/>
       <c r="C41" s="2" t="inlineStr">
         <is>
           <t>Name and contact information for the parties making the application.</t>
@@ -2631,21 +2615,29 @@
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>person</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="H41" s="2" t="inlineStr"/>
-      <c r="I41" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="J41" s="2" t="inlineStr"/>
       <c r="K41" s="2" t="inlineStr"/>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="M41" s="2" t="inlineStr">
@@ -2655,7 +2647,7 @@
       </c>
       <c r="N41" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2689,19 +2681,19 @@
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>first-name</t>
         </is>
       </c>
       <c r="I42" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="J42" s="2" t="inlineStr"/>
       <c r="K42" s="2" t="inlineStr"/>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="M42" s="2" t="inlineStr">
@@ -2711,7 +2703,7 @@
       </c>
       <c r="N42" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2745,19 +2737,19 @@
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>first-name</t>
+          <t>last-name</t>
         </is>
       </c>
       <c r="I43" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="J43" s="2" t="inlineStr"/>
       <c r="K43" s="2" t="inlineStr"/>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="M43" s="2" t="inlineStr">
@@ -2801,19 +2793,19 @@
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>last-name</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="I44" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="J44" s="2" t="inlineStr"/>
       <c r="K44" s="2" t="inlineStr"/>
       <c r="L44" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M44" s="2" t="inlineStr">
@@ -2857,19 +2849,19 @@
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="I45" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="J45" s="2" t="inlineStr"/>
       <c r="K45" s="2" t="inlineStr"/>
       <c r="L45" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M45" s="2" t="inlineStr">
@@ -2879,90 +2871,82 @@
       </c>
       <c r="N45" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="n"/>
-      <c r="B46" s="2" t="n"/>
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>Biodiversity net gain</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="inlineStr">
+        <is>
+          <t>bng</t>
+        </is>
+      </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>Name and contact information for the parties making the application.</t>
+          <t>How any natural habitats on the development site will be improved by the proposed works.</t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr">
         <is>
-          <t>applicants</t>
+          <t>bng-exempt</t>
         </is>
       </c>
       <c r="E46" s="2" t="inlineStr">
         <is>
-          <t>Applicants[]</t>
-        </is>
-      </c>
-      <c r="F46" s="2" t="inlineStr">
-        <is>
-          <t>person</t>
-        </is>
-      </c>
-      <c r="G46" s="2" t="inlineStr">
-        <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H46" s="2" t="inlineStr">
-        <is>
-          <t>postcode</t>
-        </is>
-      </c>
-      <c r="I46" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Biodiversity gain exemption</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr"/>
+      <c r="G46" s="2" t="inlineStr"/>
+      <c r="H46" s="2" t="inlineStr"/>
+      <c r="I46" s="2" t="inlineStr"/>
       <c r="J46" s="2" t="inlineStr"/>
       <c r="K46" s="2" t="inlineStr"/>
       <c r="L46" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Statement whether the biodiversity gain condition will apply if permission is granted. Householder applicants need to confirm the biodiversity gain condition does not apply.</t>
         </is>
       </c>
       <c r="M46" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N46" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>Biodiversity net gain</t>
+          <t>Checklist</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>bng</t>
+          <t>checklist</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>How any natural habitats on the development site will be improved by the proposed works.</t>
+          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
         </is>
       </c>
       <c r="D47" s="2" t="inlineStr">
         <is>
-          <t>bng-exempt</t>
+          <t>national-req-types</t>
         </is>
       </c>
       <c r="E47" s="2" t="inlineStr">
         <is>
-          <t>Biodiversity gain exemption</t>
+          <t>National requirement types[]</t>
         </is>
       </c>
       <c r="F47" s="2" t="inlineStr"/>
@@ -2973,12 +2957,12 @@
       <c r="K47" s="2" t="inlineStr"/>
       <c r="L47" s="2" t="inlineStr">
         <is>
-          <t>Statement whether the biodiversity gain condition will apply if permission is granted. Householder applicants need to confirm the biodiversity gain condition does not apply.</t>
+          <t>List of the document types required for the given application type</t>
         </is>
       </c>
       <c r="M47" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N47" s="2" t="inlineStr">
@@ -2990,27 +2974,27 @@
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>Checklist</t>
+          <t>Conflict of interest</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>checklist</t>
+          <t>conflict-of-interest</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
+          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr">
         <is>
-          <t>national-req-types</t>
+          <t>conflict-to-declare</t>
         </is>
       </c>
       <c r="E48" s="2" t="inlineStr">
         <is>
-          <t>National requirement types[]</t>
+          <t>Conflict to declare</t>
         </is>
       </c>
       <c r="F48" s="2" t="inlineStr"/>
@@ -3021,12 +3005,12 @@
       <c r="K48" s="2" t="inlineStr"/>
       <c r="L48" s="2" t="inlineStr">
         <is>
-          <t>List of the document types required for the given application type</t>
+          <t>Indicates whether any named applicant or agent has a relationship to the planning authority that must be declared</t>
         </is>
       </c>
       <c r="M48" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N48" s="2" t="inlineStr">
@@ -3036,16 +3020,8 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="inlineStr">
-        <is>
-          <t>Conflict of interest</t>
-        </is>
-      </c>
-      <c r="B49" s="2" t="inlineStr">
-        <is>
-          <t>conflict-of-interest</t>
-        </is>
-      </c>
+      <c r="A49" s="2" t="n"/>
+      <c r="B49" s="2" t="n"/>
       <c r="C49" s="2" t="inlineStr">
         <is>
           <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
@@ -3053,12 +3029,12 @@
       </c>
       <c r="D49" s="2" t="inlineStr">
         <is>
-          <t>conflict-to-declare</t>
+          <t>conflict-person-name</t>
         </is>
       </c>
       <c r="E49" s="2" t="inlineStr">
         <is>
-          <t>Conflict to declare</t>
+          <t>Conflict person name</t>
         </is>
       </c>
       <c r="F49" s="2" t="inlineStr"/>
@@ -3069,17 +3045,17 @@
       <c r="K49" s="2" t="inlineStr"/>
       <c r="L49" s="2" t="inlineStr">
         <is>
-          <t>Indicates whether any named applicant or agent has a relationship to the planning authority that must be declared</t>
+          <t>Name of the individual with the conflict of interest that matches one of the names provided in applicants/agent section</t>
         </is>
       </c>
       <c r="M49" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N49" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3093,12 +3069,12 @@
       </c>
       <c r="D50" s="2" t="inlineStr">
         <is>
-          <t>conflict-person-name</t>
+          <t>conflict-details</t>
         </is>
       </c>
       <c r="E50" s="2" t="inlineStr">
         <is>
-          <t>Conflict person name</t>
+          <t>Conflict details</t>
         </is>
       </c>
       <c r="F50" s="2" t="inlineStr"/>
@@ -3109,7 +3085,7 @@
       <c r="K50" s="2" t="inlineStr"/>
       <c r="L50" s="2" t="inlineStr">
         <is>
-          <t>Name of the individual with the conflict of interest that matches one of the names provided in applicants/agent section</t>
+          <t>Details of the conflict of interest including name, role and how the individual is related to the planning authority</t>
         </is>
       </c>
       <c r="M50" s="2" t="inlineStr">
@@ -3124,21 +3100,29 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="n"/>
-      <c r="B51" s="2" t="n"/>
+      <c r="A51" s="2" t="inlineStr">
+        <is>
+          <t>Declaration</t>
+        </is>
+      </c>
+      <c r="B51" s="2" t="inlineStr">
+        <is>
+          <t>declaration</t>
+        </is>
+      </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
+          <t>Signed and dated verification of the application's accuracy.</t>
         </is>
       </c>
       <c r="D51" s="2" t="inlineStr">
         <is>
-          <t>conflict-details</t>
+          <t>name</t>
         </is>
       </c>
       <c r="E51" s="2" t="inlineStr">
         <is>
-          <t>Conflict details</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="F51" s="2" t="inlineStr"/>
@@ -3149,7 +3133,7 @@
       <c r="K51" s="2" t="inlineStr"/>
       <c r="L51" s="2" t="inlineStr">
         <is>
-          <t>Details of the conflict of interest including name, role and how the individual is related to the planning authority</t>
+          <t>A name of a person</t>
         </is>
       </c>
       <c r="M51" s="2" t="inlineStr">
@@ -3159,21 +3143,13 @@
       </c>
       <c r="N51" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="inlineStr">
-        <is>
-          <t>Declaration</t>
-        </is>
-      </c>
-      <c r="B52" s="2" t="inlineStr">
-        <is>
-          <t>declaration</t>
-        </is>
-      </c>
+      <c r="A52" s="2" t="n"/>
+      <c r="B52" s="2" t="n"/>
       <c r="C52" s="2" t="inlineStr">
         <is>
           <t>Signed and dated verification of the application's accuracy.</t>
@@ -3181,12 +3157,12 @@
       </c>
       <c r="D52" s="2" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>declaration-confirmed</t>
         </is>
       </c>
       <c r="E52" s="2" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Declaration confirmed</t>
         </is>
       </c>
       <c r="F52" s="2" t="inlineStr"/>
@@ -3197,12 +3173,12 @@
       <c r="K52" s="2" t="inlineStr"/>
       <c r="L52" s="2" t="inlineStr">
         <is>
-          <t>A name of a person</t>
+          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
         </is>
       </c>
       <c r="M52" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N52" s="2" t="inlineStr">
@@ -3221,12 +3197,12 @@
       </c>
       <c r="D53" s="2" t="inlineStr">
         <is>
-          <t>declaration-confirmed</t>
+          <t>declaration-date</t>
         </is>
       </c>
       <c r="E53" s="2" t="inlineStr">
         <is>
-          <t>Declaration confirmed</t>
+          <t>Declaration date</t>
         </is>
       </c>
       <c r="F53" s="2" t="inlineStr"/>
@@ -3237,12 +3213,12 @@
       <c r="K53" s="2" t="inlineStr"/>
       <c r="L53" s="2" t="inlineStr">
         <is>
-          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
+          <t>The date the declaration was made</t>
         </is>
       </c>
       <c r="M53" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N53" s="2" t="inlineStr">
@@ -3252,37 +3228,53 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="n"/>
-      <c r="B54" s="2" t="n"/>
+      <c r="A54" s="2" t="inlineStr">
+        <is>
+          <t>Materials</t>
+        </is>
+      </c>
+      <c r="B54" s="2" t="inlineStr">
+        <is>
+          <t>materials</t>
+        </is>
+      </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>Signed and dated verification of the application's accuracy.</t>
+          <t>What materials are being used for the proposed development</t>
         </is>
       </c>
       <c r="D54" s="2" t="inlineStr">
         <is>
-          <t>declaration-date</t>
+          <t>building-elements</t>
         </is>
       </c>
       <c r="E54" s="2" t="inlineStr">
         <is>
-          <t>Declaration date</t>
-        </is>
-      </c>
-      <c r="F54" s="2" t="inlineStr"/>
-      <c r="G54" s="2" t="inlineStr"/>
+          <t>Building elements[]</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>building-element-type</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="inlineStr">
+        <is>
+          <t>Building element type</t>
+        </is>
+      </c>
       <c r="H54" s="2" t="inlineStr"/>
       <c r="I54" s="2" t="inlineStr"/>
       <c r="J54" s="2" t="inlineStr"/>
       <c r="K54" s="2" t="inlineStr"/>
       <c r="L54" s="2" t="inlineStr">
         <is>
-          <t>The date the declaration was made</t>
+          <t>The part of building the materials relate to, such as walls, roofs, windows, or doors</t>
         </is>
       </c>
       <c r="M54" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N54" s="2" t="inlineStr">
@@ -3292,16 +3284,8 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="2" t="inlineStr">
-        <is>
-          <t>Materials</t>
-        </is>
-      </c>
-      <c r="B55" s="2" t="inlineStr">
-        <is>
-          <t>materials</t>
-        </is>
-      </c>
+      <c r="A55" s="2" t="n"/>
+      <c r="B55" s="2" t="n"/>
       <c r="C55" s="2" t="inlineStr">
         <is>
           <t>What materials are being used for the proposed development</t>
@@ -3319,12 +3303,12 @@
       </c>
       <c r="F55" s="2" t="inlineStr">
         <is>
-          <t>building-element-type</t>
+          <t>existing-materials</t>
         </is>
       </c>
       <c r="G55" s="2" t="inlineStr">
         <is>
-          <t>Building element type</t>
+          <t>Existing materials</t>
         </is>
       </c>
       <c r="H55" s="2" t="inlineStr"/>
@@ -3333,17 +3317,17 @@
       <c r="K55" s="2" t="inlineStr"/>
       <c r="L55" s="2" t="inlineStr">
         <is>
-          <t>The part of building the materials relate to, such as walls, roofs, windows, or doors</t>
+          <t>Description of the materials currently used for this building element</t>
         </is>
       </c>
       <c r="M55" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N55" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3367,12 +3351,12 @@
       </c>
       <c r="F56" s="2" t="inlineStr">
         <is>
-          <t>existing-materials</t>
+          <t>proposed-materials</t>
         </is>
       </c>
       <c r="G56" s="2" t="inlineStr">
         <is>
-          <t>Existing materials</t>
+          <t>Proposed materials</t>
         </is>
       </c>
       <c r="H56" s="2" t="inlineStr"/>
@@ -3381,7 +3365,7 @@
       <c r="K56" s="2" t="inlineStr"/>
       <c r="L56" s="2" t="inlineStr">
         <is>
-          <t>Description of the materials currently used for this building element</t>
+          <t>Description of the materials proposed for this building element as part of the development</t>
         </is>
       </c>
       <c r="M56" s="2" t="inlineStr">
@@ -3415,12 +3399,12 @@
       </c>
       <c r="F57" s="2" t="inlineStr">
         <is>
-          <t>proposed-materials</t>
+          <t>materials-not-applicable</t>
         </is>
       </c>
       <c r="G57" s="2" t="inlineStr">
         <is>
-          <t>Proposed materials</t>
+          <t>Materials not applicable</t>
         </is>
       </c>
       <c r="H57" s="2" t="inlineStr"/>
@@ -3429,12 +3413,12 @@
       <c r="K57" s="2" t="inlineStr"/>
       <c r="L57" s="2" t="inlineStr">
         <is>
-          <t>Description of the materials proposed for this building element as part of the development</t>
+          <t>Indicates this building element is not relevant to the application</t>
         </is>
       </c>
       <c r="M57" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N57" s="2" t="inlineStr">
@@ -3463,12 +3447,12 @@
       </c>
       <c r="F58" s="2" t="inlineStr">
         <is>
-          <t>materials-not-applicable</t>
+          <t>materials-not-known</t>
         </is>
       </c>
       <c r="G58" s="2" t="inlineStr">
         <is>
-          <t>Materials not applicable</t>
+          <t>Materials not known</t>
         </is>
       </c>
       <c r="H58" s="2" t="inlineStr"/>
@@ -3477,7 +3461,7 @@
       <c r="K58" s="2" t="inlineStr"/>
       <c r="L58" s="2" t="inlineStr">
         <is>
-          <t>Indicates this building element is not relevant to the application</t>
+          <t>Indicates the materials for this building element are not yet known</t>
         </is>
       </c>
       <c r="M58" s="2" t="inlineStr">
@@ -3501,31 +3485,23 @@
       </c>
       <c r="D59" s="2" t="inlineStr">
         <is>
-          <t>building-elements</t>
+          <t>providing-additional-material-information</t>
         </is>
       </c>
       <c r="E59" s="2" t="inlineStr">
         <is>
-          <t>Building elements[]</t>
-        </is>
-      </c>
-      <c r="F59" s="2" t="inlineStr">
-        <is>
-          <t>materials-not-known</t>
-        </is>
-      </c>
-      <c r="G59" s="2" t="inlineStr">
-        <is>
-          <t>Materials not known</t>
-        </is>
-      </c>
+          <t>Providing additional material information</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="inlineStr"/>
+      <c r="G59" s="2" t="inlineStr"/>
       <c r="H59" s="2" t="inlineStr"/>
       <c r="I59" s="2" t="inlineStr"/>
       <c r="J59" s="2" t="inlineStr"/>
       <c r="K59" s="2" t="inlineStr"/>
       <c r="L59" s="2" t="inlineStr">
         <is>
-          <t>Indicates the materials for this building element are not yet known</t>
+          <t>Is the applicant providing additional materials information on submitted plan(s)/drawing(s)/design and access statement?</t>
         </is>
       </c>
       <c r="M59" s="2" t="inlineStr">
@@ -3535,7 +3511,7 @@
       </c>
       <c r="N59" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3549,28 +3525,36 @@
       </c>
       <c r="D60" s="2" t="inlineStr">
         <is>
-          <t>providing-additional-material-information</t>
+          <t>supporting-documents</t>
         </is>
       </c>
       <c r="E60" s="2" t="inlineStr">
         <is>
-          <t>Providing additional material information</t>
-        </is>
-      </c>
-      <c r="F60" s="2" t="inlineStr"/>
-      <c r="G60" s="2" t="inlineStr"/>
+          <t>Supporting documents[]</t>
+        </is>
+      </c>
+      <c r="F60" s="2" t="inlineStr">
+        <is>
+          <t>reference</t>
+        </is>
+      </c>
+      <c r="G60" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="H60" s="2" t="inlineStr"/>
       <c r="I60" s="2" t="inlineStr"/>
       <c r="J60" s="2" t="inlineStr"/>
       <c r="K60" s="2" t="inlineStr"/>
       <c r="L60" s="2" t="inlineStr">
         <is>
-          <t>Is the applicant providing additional materials information on submitted plan(s)/drawing(s)/design and access statement?</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M60" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N60" s="2" t="inlineStr">
@@ -3599,12 +3583,12 @@
       </c>
       <c r="F61" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>name</t>
         </is>
       </c>
       <c r="G61" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="H61" s="2" t="inlineStr"/>
@@ -3613,7 +3597,7 @@
       <c r="K61" s="2" t="inlineStr"/>
       <c r="L61" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>A name for the document. For example, The Site Plan</t>
         </is>
       </c>
       <c r="M61" s="2" t="inlineStr">
@@ -3628,45 +3612,45 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="2" t="n"/>
-      <c r="B62" s="2" t="n"/>
+      <c r="A62" s="2" t="inlineStr">
+        <is>
+          <t>Ownership certificates and agricultural land declaration</t>
+        </is>
+      </c>
+      <c r="B62" s="2" t="inlineStr">
+        <is>
+          <t>ownership-certs</t>
+        </is>
+      </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>What materials are being used for the proposed development</t>
+          <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
         </is>
       </c>
       <c r="D62" s="2" t="inlineStr">
         <is>
-          <t>supporting-documents</t>
+          <t>sole-owner</t>
         </is>
       </c>
       <c r="E62" s="2" t="inlineStr">
         <is>
-          <t>Supporting documents[]</t>
-        </is>
-      </c>
-      <c r="F62" s="2" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="G62" s="2" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
+          <t>Sole owner</t>
+        </is>
+      </c>
+      <c r="F62" s="2" t="inlineStr"/>
+      <c r="G62" s="2" t="inlineStr"/>
       <c r="H62" s="2" t="inlineStr"/>
       <c r="I62" s="2" t="inlineStr"/>
       <c r="J62" s="2" t="inlineStr"/>
       <c r="K62" s="2" t="inlineStr"/>
       <c r="L62" s="2" t="inlineStr">
         <is>
-          <t>A name for the document. For example, The Site Plan</t>
+          <t>Is the applicant the sole owner of the land?</t>
         </is>
       </c>
       <c r="M62" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N62" s="2" t="inlineStr">
@@ -3676,16 +3660,8 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2" t="inlineStr">
-        <is>
-          <t>Ownership certificates and agricultural land declaration</t>
-        </is>
-      </c>
-      <c r="B63" s="2" t="inlineStr">
-        <is>
-          <t>ownership-certs</t>
-        </is>
-      </c>
+      <c r="A63" s="2" t="n"/>
+      <c r="B63" s="2" t="n"/>
       <c r="C63" s="2" t="inlineStr">
         <is>
           <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
@@ -3693,12 +3669,12 @@
       </c>
       <c r="D63" s="2" t="inlineStr">
         <is>
-          <t>sole-owner</t>
+          <t>agricultural-tenants</t>
         </is>
       </c>
       <c r="E63" s="2" t="inlineStr">
         <is>
-          <t>Sole owner</t>
+          <t>Agricultural tenants</t>
         </is>
       </c>
       <c r="F63" s="2" t="inlineStr"/>
@@ -3709,7 +3685,7 @@
       <c r="K63" s="2" t="inlineStr"/>
       <c r="L63" s="2" t="inlineStr">
         <is>
-          <t>Is the applicant the sole owner of the land?</t>
+          <t>Are there any agricultural tenants on the land?</t>
         </is>
       </c>
       <c r="M63" s="2" t="inlineStr">
@@ -3733,33 +3709,49 @@
       </c>
       <c r="D64" s="2" t="inlineStr">
         <is>
-          <t>agricultural-tenants</t>
+          <t>owners-and-tenants</t>
         </is>
       </c>
       <c r="E64" s="2" t="inlineStr">
         <is>
-          <t>Agricultural tenants</t>
-        </is>
-      </c>
-      <c r="F64" s="2" t="inlineStr"/>
-      <c r="G64" s="2" t="inlineStr"/>
-      <c r="H64" s="2" t="inlineStr"/>
-      <c r="I64" s="2" t="inlineStr"/>
+          <t>Owners and tenants[]</t>
+        </is>
+      </c>
+      <c r="F64" s="2" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="G64" s="2" t="inlineStr">
+        <is>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="H64" s="2" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="I64" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="J64" s="2" t="inlineStr"/>
       <c r="K64" s="2" t="inlineStr"/>
       <c r="L64" s="2" t="inlineStr">
         <is>
-          <t>Are there any agricultural tenants on the land?</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="M64" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N64" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3793,19 +3785,19 @@
       </c>
       <c r="H65" s="2" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>first-name</t>
         </is>
       </c>
       <c r="I65" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="J65" s="2" t="inlineStr"/>
       <c r="K65" s="2" t="inlineStr"/>
       <c r="L65" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="M65" s="2" t="inlineStr">
@@ -3815,7 +3807,7 @@
       </c>
       <c r="N65" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3849,19 +3841,19 @@
       </c>
       <c r="H66" s="2" t="inlineStr">
         <is>
-          <t>first-name</t>
+          <t>last-name</t>
         </is>
       </c>
       <c r="I66" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="J66" s="2" t="inlineStr"/>
       <c r="K66" s="2" t="inlineStr"/>
       <c r="L66" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="M66" s="2" t="inlineStr">
@@ -3905,19 +3897,19 @@
       </c>
       <c r="H67" s="2" t="inlineStr">
         <is>
-          <t>last-name</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="I67" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="J67" s="2" t="inlineStr"/>
       <c r="K67" s="2" t="inlineStr"/>
       <c r="L67" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M67" s="2" t="inlineStr">
@@ -3961,19 +3953,19 @@
       </c>
       <c r="H68" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="I68" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="J68" s="2" t="inlineStr"/>
       <c r="K68" s="2" t="inlineStr"/>
       <c r="L68" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M68" s="2" t="inlineStr">
@@ -3983,7 +3975,7 @@
       </c>
       <c r="N68" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4007,34 +3999,26 @@
       </c>
       <c r="F69" s="2" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>notice-date</t>
         </is>
       </c>
       <c r="G69" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H69" s="2" t="inlineStr">
-        <is>
-          <t>postcode</t>
-        </is>
-      </c>
-      <c r="I69" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Notice date</t>
+        </is>
+      </c>
+      <c r="H69" s="2" t="inlineStr"/>
+      <c r="I69" s="2" t="inlineStr"/>
       <c r="J69" s="2" t="inlineStr"/>
       <c r="K69" s="2" t="inlineStr"/>
       <c r="L69" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Date when notice was served</t>
         </is>
       </c>
       <c r="M69" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N69" s="2" t="inlineStr">
@@ -4053,36 +4037,28 @@
       </c>
       <c r="D70" s="2" t="inlineStr">
         <is>
-          <t>owners-and-tenants</t>
+          <t>steps-taken</t>
         </is>
       </c>
       <c r="E70" s="2" t="inlineStr">
         <is>
-          <t>Owners and tenants[]</t>
-        </is>
-      </c>
-      <c r="F70" s="2" t="inlineStr">
-        <is>
-          <t>notice-date</t>
-        </is>
-      </c>
-      <c r="G70" s="2" t="inlineStr">
-        <is>
-          <t>Notice date</t>
-        </is>
-      </c>
+          <t>Steps taken</t>
+        </is>
+      </c>
+      <c r="F70" s="2" t="inlineStr"/>
+      <c r="G70" s="2" t="inlineStr"/>
       <c r="H70" s="2" t="inlineStr"/>
       <c r="I70" s="2" t="inlineStr"/>
       <c r="J70" s="2" t="inlineStr"/>
       <c r="K70" s="2" t="inlineStr"/>
       <c r="L70" s="2" t="inlineStr">
         <is>
-          <t>Date when notice was served</t>
+          <t>Description of steps taken to identify unknown owners or tenants</t>
         </is>
       </c>
       <c r="M70" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N70" s="2" t="inlineStr">
@@ -4101,23 +4077,31 @@
       </c>
       <c r="D71" s="2" t="inlineStr">
         <is>
-          <t>steps-taken</t>
+          <t>newspaper-notices</t>
         </is>
       </c>
       <c r="E71" s="2" t="inlineStr">
         <is>
-          <t>Steps taken</t>
-        </is>
-      </c>
-      <c r="F71" s="2" t="inlineStr"/>
-      <c r="G71" s="2" t="inlineStr"/>
+          <t>Newspaper notices[]</t>
+        </is>
+      </c>
+      <c r="F71" s="2" t="inlineStr">
+        <is>
+          <t>newspaper-name</t>
+        </is>
+      </c>
+      <c r="G71" s="2" t="inlineStr">
+        <is>
+          <t>Newspaper name</t>
+        </is>
+      </c>
       <c r="H71" s="2" t="inlineStr"/>
       <c r="I71" s="2" t="inlineStr"/>
       <c r="J71" s="2" t="inlineStr"/>
       <c r="K71" s="2" t="inlineStr"/>
       <c r="L71" s="2" t="inlineStr">
         <is>
-          <t>Description of steps taken to identify unknown owners or tenants</t>
+          <t>Name of the newspaper where notice was published</t>
         </is>
       </c>
       <c r="M71" s="2" t="inlineStr">
@@ -4127,7 +4111,7 @@
       </c>
       <c r="N71" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4151,12 +4135,12 @@
       </c>
       <c r="F72" s="2" t="inlineStr">
         <is>
-          <t>newspaper-name</t>
+          <t>publication-date</t>
         </is>
       </c>
       <c r="G72" s="2" t="inlineStr">
         <is>
-          <t>Newspaper name</t>
+          <t>Publication date</t>
         </is>
       </c>
       <c r="H72" s="2" t="inlineStr"/>
@@ -4165,12 +4149,12 @@
       <c r="K72" s="2" t="inlineStr"/>
       <c r="L72" s="2" t="inlineStr">
         <is>
-          <t>Name of the newspaper where notice was published</t>
+          <t>Date when the notice was published</t>
         </is>
       </c>
       <c r="M72" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N72" s="2" t="inlineStr">
@@ -4189,41 +4173,33 @@
       </c>
       <c r="D73" s="2" t="inlineStr">
         <is>
-          <t>newspaper-notices</t>
+          <t>ownership-cert-option</t>
         </is>
       </c>
       <c r="E73" s="2" t="inlineStr">
         <is>
-          <t>Newspaper notices[]</t>
-        </is>
-      </c>
-      <c r="F73" s="2" t="inlineStr">
-        <is>
-          <t>publication-date</t>
-        </is>
-      </c>
-      <c r="G73" s="2" t="inlineStr">
-        <is>
-          <t>Publication date</t>
-        </is>
-      </c>
+          <t>Ownership certificate type</t>
+        </is>
+      </c>
+      <c r="F73" s="2" t="inlineStr"/>
+      <c r="G73" s="2" t="inlineStr"/>
       <c r="H73" s="2" t="inlineStr"/>
       <c r="I73" s="2" t="inlineStr"/>
       <c r="J73" s="2" t="inlineStr"/>
       <c r="K73" s="2" t="inlineStr"/>
       <c r="L73" s="2" t="inlineStr">
         <is>
-          <t>Date when the notice was published</t>
+          <t>The type of ownership certificate based on ownership and tenancy status</t>
         </is>
       </c>
       <c r="M73" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N73" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4237,12 +4213,12 @@
       </c>
       <c r="D74" s="2" t="inlineStr">
         <is>
-          <t>ownership-cert-option</t>
+          <t>applicant-signature</t>
         </is>
       </c>
       <c r="E74" s="2" t="inlineStr">
         <is>
-          <t>Ownership certificate type</t>
+          <t>Applicant signature</t>
         </is>
       </c>
       <c r="F74" s="2" t="inlineStr"/>
@@ -4253,12 +4229,12 @@
       <c r="K74" s="2" t="inlineStr"/>
       <c r="L74" s="2" t="inlineStr">
         <is>
-          <t>The type of ownership certificate based on ownership and tenancy status</t>
+          <t>Digital signature of the applicant</t>
         </is>
       </c>
       <c r="M74" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N74" s="2" t="inlineStr">
@@ -4277,12 +4253,12 @@
       </c>
       <c r="D75" s="2" t="inlineStr">
         <is>
-          <t>applicant-signature</t>
+          <t>agent-signature</t>
         </is>
       </c>
       <c r="E75" s="2" t="inlineStr">
         <is>
-          <t>Applicant signature</t>
+          <t>Agent signature</t>
         </is>
       </c>
       <c r="F75" s="2" t="inlineStr"/>
@@ -4293,7 +4269,7 @@
       <c r="K75" s="2" t="inlineStr"/>
       <c r="L75" s="2" t="inlineStr">
         <is>
-          <t>Digital signature of the applicant</t>
+          <t>Digital signature of the agent (if applicable)</t>
         </is>
       </c>
       <c r="M75" s="2" t="inlineStr">
@@ -4317,12 +4293,12 @@
       </c>
       <c r="D76" s="2" t="inlineStr">
         <is>
-          <t>agent-signature</t>
+          <t>signature-date</t>
         </is>
       </c>
       <c r="E76" s="2" t="inlineStr">
         <is>
-          <t>Agent signature</t>
+          <t>Signature date</t>
         </is>
       </c>
       <c r="F76" s="2" t="inlineStr"/>
@@ -4333,12 +4309,12 @@
       <c r="K76" s="2" t="inlineStr"/>
       <c r="L76" s="2" t="inlineStr">
         <is>
-          <t>Digital signature of the agent (if applicable)</t>
+          <t>Date when the ownership certificate was signed</t>
         </is>
       </c>
       <c r="M76" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N76" s="2" t="inlineStr">
@@ -4348,21 +4324,29 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="2" t="n"/>
-      <c r="B77" s="2" t="n"/>
+      <c r="A77" s="2" t="inlineStr">
+        <is>
+          <t>Parking arrangements</t>
+        </is>
+      </c>
+      <c r="B77" s="2" t="inlineStr">
+        <is>
+          <t>parking</t>
+        </is>
+      </c>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
+          <t>Details of any changes the proposed development would make to parking facilities.</t>
         </is>
       </c>
       <c r="D77" s="2" t="inlineStr">
         <is>
-          <t>signature-date</t>
+          <t>is-existing-parking-affected</t>
         </is>
       </c>
       <c r="E77" s="2" t="inlineStr">
         <is>
-          <t>Signature date</t>
+          <t>Existing parking affected</t>
         </is>
       </c>
       <c r="F77" s="2" t="inlineStr"/>
@@ -4373,31 +4357,23 @@
       <c r="K77" s="2" t="inlineStr"/>
       <c r="L77" s="2" t="inlineStr">
         <is>
-          <t>Date when the ownership certificate was signed</t>
+          <t>Will the proposed works affect existing car parking arrangements</t>
         </is>
       </c>
       <c r="M77" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N77" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="2" t="inlineStr">
-        <is>
-          <t>Parking arrangements</t>
-        </is>
-      </c>
-      <c r="B78" s="2" t="inlineStr">
-        <is>
-          <t>parking</t>
-        </is>
-      </c>
+      <c r="A78" s="2" t="n"/>
+      <c r="B78" s="2" t="n"/>
       <c r="C78" s="2" t="inlineStr">
         <is>
           <t>Details of any changes the proposed development would make to parking facilities.</t>
@@ -4405,12 +4381,12 @@
       </c>
       <c r="D78" s="2" t="inlineStr">
         <is>
-          <t>is-existing-parking-affected</t>
+          <t>description</t>
         </is>
       </c>
       <c r="E78" s="2" t="inlineStr">
         <is>
-          <t>Existing parking affected</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F78" s="2" t="inlineStr"/>
@@ -4421,36 +4397,44 @@
       <c r="K78" s="2" t="inlineStr"/>
       <c r="L78" s="2" t="inlineStr">
         <is>
-          <t>Will the proposed works affect existing car parking arrangements</t>
+          <t>A description of how the proposed works will affect existing car parking arrangements</t>
         </is>
       </c>
       <c r="M78" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N78" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="2" t="n"/>
-      <c r="B79" s="2" t="n"/>
+      <c r="A79" s="2" t="inlineStr">
+        <is>
+          <t>Pre-application advice</t>
+        </is>
+      </c>
+      <c r="B79" s="2" t="inlineStr">
+        <is>
+          <t>pre-app-advice</t>
+        </is>
+      </c>
       <c r="C79" s="2" t="inlineStr">
         <is>
-          <t>Details of any changes the proposed development would make to parking facilities.</t>
+          <t>Details of pre-application advice previously received from the planning authority</t>
         </is>
       </c>
       <c r="D79" s="2" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>advice-sought</t>
         </is>
       </c>
       <c r="E79" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Pre-application advice sought</t>
         </is>
       </c>
       <c r="F79" s="2" t="inlineStr"/>
@@ -4461,31 +4445,23 @@
       <c r="K79" s="2" t="inlineStr"/>
       <c r="L79" s="2" t="inlineStr">
         <is>
-          <t>A description of how the proposed works will affect existing car parking arrangements</t>
+          <t>Whether pre-application advice has been sought from the planning authority</t>
         </is>
       </c>
       <c r="M79" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N79" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="2" t="inlineStr">
-        <is>
-          <t>Pre-application advice</t>
-        </is>
-      </c>
-      <c r="B80" s="2" t="inlineStr">
-        <is>
-          <t>pre-app-advice</t>
-        </is>
-      </c>
+      <c r="A80" s="2" t="n"/>
+      <c r="B80" s="2" t="n"/>
       <c r="C80" s="2" t="inlineStr">
         <is>
           <t>Details of pre-application advice previously received from the planning authority</t>
@@ -4493,12 +4469,12 @@
       </c>
       <c r="D80" s="2" t="inlineStr">
         <is>
-          <t>advice-sought</t>
+          <t>officer-name</t>
         </is>
       </c>
       <c r="E80" s="2" t="inlineStr">
         <is>
-          <t>Pre-application advice sought</t>
+          <t>Officer name</t>
         </is>
       </c>
       <c r="F80" s="2" t="inlineStr"/>
@@ -4509,17 +4485,17 @@
       <c r="K80" s="2" t="inlineStr"/>
       <c r="L80" s="2" t="inlineStr">
         <is>
-          <t>Whether pre-application advice has been sought from the planning authority</t>
+          <t>Name of the planning officer who provided the pre-application advice</t>
         </is>
       </c>
       <c r="M80" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N80" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4533,12 +4509,12 @@
       </c>
       <c r="D81" s="2" t="inlineStr">
         <is>
-          <t>officer-name</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="E81" s="2" t="inlineStr">
         <is>
-          <t>Officer name</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="F81" s="2" t="inlineStr"/>
@@ -4549,7 +4525,7 @@
       <c r="K81" s="2" t="inlineStr"/>
       <c r="L81" s="2" t="inlineStr">
         <is>
-          <t>Name of the planning officer who provided the pre-application advice</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M81" s="2" t="inlineStr">
@@ -4573,12 +4549,12 @@
       </c>
       <c r="D82" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>advice-date</t>
         </is>
       </c>
       <c r="E82" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Advice date</t>
         </is>
       </c>
       <c r="F82" s="2" t="inlineStr"/>
@@ -4589,7 +4565,7 @@
       <c r="K82" s="2" t="inlineStr"/>
       <c r="L82" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="M82" s="2" t="inlineStr">
@@ -4613,12 +4589,12 @@
       </c>
       <c r="D83" s="2" t="inlineStr">
         <is>
-          <t>advice-date</t>
+          <t>advice-summary</t>
         </is>
       </c>
       <c r="E83" s="2" t="inlineStr">
         <is>
-          <t>Advice date</t>
+          <t>Advice summary</t>
         </is>
       </c>
       <c r="F83" s="2" t="inlineStr"/>
@@ -4629,7 +4605,7 @@
       <c r="K83" s="2" t="inlineStr"/>
       <c r="L83" s="2" t="inlineStr">
         <is>
-          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
+          <t>Summary of the pre-application advice received from the planning authority</t>
         </is>
       </c>
       <c r="M83" s="2" t="inlineStr">
@@ -4644,21 +4620,29 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="2" t="n"/>
-      <c r="B84" s="2" t="n"/>
+      <c r="A84" s="2" t="inlineStr">
+        <is>
+          <t>Description of the proposal</t>
+        </is>
+      </c>
+      <c r="B84" s="2" t="inlineStr">
+        <is>
+          <t>proposal-details</t>
+        </is>
+      </c>
       <c r="C84" s="2" t="inlineStr">
         <is>
-          <t>Details of pre-application advice previously received from the planning authority</t>
+          <t>What development, works or change of use is proposed</t>
         </is>
       </c>
       <c r="D84" s="2" t="inlineStr">
         <is>
-          <t>advice-summary</t>
+          <t>proposal-description</t>
         </is>
       </c>
       <c r="E84" s="2" t="inlineStr">
         <is>
-          <t>Advice summary</t>
+          <t>Proposal description</t>
         </is>
       </c>
       <c r="F84" s="2" t="inlineStr"/>
@@ -4669,7 +4653,7 @@
       <c r="K84" s="2" t="inlineStr"/>
       <c r="L84" s="2" t="inlineStr">
         <is>
-          <t>Summary of the pre-application advice received from the planning authority</t>
+          <t>A description of what is being proposed, including the development, works, or change of use</t>
         </is>
       </c>
       <c r="M84" s="2" t="inlineStr">
@@ -4679,21 +4663,13 @@
       </c>
       <c r="N84" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="2" t="inlineStr">
-        <is>
-          <t>Description of the proposal</t>
-        </is>
-      </c>
-      <c r="B85" s="2" t="inlineStr">
-        <is>
-          <t>proposal-details</t>
-        </is>
-      </c>
+      <c r="A85" s="2" t="n"/>
+      <c r="B85" s="2" t="n"/>
       <c r="C85" s="2" t="inlineStr">
         <is>
           <t>What development, works or change of use is proposed</t>
@@ -4701,12 +4677,12 @@
       </c>
       <c r="D85" s="2" t="inlineStr">
         <is>
-          <t>proposal-description</t>
+          <t>proposal-started</t>
         </is>
       </c>
       <c r="E85" s="2" t="inlineStr">
         <is>
-          <t>Proposal description</t>
+          <t>Proposal started</t>
         </is>
       </c>
       <c r="F85" s="2" t="inlineStr"/>
@@ -4717,12 +4693,12 @@
       <c r="K85" s="2" t="inlineStr"/>
       <c r="L85" s="2" t="inlineStr">
         <is>
-          <t>A description of what is being proposed, including the development, works, or change of use</t>
+          <t>Has any work on the proposal already been started</t>
         </is>
       </c>
       <c r="M85" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N85" s="2" t="inlineStr">
@@ -4741,12 +4717,12 @@
       </c>
       <c r="D86" s="2" t="inlineStr">
         <is>
-          <t>proposal-started</t>
+          <t>proposal-started-date</t>
         </is>
       </c>
       <c r="E86" s="2" t="inlineStr">
         <is>
-          <t>Proposal started</t>
+          <t>Proposal start date</t>
         </is>
       </c>
       <c r="F86" s="2" t="inlineStr"/>
@@ -4757,17 +4733,17 @@
       <c r="K86" s="2" t="inlineStr"/>
       <c r="L86" s="2" t="inlineStr">
         <is>
-          <t>Has any work on the proposal already been started</t>
+          <t>The date when work on the proposal started, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="M86" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N86" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4781,12 +4757,12 @@
       </c>
       <c r="D87" s="2" t="inlineStr">
         <is>
-          <t>proposal-started-date</t>
+          <t>proposal-completed</t>
         </is>
       </c>
       <c r="E87" s="2" t="inlineStr">
         <is>
-          <t>Proposal start date</t>
+          <t>Proposal completed</t>
         </is>
       </c>
       <c r="F87" s="2" t="inlineStr"/>
@@ -4797,17 +4773,17 @@
       <c r="K87" s="2" t="inlineStr"/>
       <c r="L87" s="2" t="inlineStr">
         <is>
-          <t>The date when work on the proposal started, in YYYY-MM-DD format</t>
+          <t>Has any work on the proposal already been completed</t>
         </is>
       </c>
       <c r="M87" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N87" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4821,12 +4797,12 @@
       </c>
       <c r="D88" s="2" t="inlineStr">
         <is>
-          <t>proposal-completed</t>
+          <t>proposal-completed-date</t>
         </is>
       </c>
       <c r="E88" s="2" t="inlineStr">
         <is>
-          <t>Proposal completed</t>
+          <t>Proposal completion date</t>
         </is>
       </c>
       <c r="F88" s="2" t="inlineStr"/>
@@ -4837,52 +4813,68 @@
       <c r="K88" s="2" t="inlineStr"/>
       <c r="L88" s="2" t="inlineStr">
         <is>
-          <t>Has any work on the proposal already been completed</t>
+          <t>The date when work on the proposal was completed, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="M88" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N88" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="2" t="n"/>
-      <c r="B89" s="2" t="n"/>
+      <c r="A89" s="2" t="inlineStr">
+        <is>
+          <t>Site details</t>
+        </is>
+      </c>
+      <c r="B89" s="2" t="inlineStr">
+        <is>
+          <t>site-details</t>
+        </is>
+      </c>
       <c r="C89" s="2" t="inlineStr">
         <is>
-          <t>What development, works or change of use is proposed</t>
+          <t>Where the proposed development will be built.</t>
         </is>
       </c>
       <c r="D89" s="2" t="inlineStr">
         <is>
-          <t>proposal-completed-date</t>
+          <t>site-locations</t>
         </is>
       </c>
       <c r="E89" s="2" t="inlineStr">
         <is>
-          <t>Proposal completion date</t>
-        </is>
-      </c>
-      <c r="F89" s="2" t="inlineStr"/>
-      <c r="G89" s="2" t="inlineStr"/>
+          <t>Site locations[]</t>
+        </is>
+      </c>
+      <c r="F89" s="2" t="inlineStr">
+        <is>
+          <t>site-boundary</t>
+        </is>
+      </c>
+      <c r="G89" s="2" t="inlineStr">
+        <is>
+          <t>Site boundary</t>
+        </is>
+      </c>
       <c r="H89" s="2" t="inlineStr"/>
       <c r="I89" s="2" t="inlineStr"/>
       <c r="J89" s="2" t="inlineStr"/>
       <c r="K89" s="2" t="inlineStr"/>
       <c r="L89" s="2" t="inlineStr">
         <is>
-          <t>The date when work on the proposal was completed, in YYYY-MM-DD format</t>
+          <t>Geometry of the site of the development, typically in GeoJSON format</t>
         </is>
       </c>
       <c r="M89" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>wkt</t>
         </is>
       </c>
       <c r="N89" s="2" t="inlineStr">
@@ -4892,16 +4884,8 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="2" t="inlineStr">
-        <is>
-          <t>Site details</t>
-        </is>
-      </c>
-      <c r="B90" s="2" t="inlineStr">
-        <is>
-          <t>site-details</t>
-        </is>
-      </c>
+      <c r="A90" s="2" t="n"/>
+      <c r="B90" s="2" t="n"/>
       <c r="C90" s="2" t="inlineStr">
         <is>
           <t>Where the proposed development will be built.</t>
@@ -4919,12 +4903,12 @@
       </c>
       <c r="F90" s="2" t="inlineStr">
         <is>
-          <t>site-boundary</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="G90" s="2" t="inlineStr">
         <is>
-          <t>Site boundary</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="H90" s="2" t="inlineStr"/>
@@ -4933,12 +4917,12 @@
       <c r="K90" s="2" t="inlineStr"/>
       <c r="L90" s="2" t="inlineStr">
         <is>
-          <t>Geometry of the site of the development, typically in GeoJSON format</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M90" s="2" t="inlineStr">
         <is>
-          <t>wkt</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N90" s="2" t="inlineStr">
@@ -4967,12 +4951,12 @@
       </c>
       <c r="F91" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="G91" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="H91" s="2" t="inlineStr"/>
@@ -4981,7 +4965,7 @@
       <c r="K91" s="2" t="inlineStr"/>
       <c r="L91" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M91" s="2" t="inlineStr">
@@ -5015,12 +4999,12 @@
       </c>
       <c r="F92" s="2" t="inlineStr">
         <is>
-          <t>postcode</t>
+          <t>easting</t>
         </is>
       </c>
       <c r="G92" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Easting</t>
         </is>
       </c>
       <c r="H92" s="2" t="inlineStr"/>
@@ -5029,12 +5013,12 @@
       <c r="K92" s="2" t="inlineStr"/>
       <c r="L92" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="M92" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N92" s="2" t="inlineStr">
@@ -5063,12 +5047,12 @@
       </c>
       <c r="F93" s="2" t="inlineStr">
         <is>
-          <t>easting</t>
+          <t>northing</t>
         </is>
       </c>
       <c r="G93" s="2" t="inlineStr">
         <is>
-          <t>Easting</t>
+          <t>Northing</t>
         </is>
       </c>
       <c r="H93" s="2" t="inlineStr"/>
@@ -5077,7 +5061,7 @@
       <c r="K93" s="2" t="inlineStr"/>
       <c r="L93" s="2" t="inlineStr">
         <is>
-          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
+          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="M93" s="2" t="inlineStr">
@@ -5111,12 +5095,12 @@
       </c>
       <c r="F94" s="2" t="inlineStr">
         <is>
-          <t>northing</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G94" s="2" t="inlineStr">
         <is>
-          <t>Northing</t>
+          <t>Latitude</t>
         </is>
       </c>
       <c r="H94" s="2" t="inlineStr"/>
@@ -5125,7 +5109,7 @@
       <c r="K94" s="2" t="inlineStr"/>
       <c r="L94" s="2" t="inlineStr">
         <is>
-          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
+          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="M94" s="2" t="inlineStr">
@@ -5159,12 +5143,12 @@
       </c>
       <c r="F95" s="2" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="G95" s="2" t="inlineStr">
         <is>
-          <t>Latitude</t>
+          <t>Longitude</t>
         </is>
       </c>
       <c r="H95" s="2" t="inlineStr"/>
@@ -5173,7 +5157,7 @@
       <c r="K95" s="2" t="inlineStr"/>
       <c r="L95" s="2" t="inlineStr">
         <is>
-          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="M95" s="2" t="inlineStr">
@@ -5207,12 +5191,12 @@
       </c>
       <c r="F96" s="2" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>description</t>
         </is>
       </c>
       <c r="G96" s="2" t="inlineStr">
         <is>
-          <t>Longitude</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="H96" s="2" t="inlineStr"/>
@@ -5221,12 +5205,12 @@
       <c r="K96" s="2" t="inlineStr"/>
       <c r="L96" s="2" t="inlineStr">
         <is>
-          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
         </is>
       </c>
       <c r="M96" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N96" s="2" t="inlineStr">
@@ -5255,12 +5239,12 @@
       </c>
       <c r="F97" s="2" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>uprns</t>
         </is>
       </c>
       <c r="G97" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>UPRNs[]</t>
         </is>
       </c>
       <c r="H97" s="2" t="inlineStr"/>
@@ -5269,7 +5253,7 @@
       <c r="K97" s="2" t="inlineStr"/>
       <c r="L97" s="2" t="inlineStr">
         <is>
-          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
+          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
         </is>
       </c>
       <c r="M97" s="2" t="inlineStr">
@@ -5284,64 +5268,56 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="2" t="n"/>
-      <c r="B98" s="2" t="n"/>
+      <c r="A98" s="2" t="inlineStr">
+        <is>
+          <t>Site Visit Details</t>
+        </is>
+      </c>
+      <c r="B98" s="2" t="inlineStr">
+        <is>
+          <t>site-visit</t>
+        </is>
+      </c>
       <c r="C98" s="2" t="inlineStr">
         <is>
-          <t>Where the proposed development will be built.</t>
+          <t>Information to help the planning authority arrange a site visit</t>
         </is>
       </c>
       <c r="D98" s="2" t="inlineStr">
         <is>
-          <t>site-locations</t>
+          <t>can-be-seen-from</t>
         </is>
       </c>
       <c r="E98" s="2" t="inlineStr">
         <is>
-          <t>Site locations[]</t>
-        </is>
-      </c>
-      <c r="F98" s="2" t="inlineStr">
-        <is>
-          <t>uprns</t>
-        </is>
-      </c>
-      <c r="G98" s="2" t="inlineStr">
-        <is>
-          <t>UPRNs[]</t>
-        </is>
-      </c>
+          <t>Site seen from public area</t>
+        </is>
+      </c>
+      <c r="F98" s="2" t="inlineStr"/>
+      <c r="G98" s="2" t="inlineStr"/>
       <c r="H98" s="2" t="inlineStr"/>
       <c r="I98" s="2" t="inlineStr"/>
       <c r="J98" s="2" t="inlineStr"/>
       <c r="K98" s="2" t="inlineStr"/>
       <c r="L98" s="2" t="inlineStr">
         <is>
-          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
+          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
         </is>
       </c>
       <c r="M98" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N98" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="2" t="inlineStr">
-        <is>
-          <t>Site Visit Details</t>
-        </is>
-      </c>
-      <c r="B99" s="2" t="inlineStr">
-        <is>
-          <t>site-visit</t>
-        </is>
-      </c>
+      <c r="A99" s="2" t="n"/>
+      <c r="B99" s="2" t="n"/>
       <c r="C99" s="2" t="inlineStr">
         <is>
           <t>Information to help the planning authority arrange a site visit</t>
@@ -5349,12 +5325,12 @@
       </c>
       <c r="D99" s="2" t="inlineStr">
         <is>
-          <t>can-be-seen-from</t>
+          <t>contact-type</t>
         </is>
       </c>
       <c r="E99" s="2" t="inlineStr">
         <is>
-          <t>Site seen from public area</t>
+          <t>Site visit contact type</t>
         </is>
       </c>
       <c r="F99" s="2" t="inlineStr"/>
@@ -5365,12 +5341,12 @@
       <c r="K99" s="2" t="inlineStr"/>
       <c r="L99" s="2" t="inlineStr">
         <is>
-          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
+          <t>Indicates who the authority should contact to arrange a site visit</t>
         </is>
       </c>
       <c r="M99" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N99" s="2" t="inlineStr">
@@ -5389,12 +5365,12 @@
       </c>
       <c r="D100" s="2" t="inlineStr">
         <is>
-          <t>contact-type</t>
+          <t>contact-reference</t>
         </is>
       </c>
       <c r="E100" s="2" t="inlineStr">
         <is>
-          <t>Site visit contact type</t>
+          <t>Contact reference</t>
         </is>
       </c>
       <c r="F100" s="2" t="inlineStr"/>
@@ -5405,17 +5381,17 @@
       <c r="K100" s="2" t="inlineStr"/>
       <c r="L100" s="2" t="inlineStr">
         <is>
-          <t>Indicates who the authority should contact to arrange a site visit</t>
+          <t>The reference of the applicant or agent who should be contacted for site visits</t>
         </is>
       </c>
       <c r="M100" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N100" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5429,23 +5405,31 @@
       </c>
       <c r="D101" s="2" t="inlineStr">
         <is>
-          <t>contact-reference</t>
+          <t>other-contact</t>
         </is>
       </c>
       <c r="E101" s="2" t="inlineStr">
         <is>
-          <t>Contact reference</t>
-        </is>
-      </c>
-      <c r="F101" s="2" t="inlineStr"/>
-      <c r="G101" s="2" t="inlineStr"/>
+          <t>Other site visit contact</t>
+        </is>
+      </c>
+      <c r="F101" s="2" t="inlineStr">
+        <is>
+          <t>fullname</t>
+        </is>
+      </c>
+      <c r="G101" s="2" t="inlineStr">
+        <is>
+          <t>Full name</t>
+        </is>
+      </c>
       <c r="H101" s="2" t="inlineStr"/>
       <c r="I101" s="2" t="inlineStr"/>
       <c r="J101" s="2" t="inlineStr"/>
       <c r="K101" s="2" t="inlineStr"/>
       <c r="L101" s="2" t="inlineStr">
         <is>
-          <t>The reference of the applicant or agent who should be contacted for site visits</t>
+          <t>The complete name of a person</t>
         </is>
       </c>
       <c r="M101" s="2" t="inlineStr">
@@ -5455,7 +5439,7 @@
       </c>
       <c r="N101" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5479,12 +5463,12 @@
       </c>
       <c r="F102" s="2" t="inlineStr">
         <is>
-          <t>fullname</t>
+          <t>number</t>
         </is>
       </c>
       <c r="G102" s="2" t="inlineStr">
         <is>
-          <t>Full name</t>
+          <t>Phone number</t>
         </is>
       </c>
       <c r="H102" s="2" t="inlineStr"/>
@@ -5493,7 +5477,7 @@
       <c r="K102" s="2" t="inlineStr"/>
       <c r="L102" s="2" t="inlineStr">
         <is>
-          <t>The complete name of a person</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="M102" s="2" t="inlineStr">
@@ -5527,12 +5511,12 @@
       </c>
       <c r="F103" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>email</t>
         </is>
       </c>
       <c r="G103" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="H103" s="2" t="inlineStr"/>
@@ -5541,7 +5525,7 @@
       <c r="K103" s="2" t="inlineStr"/>
       <c r="L103" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="M103" s="2" t="inlineStr">
@@ -5556,45 +5540,45 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="2" t="n"/>
-      <c r="B104" s="2" t="n"/>
+      <c r="A104" s="2" t="inlineStr">
+        <is>
+          <t>Trees and hedges information</t>
+        </is>
+      </c>
+      <c r="B104" s="2" t="inlineStr">
+        <is>
+          <t>trees-hedges</t>
+        </is>
+      </c>
       <c r="C104" s="2" t="inlineStr">
         <is>
-          <t>Information to help the planning authority arrange a site visit</t>
+          <t>Details of trees and/or hedges that will be affected by the proposed development</t>
         </is>
       </c>
       <c r="D104" s="2" t="inlineStr">
         <is>
-          <t>other-contact</t>
+          <t>has-falling-trees-risk</t>
         </is>
       </c>
       <c r="E104" s="2" t="inlineStr">
         <is>
-          <t>Other site visit contact</t>
-        </is>
-      </c>
-      <c r="F104" s="2" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="G104" s="2" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
+          <t>Falling trees risk</t>
+        </is>
+      </c>
+      <c r="F104" s="2" t="inlineStr"/>
+      <c r="G104" s="2" t="inlineStr"/>
       <c r="H104" s="2" t="inlineStr"/>
       <c r="I104" s="2" t="inlineStr"/>
       <c r="J104" s="2" t="inlineStr"/>
       <c r="K104" s="2" t="inlineStr"/>
       <c r="L104" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>Whether there are falling trees on-premises or adjacent premises that are a risk to the development</t>
         </is>
       </c>
       <c r="M104" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N104" s="2" t="inlineStr">
@@ -5604,16 +5588,8 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="2" t="inlineStr">
-        <is>
-          <t>Trees and hedges information</t>
-        </is>
-      </c>
-      <c r="B105" s="2" t="inlineStr">
-        <is>
-          <t>trees-hedges</t>
-        </is>
-      </c>
+      <c r="A105" s="2" t="n"/>
+      <c r="B105" s="2" t="n"/>
       <c r="C105" s="2" t="inlineStr">
         <is>
           <t>Details of trees and/or hedges that will be affected by the proposed development</t>
@@ -5621,28 +5597,36 @@
       </c>
       <c r="D105" s="2" t="inlineStr">
         <is>
-          <t>has-falling-trees-risk</t>
+          <t>falling-trees-document</t>
         </is>
       </c>
       <c r="E105" s="2" t="inlineStr">
         <is>
-          <t>Falling trees risk</t>
-        </is>
-      </c>
-      <c r="F105" s="2" t="inlineStr"/>
-      <c r="G105" s="2" t="inlineStr"/>
+          <t>Falling trees document</t>
+        </is>
+      </c>
+      <c r="F105" s="2" t="inlineStr">
+        <is>
+          <t>reference</t>
+        </is>
+      </c>
+      <c r="G105" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="H105" s="2" t="inlineStr"/>
       <c r="I105" s="2" t="inlineStr"/>
       <c r="J105" s="2" t="inlineStr"/>
       <c r="K105" s="2" t="inlineStr"/>
       <c r="L105" s="2" t="inlineStr">
         <is>
-          <t>Whether there are falling trees on-premises or adjacent premises that are a risk to the development</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M105" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N105" s="2" t="inlineStr">
@@ -5671,12 +5655,12 @@
       </c>
       <c r="F106" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>name</t>
         </is>
       </c>
       <c r="G106" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="H106" s="2" t="inlineStr"/>
@@ -5685,7 +5669,7 @@
       <c r="K106" s="2" t="inlineStr"/>
       <c r="L106" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>A name for the document. For example, The Site Plan</t>
         </is>
       </c>
       <c r="M106" s="2" t="inlineStr">
@@ -5709,36 +5693,28 @@
       </c>
       <c r="D107" s="2" t="inlineStr">
         <is>
-          <t>falling-trees-document</t>
+          <t>tree-removal</t>
         </is>
       </c>
       <c r="E107" s="2" t="inlineStr">
         <is>
-          <t>Falling trees document</t>
-        </is>
-      </c>
-      <c r="F107" s="2" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="G107" s="2" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
+          <t>Tree removal</t>
+        </is>
+      </c>
+      <c r="F107" s="2" t="inlineStr"/>
+      <c r="G107" s="2" t="inlineStr"/>
       <c r="H107" s="2" t="inlineStr"/>
       <c r="I107" s="2" t="inlineStr"/>
       <c r="J107" s="2" t="inlineStr"/>
       <c r="K107" s="2" t="inlineStr"/>
       <c r="L107" s="2" t="inlineStr">
         <is>
-          <t>A name for the document. For example, The Site Plan</t>
+          <t>Whether trees or hedges need to be pruned or removed</t>
         </is>
       </c>
       <c r="M107" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N107" s="2" t="inlineStr">
@@ -5757,28 +5733,36 @@
       </c>
       <c r="D108" s="2" t="inlineStr">
         <is>
-          <t>tree-removal</t>
+          <t>tree-removal-plan</t>
         </is>
       </c>
       <c r="E108" s="2" t="inlineStr">
         <is>
-          <t>Tree removal</t>
-        </is>
-      </c>
-      <c r="F108" s="2" t="inlineStr"/>
-      <c r="G108" s="2" t="inlineStr"/>
+          <t>Tree removal plan</t>
+        </is>
+      </c>
+      <c r="F108" s="2" t="inlineStr">
+        <is>
+          <t>reference</t>
+        </is>
+      </c>
+      <c r="G108" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="H108" s="2" t="inlineStr"/>
       <c r="I108" s="2" t="inlineStr"/>
       <c r="J108" s="2" t="inlineStr"/>
       <c r="K108" s="2" t="inlineStr"/>
       <c r="L108" s="2" t="inlineStr">
         <is>
-          <t>Whether trees or hedges need to be pruned or removed</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M108" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N108" s="2" t="inlineStr">
@@ -5807,12 +5791,12 @@
       </c>
       <c r="F109" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>name</t>
         </is>
       </c>
       <c r="G109" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="H109" s="2" t="inlineStr"/>
@@ -5821,7 +5805,7 @@
       <c r="K109" s="2" t="inlineStr"/>
       <c r="L109" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>A name for the document. For example, The Site Plan</t>
         </is>
       </c>
       <c r="M109" s="2" t="inlineStr">
@@ -5830,54 +5814,6 @@
         </is>
       </c>
       <c r="N109" s="2" t="inlineStr">
-        <is>
-          <t>MUST</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="2" t="n"/>
-      <c r="B110" s="2" t="n"/>
-      <c r="C110" s="2" t="inlineStr">
-        <is>
-          <t>Details of trees and/or hedges that will be affected by the proposed development</t>
-        </is>
-      </c>
-      <c r="D110" s="2" t="inlineStr">
-        <is>
-          <t>tree-removal-plan</t>
-        </is>
-      </c>
-      <c r="E110" s="2" t="inlineStr">
-        <is>
-          <t>Tree removal plan</t>
-        </is>
-      </c>
-      <c r="F110" s="2" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="G110" s="2" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="H110" s="2" t="inlineStr"/>
-      <c r="I110" s="2" t="inlineStr"/>
-      <c r="J110" s="2" t="inlineStr"/>
-      <c r="K110" s="2" t="inlineStr"/>
-      <c r="L110" s="2" t="inlineStr">
-        <is>
-          <t>A name for the document. For example, The Site Plan</t>
-        </is>
-      </c>
-      <c r="M110" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="N110" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -5885,42 +5821,42 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B55:B62"/>
-    <mergeCell ref="B63:B77"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="A20:A24"/>
-    <mergeCell ref="A2:A19"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A85:A89"/>
-    <mergeCell ref="A41:A46"/>
-    <mergeCell ref="B105:B110"/>
-    <mergeCell ref="A48"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="B62:B76"/>
+    <mergeCell ref="B84:B88"/>
+    <mergeCell ref="A98:A103"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="A89:A97"/>
+    <mergeCell ref="B2:B18"/>
+    <mergeCell ref="B51:B53"/>
     <mergeCell ref="B47"/>
-    <mergeCell ref="A105:A110"/>
-    <mergeCell ref="A99:A104"/>
-    <mergeCell ref="B80:B84"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="A55:A62"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="B85:B89"/>
-    <mergeCell ref="B48"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="B29:B36"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="B99:B104"/>
-    <mergeCell ref="A63:A77"/>
-    <mergeCell ref="B90:B98"/>
-    <mergeCell ref="A29:A36"/>
-    <mergeCell ref="B2:B19"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="A80:A84"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A54:A61"/>
+    <mergeCell ref="B46"/>
+    <mergeCell ref="B98:B103"/>
+    <mergeCell ref="B79:B83"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A79:A83"/>
+    <mergeCell ref="B89:B97"/>
+    <mergeCell ref="A2:A18"/>
+    <mergeCell ref="A104:A109"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="B28:B35"/>
+    <mergeCell ref="A46"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="A62:A76"/>
+    <mergeCell ref="A84:A88"/>
+    <mergeCell ref="B40:B45"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B104:B109"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A28:A35"/>
     <mergeCell ref="A47"/>
-    <mergeCell ref="B41:B46"/>
-    <mergeCell ref="A90:A98"/>
+    <mergeCell ref="B54:B61"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/generated/spreadsheet/verbose/householder-planning-application-hh-verbose.xlsx
+++ b/generated/spreadsheet/verbose/householder-planning-application-hh-verbose.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N109"/>
+  <dimension ref="A1:N106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1073,37 +1073,29 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>file</t>
+          <t>uploaded-date</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>base64-content</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>Base64</t>
-        </is>
-      </c>
+          <t>Uploaded date</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr"/>
+      <c r="K12" s="2" t="inlineStr"/>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>Base64-encoded content of the file for inline file uploads</t>
+          <t>The date the document was uploaded to the application</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1147,17 +1139,17 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>filename</t>
+          <t>base64-content</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>Filename</t>
+          <t>Base64</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>Name of the file being uploaded</t>
+          <t>Base64-encoded content of the file for inline file uploads</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -1167,7 +1159,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1211,17 +1203,17 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>mime-type</t>
+          <t>filename</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>MIME type</t>
+          <t>Filename</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>The file's MIME type such as application/pdf or image/jpeg</t>
+          <t>Name of the file being uploaded</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
@@ -1231,7 +1223,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1275,22 +1267,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>file-size</t>
+          <t>mime-type</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>File size</t>
+          <t>MIME type</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>Size of the file in bytes that can be used to enforce limits</t>
+          <t>The file's MIME type such as application/pdf or image/jpeg</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1319,29 +1311,37 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>fee</t>
+          <t>documents</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>Fee</t>
+          <t>Documents[]</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>amount</t>
+          <t>file</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>Amount</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr"/>
-      <c r="K16" s="2" t="inlineStr"/>
+          <t>File</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>file-size</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>File size</t>
+        </is>
+      </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>The total amount due for the application fee</t>
+          <t>Size of the file in bytes that can be used to enforce limits</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1385,19 +1385,19 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>amount-paid</t>
+          <t>amount</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>Amount paid</t>
+          <t>Amount</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr"/>
       <c r="K17" s="2" t="inlineStr"/>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>The amount paid towards the application fee</t>
+          <t>The total amount due for the application fee</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
@@ -1441,83 +1441,99 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>transactions</t>
+          <t>amount-paid</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>Transactions[]</t>
+          <t>Amount paid</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr"/>
       <c r="K18" s="2" t="inlineStr"/>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>References to payments or financial transactions related to this application</t>
+          <t>The amount paid towards the application fee</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="inlineStr">
-        <is>
-          <t>Access and rights of way</t>
-        </is>
-      </c>
-      <c r="B19" s="2" t="inlineStr">
-        <is>
-          <t>access-rights-of-way</t>
-        </is>
-      </c>
+      <c r="A19" s="2" t="n"/>
+      <c r="B19" s="2" t="n"/>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>Details of any changes the proposed development would make to existing access arrangements or public rights of way</t>
+          <t>The details of the application payload to be submitted</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>new-altered-vehicle</t>
+          <t>application</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>New or altered vehicle access</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr"/>
-      <c r="G19" s="2" t="inlineStr"/>
-      <c r="H19" s="2" t="inlineStr"/>
-      <c r="I19" s="2" t="inlineStr"/>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>fee</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>Fee</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>transactions</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>Transactions[]</t>
+        </is>
+      </c>
       <c r="J19" s="2" t="inlineStr"/>
       <c r="K19" s="2" t="inlineStr"/>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>Is a new or altered vehicle access proposed to/from the public highway</t>
+          <t>References to payments or financial transactions related to this application</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n"/>
-      <c r="B20" s="2" t="n"/>
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>Access and rights of way</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>access-rights-of-way</t>
+        </is>
+      </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
           <t>Details of any changes the proposed development would make to existing access arrangements or public rights of way</t>
@@ -1525,12 +1541,12 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>new-altered-pedestrian</t>
+          <t>new-altered-vehicle</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>New or altered pedestrian access</t>
+          <t>New or altered vehicle access</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr"/>
@@ -1541,7 +1557,7 @@
       <c r="K20" s="2" t="inlineStr"/>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>Is a new or altered pedestrian access proposed to/from the public highway</t>
+          <t>Is a new or altered vehicle access proposed to/from the public highway</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
@@ -1565,12 +1581,12 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>change-right-of-way</t>
+          <t>new-altered-pedestrian</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>Change to right of way</t>
+          <t>New or altered pedestrian access</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr"/>
@@ -1581,7 +1597,7 @@
       <c r="K21" s="2" t="inlineStr"/>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>Will the proposal change public rights of way (diversion/extinguishment/creation)</t>
+          <t>Is a new or altered pedestrian access proposed to/from the public highway</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
@@ -1605,36 +1621,28 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>supporting-documents</t>
+          <t>change-right-of-way</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>Supporting documents[]</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>reference</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
+          <t>Change to right of way</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr"/>
+      <c r="G22" s="2" t="inlineStr"/>
       <c r="H22" s="2" t="inlineStr"/>
       <c r="I22" s="2" t="inlineStr"/>
       <c r="J22" s="2" t="inlineStr"/>
       <c r="K22" s="2" t="inlineStr"/>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>Will the proposal change public rights of way (diversion/extinguishment/creation)</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -1663,12 +1671,12 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr"/>
@@ -1677,7 +1685,7 @@
       <c r="K23" s="2" t="inlineStr"/>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>A name for the document. For example, The Site Plan</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
@@ -3564,45 +3572,45 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="n"/>
-      <c r="B61" s="2" t="n"/>
+      <c r="A61" s="2" t="inlineStr">
+        <is>
+          <t>Ownership certificates and agricultural land declaration</t>
+        </is>
+      </c>
+      <c r="B61" s="2" t="inlineStr">
+        <is>
+          <t>ownership-certs</t>
+        </is>
+      </c>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>What materials are being used for the proposed development</t>
+          <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
         </is>
       </c>
       <c r="D61" s="2" t="inlineStr">
         <is>
-          <t>supporting-documents</t>
+          <t>sole-owner</t>
         </is>
       </c>
       <c r="E61" s="2" t="inlineStr">
         <is>
-          <t>Supporting documents[]</t>
-        </is>
-      </c>
-      <c r="F61" s="2" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="G61" s="2" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
+          <t>Sole owner</t>
+        </is>
+      </c>
+      <c r="F61" s="2" t="inlineStr"/>
+      <c r="G61" s="2" t="inlineStr"/>
       <c r="H61" s="2" t="inlineStr"/>
       <c r="I61" s="2" t="inlineStr"/>
       <c r="J61" s="2" t="inlineStr"/>
       <c r="K61" s="2" t="inlineStr"/>
       <c r="L61" s="2" t="inlineStr">
         <is>
-          <t>A name for the document. For example, The Site Plan</t>
+          <t>Is the applicant the sole owner of the land?</t>
         </is>
       </c>
       <c r="M61" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N61" s="2" t="inlineStr">
@@ -3612,16 +3620,8 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="2" t="inlineStr">
-        <is>
-          <t>Ownership certificates and agricultural land declaration</t>
-        </is>
-      </c>
-      <c r="B62" s="2" t="inlineStr">
-        <is>
-          <t>ownership-certs</t>
-        </is>
-      </c>
+      <c r="A62" s="2" t="n"/>
+      <c r="B62" s="2" t="n"/>
       <c r="C62" s="2" t="inlineStr">
         <is>
           <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
@@ -3629,12 +3629,12 @@
       </c>
       <c r="D62" s="2" t="inlineStr">
         <is>
-          <t>sole-owner</t>
+          <t>agricultural-tenants</t>
         </is>
       </c>
       <c r="E62" s="2" t="inlineStr">
         <is>
-          <t>Sole owner</t>
+          <t>Agricultural tenants</t>
         </is>
       </c>
       <c r="F62" s="2" t="inlineStr"/>
@@ -3645,7 +3645,7 @@
       <c r="K62" s="2" t="inlineStr"/>
       <c r="L62" s="2" t="inlineStr">
         <is>
-          <t>Is the applicant the sole owner of the land?</t>
+          <t>Are there any agricultural tenants on the land?</t>
         </is>
       </c>
       <c r="M62" s="2" t="inlineStr">
@@ -3669,33 +3669,49 @@
       </c>
       <c r="D63" s="2" t="inlineStr">
         <is>
-          <t>agricultural-tenants</t>
+          <t>owners-and-tenants</t>
         </is>
       </c>
       <c r="E63" s="2" t="inlineStr">
         <is>
-          <t>Agricultural tenants</t>
-        </is>
-      </c>
-      <c r="F63" s="2" t="inlineStr"/>
-      <c r="G63" s="2" t="inlineStr"/>
-      <c r="H63" s="2" t="inlineStr"/>
-      <c r="I63" s="2" t="inlineStr"/>
+          <t>Owners and tenants[]</t>
+        </is>
+      </c>
+      <c r="F63" s="2" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="G63" s="2" t="inlineStr">
+        <is>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="H63" s="2" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="I63" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="J63" s="2" t="inlineStr"/>
       <c r="K63" s="2" t="inlineStr"/>
       <c r="L63" s="2" t="inlineStr">
         <is>
-          <t>Are there any agricultural tenants on the land?</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="M63" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N63" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3729,19 +3745,19 @@
       </c>
       <c r="H64" s="2" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>first-name</t>
         </is>
       </c>
       <c r="I64" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="J64" s="2" t="inlineStr"/>
       <c r="K64" s="2" t="inlineStr"/>
       <c r="L64" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="M64" s="2" t="inlineStr">
@@ -3751,7 +3767,7 @@
       </c>
       <c r="N64" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3785,19 +3801,19 @@
       </c>
       <c r="H65" s="2" t="inlineStr">
         <is>
-          <t>first-name</t>
+          <t>last-name</t>
         </is>
       </c>
       <c r="I65" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="J65" s="2" t="inlineStr"/>
       <c r="K65" s="2" t="inlineStr"/>
       <c r="L65" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="M65" s="2" t="inlineStr">
@@ -3841,19 +3857,19 @@
       </c>
       <c r="H66" s="2" t="inlineStr">
         <is>
-          <t>last-name</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="I66" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="J66" s="2" t="inlineStr"/>
       <c r="K66" s="2" t="inlineStr"/>
       <c r="L66" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M66" s="2" t="inlineStr">
@@ -3897,19 +3913,19 @@
       </c>
       <c r="H67" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="I67" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="J67" s="2" t="inlineStr"/>
       <c r="K67" s="2" t="inlineStr"/>
       <c r="L67" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M67" s="2" t="inlineStr">
@@ -3919,7 +3935,7 @@
       </c>
       <c r="N67" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3943,34 +3959,26 @@
       </c>
       <c r="F68" s="2" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>notice-date</t>
         </is>
       </c>
       <c r="G68" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H68" s="2" t="inlineStr">
-        <is>
-          <t>postcode</t>
-        </is>
-      </c>
-      <c r="I68" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Notice date</t>
+        </is>
+      </c>
+      <c r="H68" s="2" t="inlineStr"/>
+      <c r="I68" s="2" t="inlineStr"/>
       <c r="J68" s="2" t="inlineStr"/>
       <c r="K68" s="2" t="inlineStr"/>
       <c r="L68" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Date when notice was served</t>
         </is>
       </c>
       <c r="M68" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N68" s="2" t="inlineStr">
@@ -3989,36 +3997,28 @@
       </c>
       <c r="D69" s="2" t="inlineStr">
         <is>
-          <t>owners-and-tenants</t>
+          <t>steps-taken</t>
         </is>
       </c>
       <c r="E69" s="2" t="inlineStr">
         <is>
-          <t>Owners and tenants[]</t>
-        </is>
-      </c>
-      <c r="F69" s="2" t="inlineStr">
-        <is>
-          <t>notice-date</t>
-        </is>
-      </c>
-      <c r="G69" s="2" t="inlineStr">
-        <is>
-          <t>Notice date</t>
-        </is>
-      </c>
+          <t>Steps taken</t>
+        </is>
+      </c>
+      <c r="F69" s="2" t="inlineStr"/>
+      <c r="G69" s="2" t="inlineStr"/>
       <c r="H69" s="2" t="inlineStr"/>
       <c r="I69" s="2" t="inlineStr"/>
       <c r="J69" s="2" t="inlineStr"/>
       <c r="K69" s="2" t="inlineStr"/>
       <c r="L69" s="2" t="inlineStr">
         <is>
-          <t>Date when notice was served</t>
+          <t>Description of steps taken to identify unknown owners or tenants</t>
         </is>
       </c>
       <c r="M69" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N69" s="2" t="inlineStr">
@@ -4037,23 +4037,31 @@
       </c>
       <c r="D70" s="2" t="inlineStr">
         <is>
-          <t>steps-taken</t>
+          <t>newspaper-notices</t>
         </is>
       </c>
       <c r="E70" s="2" t="inlineStr">
         <is>
-          <t>Steps taken</t>
-        </is>
-      </c>
-      <c r="F70" s="2" t="inlineStr"/>
-      <c r="G70" s="2" t="inlineStr"/>
+          <t>Newspaper notices[]</t>
+        </is>
+      </c>
+      <c r="F70" s="2" t="inlineStr">
+        <is>
+          <t>newspaper-name</t>
+        </is>
+      </c>
+      <c r="G70" s="2" t="inlineStr">
+        <is>
+          <t>Newspaper name</t>
+        </is>
+      </c>
       <c r="H70" s="2" t="inlineStr"/>
       <c r="I70" s="2" t="inlineStr"/>
       <c r="J70" s="2" t="inlineStr"/>
       <c r="K70" s="2" t="inlineStr"/>
       <c r="L70" s="2" t="inlineStr">
         <is>
-          <t>Description of steps taken to identify unknown owners or tenants</t>
+          <t>Name of the newspaper where notice was published</t>
         </is>
       </c>
       <c r="M70" s="2" t="inlineStr">
@@ -4063,7 +4071,7 @@
       </c>
       <c r="N70" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4087,12 +4095,12 @@
       </c>
       <c r="F71" s="2" t="inlineStr">
         <is>
-          <t>newspaper-name</t>
+          <t>publication-date</t>
         </is>
       </c>
       <c r="G71" s="2" t="inlineStr">
         <is>
-          <t>Newspaper name</t>
+          <t>Publication date</t>
         </is>
       </c>
       <c r="H71" s="2" t="inlineStr"/>
@@ -4101,12 +4109,12 @@
       <c r="K71" s="2" t="inlineStr"/>
       <c r="L71" s="2" t="inlineStr">
         <is>
-          <t>Name of the newspaper where notice was published</t>
+          <t>Date when the notice was published</t>
         </is>
       </c>
       <c r="M71" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N71" s="2" t="inlineStr">
@@ -4125,41 +4133,33 @@
       </c>
       <c r="D72" s="2" t="inlineStr">
         <is>
-          <t>newspaper-notices</t>
+          <t>ownership-cert-option</t>
         </is>
       </c>
       <c r="E72" s="2" t="inlineStr">
         <is>
-          <t>Newspaper notices[]</t>
-        </is>
-      </c>
-      <c r="F72" s="2" t="inlineStr">
-        <is>
-          <t>publication-date</t>
-        </is>
-      </c>
-      <c r="G72" s="2" t="inlineStr">
-        <is>
-          <t>Publication date</t>
-        </is>
-      </c>
+          <t>Ownership certificate type</t>
+        </is>
+      </c>
+      <c r="F72" s="2" t="inlineStr"/>
+      <c r="G72" s="2" t="inlineStr"/>
       <c r="H72" s="2" t="inlineStr"/>
       <c r="I72" s="2" t="inlineStr"/>
       <c r="J72" s="2" t="inlineStr"/>
       <c r="K72" s="2" t="inlineStr"/>
       <c r="L72" s="2" t="inlineStr">
         <is>
-          <t>Date when the notice was published</t>
+          <t>The type of ownership certificate based on ownership and tenancy status</t>
         </is>
       </c>
       <c r="M72" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N72" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4173,12 +4173,12 @@
       </c>
       <c r="D73" s="2" t="inlineStr">
         <is>
-          <t>ownership-cert-option</t>
+          <t>applicant-signature</t>
         </is>
       </c>
       <c r="E73" s="2" t="inlineStr">
         <is>
-          <t>Ownership certificate type</t>
+          <t>Applicant signature</t>
         </is>
       </c>
       <c r="F73" s="2" t="inlineStr"/>
@@ -4189,12 +4189,12 @@
       <c r="K73" s="2" t="inlineStr"/>
       <c r="L73" s="2" t="inlineStr">
         <is>
-          <t>The type of ownership certificate based on ownership and tenancy status</t>
+          <t>Digital signature of the applicant</t>
         </is>
       </c>
       <c r="M73" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N73" s="2" t="inlineStr">
@@ -4213,12 +4213,12 @@
       </c>
       <c r="D74" s="2" t="inlineStr">
         <is>
-          <t>applicant-signature</t>
+          <t>agent-signature</t>
         </is>
       </c>
       <c r="E74" s="2" t="inlineStr">
         <is>
-          <t>Applicant signature</t>
+          <t>Agent signature</t>
         </is>
       </c>
       <c r="F74" s="2" t="inlineStr"/>
@@ -4229,7 +4229,7 @@
       <c r="K74" s="2" t="inlineStr"/>
       <c r="L74" s="2" t="inlineStr">
         <is>
-          <t>Digital signature of the applicant</t>
+          <t>Digital signature of the agent (if applicable)</t>
         </is>
       </c>
       <c r="M74" s="2" t="inlineStr">
@@ -4253,12 +4253,12 @@
       </c>
       <c r="D75" s="2" t="inlineStr">
         <is>
-          <t>agent-signature</t>
+          <t>signature-date</t>
         </is>
       </c>
       <c r="E75" s="2" t="inlineStr">
         <is>
-          <t>Agent signature</t>
+          <t>Signature date</t>
         </is>
       </c>
       <c r="F75" s="2" t="inlineStr"/>
@@ -4269,12 +4269,12 @@
       <c r="K75" s="2" t="inlineStr"/>
       <c r="L75" s="2" t="inlineStr">
         <is>
-          <t>Digital signature of the agent (if applicable)</t>
+          <t>Date when the ownership certificate was signed</t>
         </is>
       </c>
       <c r="M75" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N75" s="2" t="inlineStr">
@@ -4284,21 +4284,29 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="2" t="n"/>
-      <c r="B76" s="2" t="n"/>
+      <c r="A76" s="2" t="inlineStr">
+        <is>
+          <t>Parking arrangements</t>
+        </is>
+      </c>
+      <c r="B76" s="2" t="inlineStr">
+        <is>
+          <t>parking</t>
+        </is>
+      </c>
       <c r="C76" s="2" t="inlineStr">
         <is>
-          <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
+          <t>Details of any changes the proposed development would make to parking facilities.</t>
         </is>
       </c>
       <c r="D76" s="2" t="inlineStr">
         <is>
-          <t>signature-date</t>
+          <t>is-existing-parking-affected</t>
         </is>
       </c>
       <c r="E76" s="2" t="inlineStr">
         <is>
-          <t>Signature date</t>
+          <t>Existing parking affected</t>
         </is>
       </c>
       <c r="F76" s="2" t="inlineStr"/>
@@ -4309,31 +4317,23 @@
       <c r="K76" s="2" t="inlineStr"/>
       <c r="L76" s="2" t="inlineStr">
         <is>
-          <t>Date when the ownership certificate was signed</t>
+          <t>Will the proposed works affect existing car parking arrangements</t>
         </is>
       </c>
       <c r="M76" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N76" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="2" t="inlineStr">
-        <is>
-          <t>Parking arrangements</t>
-        </is>
-      </c>
-      <c r="B77" s="2" t="inlineStr">
-        <is>
-          <t>parking</t>
-        </is>
-      </c>
+      <c r="A77" s="2" t="n"/>
+      <c r="B77" s="2" t="n"/>
       <c r="C77" s="2" t="inlineStr">
         <is>
           <t>Details of any changes the proposed development would make to parking facilities.</t>
@@ -4341,12 +4341,12 @@
       </c>
       <c r="D77" s="2" t="inlineStr">
         <is>
-          <t>is-existing-parking-affected</t>
+          <t>description</t>
         </is>
       </c>
       <c r="E77" s="2" t="inlineStr">
         <is>
-          <t>Existing parking affected</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F77" s="2" t="inlineStr"/>
@@ -4357,36 +4357,44 @@
       <c r="K77" s="2" t="inlineStr"/>
       <c r="L77" s="2" t="inlineStr">
         <is>
-          <t>Will the proposed works affect existing car parking arrangements</t>
+          <t>A description of how the proposed works will affect existing car parking arrangements</t>
         </is>
       </c>
       <c r="M77" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N77" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="2" t="n"/>
-      <c r="B78" s="2" t="n"/>
+      <c r="A78" s="2" t="inlineStr">
+        <is>
+          <t>Pre-application advice</t>
+        </is>
+      </c>
+      <c r="B78" s="2" t="inlineStr">
+        <is>
+          <t>pre-app-advice</t>
+        </is>
+      </c>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>Details of any changes the proposed development would make to parking facilities.</t>
+          <t>Details of pre-application advice previously received from the planning authority</t>
         </is>
       </c>
       <c r="D78" s="2" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>advice-sought</t>
         </is>
       </c>
       <c r="E78" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Pre-application advice sought</t>
         </is>
       </c>
       <c r="F78" s="2" t="inlineStr"/>
@@ -4397,31 +4405,23 @@
       <c r="K78" s="2" t="inlineStr"/>
       <c r="L78" s="2" t="inlineStr">
         <is>
-          <t>A description of how the proposed works will affect existing car parking arrangements</t>
+          <t>Whether pre-application advice has been sought from the planning authority</t>
         </is>
       </c>
       <c r="M78" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N78" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="2" t="inlineStr">
-        <is>
-          <t>Pre-application advice</t>
-        </is>
-      </c>
-      <c r="B79" s="2" t="inlineStr">
-        <is>
-          <t>pre-app-advice</t>
-        </is>
-      </c>
+      <c r="A79" s="2" t="n"/>
+      <c r="B79" s="2" t="n"/>
       <c r="C79" s="2" t="inlineStr">
         <is>
           <t>Details of pre-application advice previously received from the planning authority</t>
@@ -4429,12 +4429,12 @@
       </c>
       <c r="D79" s="2" t="inlineStr">
         <is>
-          <t>advice-sought</t>
+          <t>officer-name</t>
         </is>
       </c>
       <c r="E79" s="2" t="inlineStr">
         <is>
-          <t>Pre-application advice sought</t>
+          <t>Officer name</t>
         </is>
       </c>
       <c r="F79" s="2" t="inlineStr"/>
@@ -4445,17 +4445,17 @@
       <c r="K79" s="2" t="inlineStr"/>
       <c r="L79" s="2" t="inlineStr">
         <is>
-          <t>Whether pre-application advice has been sought from the planning authority</t>
+          <t>Name of the planning officer who provided the pre-application advice</t>
         </is>
       </c>
       <c r="M79" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N79" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4469,12 +4469,12 @@
       </c>
       <c r="D80" s="2" t="inlineStr">
         <is>
-          <t>officer-name</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="E80" s="2" t="inlineStr">
         <is>
-          <t>Officer name</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="F80" s="2" t="inlineStr"/>
@@ -4485,7 +4485,7 @@
       <c r="K80" s="2" t="inlineStr"/>
       <c r="L80" s="2" t="inlineStr">
         <is>
-          <t>Name of the planning officer who provided the pre-application advice</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M80" s="2" t="inlineStr">
@@ -4509,12 +4509,12 @@
       </c>
       <c r="D81" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>advice-date</t>
         </is>
       </c>
       <c r="E81" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Advice date</t>
         </is>
       </c>
       <c r="F81" s="2" t="inlineStr"/>
@@ -4525,7 +4525,7 @@
       <c r="K81" s="2" t="inlineStr"/>
       <c r="L81" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="M81" s="2" t="inlineStr">
@@ -4549,12 +4549,12 @@
       </c>
       <c r="D82" s="2" t="inlineStr">
         <is>
-          <t>advice-date</t>
+          <t>advice-summary</t>
         </is>
       </c>
       <c r="E82" s="2" t="inlineStr">
         <is>
-          <t>Advice date</t>
+          <t>Advice summary</t>
         </is>
       </c>
       <c r="F82" s="2" t="inlineStr"/>
@@ -4565,7 +4565,7 @@
       <c r="K82" s="2" t="inlineStr"/>
       <c r="L82" s="2" t="inlineStr">
         <is>
-          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
+          <t>Summary of the pre-application advice received from the planning authority</t>
         </is>
       </c>
       <c r="M82" s="2" t="inlineStr">
@@ -4580,21 +4580,29 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="2" t="n"/>
-      <c r="B83" s="2" t="n"/>
+      <c r="A83" s="2" t="inlineStr">
+        <is>
+          <t>Description of the proposal</t>
+        </is>
+      </c>
+      <c r="B83" s="2" t="inlineStr">
+        <is>
+          <t>proposal-details</t>
+        </is>
+      </c>
       <c r="C83" s="2" t="inlineStr">
         <is>
-          <t>Details of pre-application advice previously received from the planning authority</t>
+          <t>What development, works or change of use is proposed</t>
         </is>
       </c>
       <c r="D83" s="2" t="inlineStr">
         <is>
-          <t>advice-summary</t>
+          <t>proposal-description</t>
         </is>
       </c>
       <c r="E83" s="2" t="inlineStr">
         <is>
-          <t>Advice summary</t>
+          <t>Proposal description</t>
         </is>
       </c>
       <c r="F83" s="2" t="inlineStr"/>
@@ -4605,7 +4613,7 @@
       <c r="K83" s="2" t="inlineStr"/>
       <c r="L83" s="2" t="inlineStr">
         <is>
-          <t>Summary of the pre-application advice received from the planning authority</t>
+          <t>A description of what is being proposed, including the development, works, or change of use</t>
         </is>
       </c>
       <c r="M83" s="2" t="inlineStr">
@@ -4615,21 +4623,13 @@
       </c>
       <c r="N83" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="2" t="inlineStr">
-        <is>
-          <t>Description of the proposal</t>
-        </is>
-      </c>
-      <c r="B84" s="2" t="inlineStr">
-        <is>
-          <t>proposal-details</t>
-        </is>
-      </c>
+      <c r="A84" s="2" t="n"/>
+      <c r="B84" s="2" t="n"/>
       <c r="C84" s="2" t="inlineStr">
         <is>
           <t>What development, works or change of use is proposed</t>
@@ -4637,12 +4637,12 @@
       </c>
       <c r="D84" s="2" t="inlineStr">
         <is>
-          <t>proposal-description</t>
+          <t>proposal-started</t>
         </is>
       </c>
       <c r="E84" s="2" t="inlineStr">
         <is>
-          <t>Proposal description</t>
+          <t>Proposal started</t>
         </is>
       </c>
       <c r="F84" s="2" t="inlineStr"/>
@@ -4653,12 +4653,12 @@
       <c r="K84" s="2" t="inlineStr"/>
       <c r="L84" s="2" t="inlineStr">
         <is>
-          <t>A description of what is being proposed, including the development, works, or change of use</t>
+          <t>Has any work on the proposal already been started</t>
         </is>
       </c>
       <c r="M84" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N84" s="2" t="inlineStr">
@@ -4677,12 +4677,12 @@
       </c>
       <c r="D85" s="2" t="inlineStr">
         <is>
-          <t>proposal-started</t>
+          <t>proposal-started-date</t>
         </is>
       </c>
       <c r="E85" s="2" t="inlineStr">
         <is>
-          <t>Proposal started</t>
+          <t>Proposal start date</t>
         </is>
       </c>
       <c r="F85" s="2" t="inlineStr"/>
@@ -4693,17 +4693,17 @@
       <c r="K85" s="2" t="inlineStr"/>
       <c r="L85" s="2" t="inlineStr">
         <is>
-          <t>Has any work on the proposal already been started</t>
+          <t>The date when work on the proposal started, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="M85" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N85" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4717,12 +4717,12 @@
       </c>
       <c r="D86" s="2" t="inlineStr">
         <is>
-          <t>proposal-started-date</t>
+          <t>proposal-completed</t>
         </is>
       </c>
       <c r="E86" s="2" t="inlineStr">
         <is>
-          <t>Proposal start date</t>
+          <t>Proposal completed</t>
         </is>
       </c>
       <c r="F86" s="2" t="inlineStr"/>
@@ -4733,17 +4733,17 @@
       <c r="K86" s="2" t="inlineStr"/>
       <c r="L86" s="2" t="inlineStr">
         <is>
-          <t>The date when work on the proposal started, in YYYY-MM-DD format</t>
+          <t>Has any work on the proposal already been completed</t>
         </is>
       </c>
       <c r="M86" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N86" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4757,12 +4757,12 @@
       </c>
       <c r="D87" s="2" t="inlineStr">
         <is>
-          <t>proposal-completed</t>
+          <t>proposal-completed-date</t>
         </is>
       </c>
       <c r="E87" s="2" t="inlineStr">
         <is>
-          <t>Proposal completed</t>
+          <t>Proposal completion date</t>
         </is>
       </c>
       <c r="F87" s="2" t="inlineStr"/>
@@ -4773,52 +4773,68 @@
       <c r="K87" s="2" t="inlineStr"/>
       <c r="L87" s="2" t="inlineStr">
         <is>
-          <t>Has any work on the proposal already been completed</t>
+          <t>The date when work on the proposal was completed, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="M87" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N87" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="2" t="n"/>
-      <c r="B88" s="2" t="n"/>
+      <c r="A88" s="2" t="inlineStr">
+        <is>
+          <t>Site details</t>
+        </is>
+      </c>
+      <c r="B88" s="2" t="inlineStr">
+        <is>
+          <t>site-details</t>
+        </is>
+      </c>
       <c r="C88" s="2" t="inlineStr">
         <is>
-          <t>What development, works or change of use is proposed</t>
+          <t>Where the proposed development will be built.</t>
         </is>
       </c>
       <c r="D88" s="2" t="inlineStr">
         <is>
-          <t>proposal-completed-date</t>
+          <t>site-locations</t>
         </is>
       </c>
       <c r="E88" s="2" t="inlineStr">
         <is>
-          <t>Proposal completion date</t>
-        </is>
-      </c>
-      <c r="F88" s="2" t="inlineStr"/>
-      <c r="G88" s="2" t="inlineStr"/>
+          <t>Site locations[]</t>
+        </is>
+      </c>
+      <c r="F88" s="2" t="inlineStr">
+        <is>
+          <t>site-boundary</t>
+        </is>
+      </c>
+      <c r="G88" s="2" t="inlineStr">
+        <is>
+          <t>Site boundary</t>
+        </is>
+      </c>
       <c r="H88" s="2" t="inlineStr"/>
       <c r="I88" s="2" t="inlineStr"/>
       <c r="J88" s="2" t="inlineStr"/>
       <c r="K88" s="2" t="inlineStr"/>
       <c r="L88" s="2" t="inlineStr">
         <is>
-          <t>The date when work on the proposal was completed, in YYYY-MM-DD format</t>
+          <t>Geometry of the site of the development, typically in GeoJSON format</t>
         </is>
       </c>
       <c r="M88" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>wkt</t>
         </is>
       </c>
       <c r="N88" s="2" t="inlineStr">
@@ -4828,16 +4844,8 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="2" t="inlineStr">
-        <is>
-          <t>Site details</t>
-        </is>
-      </c>
-      <c r="B89" s="2" t="inlineStr">
-        <is>
-          <t>site-details</t>
-        </is>
-      </c>
+      <c r="A89" s="2" t="n"/>
+      <c r="B89" s="2" t="n"/>
       <c r="C89" s="2" t="inlineStr">
         <is>
           <t>Where the proposed development will be built.</t>
@@ -4855,12 +4863,12 @@
       </c>
       <c r="F89" s="2" t="inlineStr">
         <is>
-          <t>site-boundary</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="G89" s="2" t="inlineStr">
         <is>
-          <t>Site boundary</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="H89" s="2" t="inlineStr"/>
@@ -4869,12 +4877,12 @@
       <c r="K89" s="2" t="inlineStr"/>
       <c r="L89" s="2" t="inlineStr">
         <is>
-          <t>Geometry of the site of the development, typically in GeoJSON format</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M89" s="2" t="inlineStr">
         <is>
-          <t>wkt</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N89" s="2" t="inlineStr">
@@ -4903,12 +4911,12 @@
       </c>
       <c r="F90" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="G90" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="H90" s="2" t="inlineStr"/>
@@ -4917,7 +4925,7 @@
       <c r="K90" s="2" t="inlineStr"/>
       <c r="L90" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M90" s="2" t="inlineStr">
@@ -4951,12 +4959,12 @@
       </c>
       <c r="F91" s="2" t="inlineStr">
         <is>
-          <t>postcode</t>
+          <t>easting</t>
         </is>
       </c>
       <c r="G91" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Easting</t>
         </is>
       </c>
       <c r="H91" s="2" t="inlineStr"/>
@@ -4965,12 +4973,12 @@
       <c r="K91" s="2" t="inlineStr"/>
       <c r="L91" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="M91" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N91" s="2" t="inlineStr">
@@ -4999,12 +5007,12 @@
       </c>
       <c r="F92" s="2" t="inlineStr">
         <is>
-          <t>easting</t>
+          <t>northing</t>
         </is>
       </c>
       <c r="G92" s="2" t="inlineStr">
         <is>
-          <t>Easting</t>
+          <t>Northing</t>
         </is>
       </c>
       <c r="H92" s="2" t="inlineStr"/>
@@ -5013,7 +5021,7 @@
       <c r="K92" s="2" t="inlineStr"/>
       <c r="L92" s="2" t="inlineStr">
         <is>
-          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
+          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="M92" s="2" t="inlineStr">
@@ -5047,12 +5055,12 @@
       </c>
       <c r="F93" s="2" t="inlineStr">
         <is>
-          <t>northing</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G93" s="2" t="inlineStr">
         <is>
-          <t>Northing</t>
+          <t>Latitude</t>
         </is>
       </c>
       <c r="H93" s="2" t="inlineStr"/>
@@ -5061,7 +5069,7 @@
       <c r="K93" s="2" t="inlineStr"/>
       <c r="L93" s="2" t="inlineStr">
         <is>
-          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
+          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="M93" s="2" t="inlineStr">
@@ -5095,12 +5103,12 @@
       </c>
       <c r="F94" s="2" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="G94" s="2" t="inlineStr">
         <is>
-          <t>Latitude</t>
+          <t>Longitude</t>
         </is>
       </c>
       <c r="H94" s="2" t="inlineStr"/>
@@ -5109,7 +5117,7 @@
       <c r="K94" s="2" t="inlineStr"/>
       <c r="L94" s="2" t="inlineStr">
         <is>
-          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="M94" s="2" t="inlineStr">
@@ -5143,12 +5151,12 @@
       </c>
       <c r="F95" s="2" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>description</t>
         </is>
       </c>
       <c r="G95" s="2" t="inlineStr">
         <is>
-          <t>Longitude</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="H95" s="2" t="inlineStr"/>
@@ -5157,12 +5165,12 @@
       <c r="K95" s="2" t="inlineStr"/>
       <c r="L95" s="2" t="inlineStr">
         <is>
-          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
         </is>
       </c>
       <c r="M95" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N95" s="2" t="inlineStr">
@@ -5191,12 +5199,12 @@
       </c>
       <c r="F96" s="2" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>uprns</t>
         </is>
       </c>
       <c r="G96" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>UPRNs[]</t>
         </is>
       </c>
       <c r="H96" s="2" t="inlineStr"/>
@@ -5205,7 +5213,7 @@
       <c r="K96" s="2" t="inlineStr"/>
       <c r="L96" s="2" t="inlineStr">
         <is>
-          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
+          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
         </is>
       </c>
       <c r="M96" s="2" t="inlineStr">
@@ -5220,64 +5228,56 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="2" t="n"/>
-      <c r="B97" s="2" t="n"/>
+      <c r="A97" s="2" t="inlineStr">
+        <is>
+          <t>Site Visit Details</t>
+        </is>
+      </c>
+      <c r="B97" s="2" t="inlineStr">
+        <is>
+          <t>site-visit</t>
+        </is>
+      </c>
       <c r="C97" s="2" t="inlineStr">
         <is>
-          <t>Where the proposed development will be built.</t>
+          <t>Information to help the planning authority arrange a site visit</t>
         </is>
       </c>
       <c r="D97" s="2" t="inlineStr">
         <is>
-          <t>site-locations</t>
+          <t>can-be-seen-from</t>
         </is>
       </c>
       <c r="E97" s="2" t="inlineStr">
         <is>
-          <t>Site locations[]</t>
-        </is>
-      </c>
-      <c r="F97" s="2" t="inlineStr">
-        <is>
-          <t>uprns</t>
-        </is>
-      </c>
-      <c r="G97" s="2" t="inlineStr">
-        <is>
-          <t>UPRNs[]</t>
-        </is>
-      </c>
+          <t>Site seen from public area</t>
+        </is>
+      </c>
+      <c r="F97" s="2" t="inlineStr"/>
+      <c r="G97" s="2" t="inlineStr"/>
       <c r="H97" s="2" t="inlineStr"/>
       <c r="I97" s="2" t="inlineStr"/>
       <c r="J97" s="2" t="inlineStr"/>
       <c r="K97" s="2" t="inlineStr"/>
       <c r="L97" s="2" t="inlineStr">
         <is>
-          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
+          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
         </is>
       </c>
       <c r="M97" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N97" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="2" t="inlineStr">
-        <is>
-          <t>Site Visit Details</t>
-        </is>
-      </c>
-      <c r="B98" s="2" t="inlineStr">
-        <is>
-          <t>site-visit</t>
-        </is>
-      </c>
+      <c r="A98" s="2" t="n"/>
+      <c r="B98" s="2" t="n"/>
       <c r="C98" s="2" t="inlineStr">
         <is>
           <t>Information to help the planning authority arrange a site visit</t>
@@ -5285,12 +5285,12 @@
       </c>
       <c r="D98" s="2" t="inlineStr">
         <is>
-          <t>can-be-seen-from</t>
+          <t>contact-type</t>
         </is>
       </c>
       <c r="E98" s="2" t="inlineStr">
         <is>
-          <t>Site seen from public area</t>
+          <t>Site visit contact type</t>
         </is>
       </c>
       <c r="F98" s="2" t="inlineStr"/>
@@ -5301,12 +5301,12 @@
       <c r="K98" s="2" t="inlineStr"/>
       <c r="L98" s="2" t="inlineStr">
         <is>
-          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
+          <t>Indicates who the authority should contact to arrange a site visit</t>
         </is>
       </c>
       <c r="M98" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N98" s="2" t="inlineStr">
@@ -5325,12 +5325,12 @@
       </c>
       <c r="D99" s="2" t="inlineStr">
         <is>
-          <t>contact-type</t>
+          <t>contact-reference</t>
         </is>
       </c>
       <c r="E99" s="2" t="inlineStr">
         <is>
-          <t>Site visit contact type</t>
+          <t>Contact reference</t>
         </is>
       </c>
       <c r="F99" s="2" t="inlineStr"/>
@@ -5341,17 +5341,17 @@
       <c r="K99" s="2" t="inlineStr"/>
       <c r="L99" s="2" t="inlineStr">
         <is>
-          <t>Indicates who the authority should contact to arrange a site visit</t>
+          <t>The reference of the applicant or agent who should be contacted for site visits</t>
         </is>
       </c>
       <c r="M99" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N99" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5365,23 +5365,31 @@
       </c>
       <c r="D100" s="2" t="inlineStr">
         <is>
-          <t>contact-reference</t>
+          <t>other-contact</t>
         </is>
       </c>
       <c r="E100" s="2" t="inlineStr">
         <is>
-          <t>Contact reference</t>
-        </is>
-      </c>
-      <c r="F100" s="2" t="inlineStr"/>
-      <c r="G100" s="2" t="inlineStr"/>
+          <t>Other site visit contact</t>
+        </is>
+      </c>
+      <c r="F100" s="2" t="inlineStr">
+        <is>
+          <t>fullname</t>
+        </is>
+      </c>
+      <c r="G100" s="2" t="inlineStr">
+        <is>
+          <t>Full name</t>
+        </is>
+      </c>
       <c r="H100" s="2" t="inlineStr"/>
       <c r="I100" s="2" t="inlineStr"/>
       <c r="J100" s="2" t="inlineStr"/>
       <c r="K100" s="2" t="inlineStr"/>
       <c r="L100" s="2" t="inlineStr">
         <is>
-          <t>The reference of the applicant or agent who should be contacted for site visits</t>
+          <t>The complete name of a person</t>
         </is>
       </c>
       <c r="M100" s="2" t="inlineStr">
@@ -5391,7 +5399,7 @@
       </c>
       <c r="N100" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5415,12 +5423,12 @@
       </c>
       <c r="F101" s="2" t="inlineStr">
         <is>
-          <t>fullname</t>
+          <t>number</t>
         </is>
       </c>
       <c r="G101" s="2" t="inlineStr">
         <is>
-          <t>Full name</t>
+          <t>Phone number</t>
         </is>
       </c>
       <c r="H101" s="2" t="inlineStr"/>
@@ -5429,7 +5437,7 @@
       <c r="K101" s="2" t="inlineStr"/>
       <c r="L101" s="2" t="inlineStr">
         <is>
-          <t>The complete name of a person</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="M101" s="2" t="inlineStr">
@@ -5463,12 +5471,12 @@
       </c>
       <c r="F102" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>email</t>
         </is>
       </c>
       <c r="G102" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="H102" s="2" t="inlineStr"/>
@@ -5477,7 +5485,7 @@
       <c r="K102" s="2" t="inlineStr"/>
       <c r="L102" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="M102" s="2" t="inlineStr">
@@ -5492,45 +5500,45 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="2" t="n"/>
-      <c r="B103" s="2" t="n"/>
+      <c r="A103" s="2" t="inlineStr">
+        <is>
+          <t>Trees and hedges information</t>
+        </is>
+      </c>
+      <c r="B103" s="2" t="inlineStr">
+        <is>
+          <t>trees-hedges</t>
+        </is>
+      </c>
       <c r="C103" s="2" t="inlineStr">
         <is>
-          <t>Information to help the planning authority arrange a site visit</t>
+          <t>Details of trees and/or hedges that will be affected by the proposed development</t>
         </is>
       </c>
       <c r="D103" s="2" t="inlineStr">
         <is>
-          <t>other-contact</t>
+          <t>has-falling-trees-risk</t>
         </is>
       </c>
       <c r="E103" s="2" t="inlineStr">
         <is>
-          <t>Other site visit contact</t>
-        </is>
-      </c>
-      <c r="F103" s="2" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="G103" s="2" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
+          <t>Falling trees risk</t>
+        </is>
+      </c>
+      <c r="F103" s="2" t="inlineStr"/>
+      <c r="G103" s="2" t="inlineStr"/>
       <c r="H103" s="2" t="inlineStr"/>
       <c r="I103" s="2" t="inlineStr"/>
       <c r="J103" s="2" t="inlineStr"/>
       <c r="K103" s="2" t="inlineStr"/>
       <c r="L103" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>Whether there are falling trees on-premises or adjacent premises that are a risk to the development</t>
         </is>
       </c>
       <c r="M103" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N103" s="2" t="inlineStr">
@@ -5540,16 +5548,8 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="2" t="inlineStr">
-        <is>
-          <t>Trees and hedges information</t>
-        </is>
-      </c>
-      <c r="B104" s="2" t="inlineStr">
-        <is>
-          <t>trees-hedges</t>
-        </is>
-      </c>
+      <c r="A104" s="2" t="n"/>
+      <c r="B104" s="2" t="n"/>
       <c r="C104" s="2" t="inlineStr">
         <is>
           <t>Details of trees and/or hedges that will be affected by the proposed development</t>
@@ -5557,28 +5557,36 @@
       </c>
       <c r="D104" s="2" t="inlineStr">
         <is>
-          <t>has-falling-trees-risk</t>
+          <t>falling-trees-document</t>
         </is>
       </c>
       <c r="E104" s="2" t="inlineStr">
         <is>
-          <t>Falling trees risk</t>
-        </is>
-      </c>
-      <c r="F104" s="2" t="inlineStr"/>
-      <c r="G104" s="2" t="inlineStr"/>
+          <t>Falling trees document</t>
+        </is>
+      </c>
+      <c r="F104" s="2" t="inlineStr">
+        <is>
+          <t>reference</t>
+        </is>
+      </c>
+      <c r="G104" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="H104" s="2" t="inlineStr"/>
       <c r="I104" s="2" t="inlineStr"/>
       <c r="J104" s="2" t="inlineStr"/>
       <c r="K104" s="2" t="inlineStr"/>
       <c r="L104" s="2" t="inlineStr">
         <is>
-          <t>Whether there are falling trees on-premises or adjacent premises that are a risk to the development</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M104" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N104" s="2" t="inlineStr">
@@ -5597,36 +5605,28 @@
       </c>
       <c r="D105" s="2" t="inlineStr">
         <is>
-          <t>falling-trees-document</t>
+          <t>tree-removal</t>
         </is>
       </c>
       <c r="E105" s="2" t="inlineStr">
         <is>
-          <t>Falling trees document</t>
-        </is>
-      </c>
-      <c r="F105" s="2" t="inlineStr">
-        <is>
-          <t>reference</t>
-        </is>
-      </c>
-      <c r="G105" s="2" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
+          <t>Tree removal</t>
+        </is>
+      </c>
+      <c r="F105" s="2" t="inlineStr"/>
+      <c r="G105" s="2" t="inlineStr"/>
       <c r="H105" s="2" t="inlineStr"/>
       <c r="I105" s="2" t="inlineStr"/>
       <c r="J105" s="2" t="inlineStr"/>
       <c r="K105" s="2" t="inlineStr"/>
       <c r="L105" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>Whether trees or hedges need to be pruned or removed</t>
         </is>
       </c>
       <c r="M105" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N105" s="2" t="inlineStr">
@@ -5645,22 +5645,22 @@
       </c>
       <c r="D106" s="2" t="inlineStr">
         <is>
-          <t>falling-trees-document</t>
+          <t>tree-removal-plan</t>
         </is>
       </c>
       <c r="E106" s="2" t="inlineStr">
         <is>
-          <t>Falling trees document</t>
+          <t>Tree removal plan</t>
         </is>
       </c>
       <c r="F106" s="2" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="G106" s="2" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="H106" s="2" t="inlineStr"/>
@@ -5669,7 +5669,7 @@
       <c r="K106" s="2" t="inlineStr"/>
       <c r="L106" s="2" t="inlineStr">
         <is>
-          <t>A name for the document. For example, The Site Plan</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M106" s="2" t="inlineStr">
@@ -5678,142 +5678,6 @@
         </is>
       </c>
       <c r="N106" s="2" t="inlineStr">
-        <is>
-          <t>MUST</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="2" t="n"/>
-      <c r="B107" s="2" t="n"/>
-      <c r="C107" s="2" t="inlineStr">
-        <is>
-          <t>Details of trees and/or hedges that will be affected by the proposed development</t>
-        </is>
-      </c>
-      <c r="D107" s="2" t="inlineStr">
-        <is>
-          <t>tree-removal</t>
-        </is>
-      </c>
-      <c r="E107" s="2" t="inlineStr">
-        <is>
-          <t>Tree removal</t>
-        </is>
-      </c>
-      <c r="F107" s="2" t="inlineStr"/>
-      <c r="G107" s="2" t="inlineStr"/>
-      <c r="H107" s="2" t="inlineStr"/>
-      <c r="I107" s="2" t="inlineStr"/>
-      <c r="J107" s="2" t="inlineStr"/>
-      <c r="K107" s="2" t="inlineStr"/>
-      <c r="L107" s="2" t="inlineStr">
-        <is>
-          <t>Whether trees or hedges need to be pruned or removed</t>
-        </is>
-      </c>
-      <c r="M107" s="2" t="inlineStr">
-        <is>
-          <t>boolean</t>
-        </is>
-      </c>
-      <c r="N107" s="2" t="inlineStr">
-        <is>
-          <t>MUST</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="2" t="n"/>
-      <c r="B108" s="2" t="n"/>
-      <c r="C108" s="2" t="inlineStr">
-        <is>
-          <t>Details of trees and/or hedges that will be affected by the proposed development</t>
-        </is>
-      </c>
-      <c r="D108" s="2" t="inlineStr">
-        <is>
-          <t>tree-removal-plan</t>
-        </is>
-      </c>
-      <c r="E108" s="2" t="inlineStr">
-        <is>
-          <t>Tree removal plan</t>
-        </is>
-      </c>
-      <c r="F108" s="2" t="inlineStr">
-        <is>
-          <t>reference</t>
-        </is>
-      </c>
-      <c r="G108" s="2" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="H108" s="2" t="inlineStr"/>
-      <c r="I108" s="2" t="inlineStr"/>
-      <c r="J108" s="2" t="inlineStr"/>
-      <c r="K108" s="2" t="inlineStr"/>
-      <c r="L108" s="2" t="inlineStr">
-        <is>
-          <t>A unique reference for the data item</t>
-        </is>
-      </c>
-      <c r="M108" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="N108" s="2" t="inlineStr">
-        <is>
-          <t>MUST</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="2" t="n"/>
-      <c r="B109" s="2" t="n"/>
-      <c r="C109" s="2" t="inlineStr">
-        <is>
-          <t>Details of trees and/or hedges that will be affected by the proposed development</t>
-        </is>
-      </c>
-      <c r="D109" s="2" t="inlineStr">
-        <is>
-          <t>tree-removal-plan</t>
-        </is>
-      </c>
-      <c r="E109" s="2" t="inlineStr">
-        <is>
-          <t>Tree removal plan</t>
-        </is>
-      </c>
-      <c r="F109" s="2" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="G109" s="2" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="H109" s="2" t="inlineStr"/>
-      <c r="I109" s="2" t="inlineStr"/>
-      <c r="J109" s="2" t="inlineStr"/>
-      <c r="K109" s="2" t="inlineStr"/>
-      <c r="L109" s="2" t="inlineStr">
-        <is>
-          <t>A name for the document. For example, The Site Plan</t>
-        </is>
-      </c>
-      <c r="M109" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="N109" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -5823,40 +5687,40 @@
   <mergeCells count="36">
     <mergeCell ref="A36:A39"/>
     <mergeCell ref="A40:A45"/>
-    <mergeCell ref="B62:B76"/>
-    <mergeCell ref="B84:B88"/>
-    <mergeCell ref="A98:A103"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="A89:A97"/>
-    <mergeCell ref="B2:B18"/>
+    <mergeCell ref="B97:B102"/>
+    <mergeCell ref="B78:B82"/>
+    <mergeCell ref="B88:B96"/>
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="A103:A106"/>
+    <mergeCell ref="A61:A75"/>
+    <mergeCell ref="B61:B75"/>
+    <mergeCell ref="B83:B87"/>
     <mergeCell ref="B51:B53"/>
+    <mergeCell ref="A83:A87"/>
     <mergeCell ref="B47"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="A54:A61"/>
     <mergeCell ref="B46"/>
-    <mergeCell ref="B98:B103"/>
-    <mergeCell ref="B79:B83"/>
+    <mergeCell ref="B103:B106"/>
+    <mergeCell ref="B54:B60"/>
+    <mergeCell ref="A76:A77"/>
     <mergeCell ref="A48:A50"/>
     <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A79:A83"/>
-    <mergeCell ref="B89:B97"/>
-    <mergeCell ref="A2:A18"/>
-    <mergeCell ref="A104:A109"/>
-    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="B24:B27"/>
     <mergeCell ref="B28:B35"/>
+    <mergeCell ref="A54:A60"/>
     <mergeCell ref="A46"/>
+    <mergeCell ref="B76:B77"/>
     <mergeCell ref="B36:B39"/>
-    <mergeCell ref="A62:A76"/>
-    <mergeCell ref="A84:A88"/>
+    <mergeCell ref="A97:A102"/>
     <mergeCell ref="B40:B45"/>
+    <mergeCell ref="A78:A82"/>
     <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B104:B109"/>
+    <mergeCell ref="A88:A96"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="B2:B19"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A35"/>
     <mergeCell ref="A47"/>
-    <mergeCell ref="B54:B61"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/generated/spreadsheet/verbose/householder-planning-application-hh-verbose.xlsx
+++ b/generated/spreadsheet/verbose/householder-planning-application-hh-verbose.xlsx
@@ -861,7 +861,7 @@
       <c r="K8" s="2" t="inlineStr"/>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>A reference for the document</t>
+          <t>Unique reference for the document within this application submission, generated by the submitting system</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">

--- a/generated/spreadsheet/verbose/householder-planning-application-hh-verbose.xlsx
+++ b/generated/spreadsheet/verbose/householder-planning-application-hh-verbose.xlsx
@@ -762,7 +762,7 @@
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -3978,7 +3978,7 @@
       </c>
       <c r="M68" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="N68" s="2" t="inlineStr">
@@ -4114,7 +4114,7 @@
       </c>
       <c r="M71" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="N71" s="2" t="inlineStr">
@@ -4274,7 +4274,7 @@
       </c>
       <c r="M75" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="N75" s="2" t="inlineStr">
@@ -4698,7 +4698,7 @@
       </c>
       <c r="M85" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="N85" s="2" t="inlineStr">
@@ -4778,7 +4778,7 @@
       </c>
       <c r="M87" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="N87" s="2" t="inlineStr">

--- a/generated/spreadsheet/verbose/householder-planning-application-hh-verbose.xlsx
+++ b/generated/spreadsheet/verbose/householder-planning-application-hh-verbose.xlsx
@@ -4253,12 +4253,12 @@
       </c>
       <c r="D75" s="2" t="inlineStr">
         <is>
-          <t>signature-date</t>
+          <t>declaration-date</t>
         </is>
       </c>
       <c r="E75" s="2" t="inlineStr">
         <is>
-          <t>Signature date</t>
+          <t>Declaration date</t>
         </is>
       </c>
       <c r="F75" s="2" t="inlineStr"/>
@@ -4269,12 +4269,12 @@
       <c r="K75" s="2" t="inlineStr"/>
       <c r="L75" s="2" t="inlineStr">
         <is>
-          <t>Date when the ownership certificate was signed</t>
+          <t>The date the declaration was made</t>
         </is>
       </c>
       <c r="M75" s="2" t="inlineStr">
         <is>
-          <t>datetime</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N75" s="2" t="inlineStr">
